--- a/8月単語.xlsx
+++ b/8月単語.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kreis1g-tpc-029\Desktop\穆作業\Git管理\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F401D89D-5837-4FBC-908C-D72D52D5D74E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF914D00-80A2-4002-99AA-2B64C7FA0B0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="155">
   <si>
     <t>2021/8/2の単語</t>
     <rPh sb="9" eb="11">
@@ -575,6 +575,529 @@
   </si>
   <si>
     <t>いためる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2021/8/4の単語</t>
+    <rPh sb="9" eb="11">
+      <t>タンゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゴム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>橡胶</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>製造</t>
+    <rPh sb="0" eb="2">
+      <t>セイゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>せいぞう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>加工</t>
+    <rPh sb="0" eb="2">
+      <t>カコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かこう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>片手</t>
+    <rPh sb="0" eb="2">
+      <t>カタテ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かたて</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>单</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>手</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>栄養</t>
+    <rPh sb="0" eb="2">
+      <t>エイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>えいよう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>離れる</t>
+    <rPh sb="0" eb="1">
+      <t>ハナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>はなれる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>V2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>相隔，距离；分开，离开</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>年寄り</t>
+    <rPh sb="0" eb="2">
+      <t>トシヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>としより</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>老人</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>譲る</t>
+    <rPh sb="0" eb="1">
+      <t>ユズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゆずる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>V1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>让给；转让</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>及ぶ</t>
+    <rPh sb="0" eb="1">
+      <t>オヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>およぶ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>达，及</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あきれる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>惊愕，目瞪口呆</t>
+  </si>
+  <si>
+    <t>あんな</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>连</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>体</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>那样</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，那种</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かわいそう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>adj2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>可怜</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>近所迷惑</t>
+    <rPh sb="0" eb="4">
+      <t>キンジョメイワク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>きんじょめいわく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>真心</t>
+    <rPh sb="0" eb="2">
+      <t>マゴコロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>まごころ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>真心，诚</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>意</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こめる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>饱</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>含，包括，包含；集中</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>経つ</t>
+    <rPh sb="0" eb="1">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>たつ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（时间）过，流逝，消逝</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>どんなに</t>
+  </si>
+  <si>
+    <t>どれだけ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いかに</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>怎样</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，怎么</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>怎么，多么</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>気分転換</t>
+    <rPh sb="0" eb="4">
+      <t>キブンテンカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>きぶんてんかん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>转换</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>心情</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あらゆる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>所有，一切</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>示す</t>
+    <rPh sb="0" eb="1">
+      <t>シメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しめす</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>笑顔</t>
+    <rPh sb="0" eb="2">
+      <t>エガオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>事実</t>
+    <rPh sb="0" eb="2">
+      <t>ジジツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>じじつ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無駄遣い</t>
+    <rPh sb="0" eb="3">
+      <t>ムダヅカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>むだづかい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>浪</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>费，滥用</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>食塩</t>
+    <rPh sb="0" eb="2">
+      <t>ショクエン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しょくえん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>紫外線</t>
+    <rPh sb="0" eb="3">
+      <t>シガイセン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しがいせん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>わずか</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>很少，一点点，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>仅仅</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>任性，恣意</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>わがまま</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>付き合う</t>
+    <rPh sb="0" eb="1">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>つきあう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>交往，来往</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>懒</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>惰，懈怠</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>怠ける</t>
+    <rPh sb="0" eb="1">
+      <t>ナマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なまける</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -582,7 +1105,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -603,6 +1126,14 @@
       <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -647,16 +1178,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -937,10 +1470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -950,417 +1483,739 @@
     <col min="4" max="4" width="27.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="F1" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A3" s="3" t="s">
+      <c r="F2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="3"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A4" s="3" t="s">
+      <c r="D3" s="2"/>
+      <c r="G3" t="s">
+        <v>79</v>
+      </c>
+      <c r="H3" t="s">
+        <v>80</v>
+      </c>
+      <c r="I3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A5" s="3" t="s">
+      <c r="D4" s="2"/>
+      <c r="F4" t="s">
+        <v>82</v>
+      </c>
+      <c r="G4" t="s">
+        <v>83</v>
+      </c>
+      <c r="H4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="3"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A6" s="3" t="s">
+      <c r="D5" s="2"/>
+      <c r="F5" t="s">
+        <v>84</v>
+      </c>
+      <c r="G5" t="s">
+        <v>85</v>
+      </c>
+      <c r="H5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="3"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A7" s="3" t="s">
+      <c r="D6" s="2"/>
+      <c r="F6" t="s">
+        <v>86</v>
+      </c>
+      <c r="G6" t="s">
+        <v>87</v>
+      </c>
+      <c r="H6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="3"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A8" s="3" t="s">
+      <c r="D7" s="2"/>
+      <c r="F7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A9" s="3" t="s">
+      <c r="D8" s="2"/>
+      <c r="F8" t="s">
+        <v>91</v>
+      </c>
+      <c r="G8" t="s">
+        <v>92</v>
+      </c>
+      <c r="H8" t="s">
+        <v>93</v>
+      </c>
+      <c r="I8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="3"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A10" s="3" t="s">
+      <c r="D9" s="2"/>
+      <c r="F9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G9" t="s">
+        <v>96</v>
+      </c>
+      <c r="H9" t="s">
+        <v>80</v>
+      </c>
+      <c r="I9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A11" s="3" t="s">
+      <c r="F10" t="s">
+        <v>98</v>
+      </c>
+      <c r="G10" t="s">
+        <v>99</v>
+      </c>
+      <c r="H10" t="s">
+        <v>100</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A11" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="3"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A12" s="3" t="s">
+      <c r="D11" s="2"/>
+      <c r="F11" t="s">
+        <v>102</v>
+      </c>
+      <c r="G11" t="s">
+        <v>103</v>
+      </c>
+      <c r="H11" t="s">
+        <v>100</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A12" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="3"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A13" s="3" t="s">
+      <c r="D12" s="2"/>
+      <c r="G12" t="s">
+        <v>105</v>
+      </c>
+      <c r="H12" t="s">
+        <v>93</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A13" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="3"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A14" s="3" t="s">
+      <c r="D13" s="2"/>
+      <c r="G13" t="s">
+        <v>107</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A14" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="3"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3" t="s">
+      <c r="D14" s="2"/>
+      <c r="G14" t="s">
+        <v>110</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A16" s="3" t="s">
+      <c r="F15" t="s">
+        <v>113</v>
+      </c>
+      <c r="G15" t="s">
+        <v>114</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A16" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="3"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A17" s="3" t="s">
+      <c r="D16" s="2"/>
+      <c r="F16" t="s">
+        <v>115</v>
+      </c>
+      <c r="G16" t="s">
+        <v>116</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A17" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="3"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A18" s="3" t="s">
+      <c r="D17" s="2"/>
+      <c r="G17" t="s">
+        <v>118</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A18" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D18" s="3"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A19" s="3" t="s">
+      <c r="D18" s="2"/>
+      <c r="F18" t="s">
+        <v>120</v>
+      </c>
+      <c r="G18" t="s">
+        <v>121</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A19" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="3" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3" t="s">
+      <c r="G19" t="s">
+        <v>123</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="3" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A21" s="3" t="s">
+      <c r="G20" t="s">
+        <v>124</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A21" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3" t="s">
+      <c r="G21" t="s">
+        <v>125</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3" t="s">
+      <c r="F22" t="s">
+        <v>128</v>
+      </c>
+      <c r="G22" t="s">
+        <v>129</v>
+      </c>
+      <c r="H22" t="s">
+        <v>80</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A24" s="3" t="s">
+      <c r="G23" t="s">
+        <v>131</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A24" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A25" s="3" t="s">
+      <c r="F24" t="s">
+        <v>133</v>
+      </c>
+      <c r="G24" t="s">
+        <v>134</v>
+      </c>
+      <c r="H24" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A25" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D25" s="3"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A26" s="3" t="s">
+      <c r="D25" s="2"/>
+      <c r="F25" t="s">
+        <v>135</v>
+      </c>
+      <c r="G25" t="s">
+        <v>135</v>
+      </c>
+      <c r="H25" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A26" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D26" s="3"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A27" s="3" t="s">
+      <c r="D26" s="2"/>
+      <c r="F26" t="s">
+        <v>136</v>
+      </c>
+      <c r="G26" t="s">
+        <v>137</v>
+      </c>
+      <c r="H26" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A27" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="2" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A28" s="3" t="s">
+      <c r="F27" t="s">
+        <v>138</v>
+      </c>
+      <c r="G27" t="s">
+        <v>139</v>
+      </c>
+      <c r="H27" t="s">
+        <v>80</v>
+      </c>
+      <c r="I27" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A28" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D28" s="3"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A29" s="3" t="s">
+      <c r="D28" s="2"/>
+      <c r="F28" t="s">
+        <v>141</v>
+      </c>
+      <c r="G28" t="s">
+        <v>142</v>
+      </c>
+      <c r="H28" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A29" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D29" s="3" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A30" s="3" t="s">
+      <c r="F29" t="s">
+        <v>143</v>
+      </c>
+      <c r="G29" t="s">
+        <v>144</v>
+      </c>
+      <c r="H29" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A30" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" s="2" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A31" s="3" t="s">
+      <c r="G30" t="s">
+        <v>145</v>
+      </c>
+      <c r="H30" t="s">
+        <v>111</v>
+      </c>
+      <c r="I30" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A31" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D31" s="3"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A32" s="3" t="s">
+      <c r="D31" s="2"/>
+      <c r="G31" t="s">
+        <v>148</v>
+      </c>
+      <c r="H31" t="s">
+        <v>111</v>
+      </c>
+      <c r="I31" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A32" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D32" s="3"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A33" s="3" t="s">
+      <c r="D32" s="2"/>
+      <c r="F32" t="s">
+        <v>149</v>
+      </c>
+      <c r="G32" t="s">
+        <v>150</v>
+      </c>
+      <c r="H32" t="s">
+        <v>100</v>
+      </c>
+      <c r="I32" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A33" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D33" s="3"/>
+      <c r="D33" s="2"/>
+      <c r="F33" t="s">
+        <v>153</v>
+      </c>
+      <c r="G33" t="s">
+        <v>154</v>
+      </c>
+      <c r="H33" t="s">
+        <v>93</v>
+      </c>
+      <c r="I33" s="5" t="s">
+        <v>152</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:I1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/8月単語.xlsx
+++ b/8月単語.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kreis1g-tpc-029\Desktop\穆作業\Git管理\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF914D00-80A2-4002-99AA-2B64C7FA0B0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9742FF39-3A55-4E4C-9548-85DAC63F357F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="20210802~20210808" sheetId="1" r:id="rId1"/>
+    <sheet name="20210809～20210815" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="482">
   <si>
     <t>2021/8/2の単語</t>
     <rPh sb="9" eb="11">
@@ -1098,6 +1099,2213 @@
   </si>
   <si>
     <t>なまける</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2021/8/６の単語</t>
+    <rPh sb="9" eb="11">
+      <t>タンゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2021/8/7の単語</t>
+    <rPh sb="9" eb="11">
+      <t>タンゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2021/8/８の単語</t>
+    <rPh sb="9" eb="11">
+      <t>タンゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>響子</t>
+    <rPh sb="0" eb="2">
+      <t>キョウコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>きょうこ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>响子</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小川</t>
+    <rPh sb="0" eb="2">
+      <t>オガワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おがわ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>専N</t>
+    <rPh sb="0" eb="1">
+      <t>セン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>明</t>
+    <rPh sb="0" eb="1">
+      <t>アキラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あきら</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>天津</t>
+    <rPh sb="0" eb="2">
+      <t>テンシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>てんしん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>品質管理</t>
+    <rPh sb="0" eb="4">
+      <t>ヒンシツカンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ひんしつかんり</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>燕</t>
+    <rPh sb="0" eb="1">
+      <t>ツバメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>つばめ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>南北</t>
+    <rPh sb="0" eb="2">
+      <t>ナンボク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なんぼく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>力</t>
+    <rPh sb="0" eb="1">
+      <t>チカラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ちから</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>看護師</t>
+    <rPh sb="0" eb="3">
+      <t>カンゴシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かんごし</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>記者</t>
+    <rPh sb="0" eb="2">
+      <t>キシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>きしゃ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>貴社</t>
+    <rPh sb="0" eb="2">
+      <t>キシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>通訳</t>
+    <rPh sb="0" eb="2">
+      <t>ツウヤク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>つうやく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ざっと</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>副</t>
+    <rPh sb="0" eb="1">
+      <t>フク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>粗略地，一下子，很快；（流水声）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>哗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>啦</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名字</t>
+    <rPh sb="0" eb="2">
+      <t>ミョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>みょうじ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>姓</t>
+    <rPh sb="0" eb="1">
+      <t>セイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>せい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>な</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名</t>
+    <rPh sb="0" eb="1">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>指す</t>
+    <rPh sb="0" eb="1">
+      <t>サ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さす</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>V1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>指示（しじ）</t>
+    <rPh sb="0" eb="2">
+      <t>シジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>当時</t>
+    <rPh sb="0" eb="2">
+      <t>トウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>とうじ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>国民</t>
+    <rPh sb="0" eb="2">
+      <t>コクミン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こくみん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>武士</t>
+    <rPh sb="0" eb="2">
+      <t>ブシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ぶし</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>貴族</t>
+    <rPh sb="0" eb="2">
+      <t>キゾク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>きぞく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>人々</t>
+    <rPh sb="0" eb="2">
+      <t>ヒトビト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ひとびと</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>地名</t>
+    <rPh sb="0" eb="2">
+      <t>チメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ちめい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>地形</t>
+    <rPh sb="0" eb="2">
+      <t>チケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ちけい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>林</t>
+    <rPh sb="0" eb="1">
+      <t>ハヤシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>はやし</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>树</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>林</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>谷</t>
+    <rPh sb="0" eb="1">
+      <t>タニ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>たに</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中谷</t>
+    <rPh sb="0" eb="2">
+      <t>ナカタニ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なかたに</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>彬</t>
+    <rPh sb="0" eb="1">
+      <t>スギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>すぎ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>それでも</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>即使那样，尽管如此，可是</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>多民族国家</t>
+    <rPh sb="0" eb="5">
+      <t>タミンゾクコッカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>たみんぞくこっか</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>数</t>
+    <rPh sb="0" eb="1">
+      <t>カズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かず</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>数量</t>
+    <rPh sb="0" eb="2">
+      <t>スウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一方</t>
+    <rPh sb="0" eb="2">
+      <t>イッポウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いっぽう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>连</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>另一方面，一方面</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>人数</t>
+    <rPh sb="0" eb="2">
+      <t>ニンズウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>にんずう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>程度</t>
+    <rPh sb="0" eb="2">
+      <t>テイド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ていど</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>寺</t>
+    <rPh sb="0" eb="1">
+      <t>テラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>てら</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>昭和</t>
+    <rPh sb="0" eb="2">
+      <t>ショウワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しょうわ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>年号</t>
+    <rPh sb="0" eb="2">
+      <t>ネンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ねんごう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あきらめる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>諦める</t>
+    <rPh sb="0" eb="1">
+      <t>アキラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>V2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>放弃，断念，死心</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>受験</t>
+    <rPh sb="0" eb="2">
+      <t>ジュケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>じゅけん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無視する</t>
+    <rPh sb="0" eb="2">
+      <t>ムシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>むしする</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>V3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>忽</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>视，无视</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>夜間学校</t>
+    <rPh sb="0" eb="4">
+      <t>ヤカンガッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>やかんがっこう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敬語</t>
+    <rPh sb="0" eb="2">
+      <t>ケイゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>けいご</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上回る</t>
+    <rPh sb="0" eb="2">
+      <t>ウワマワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>うわまわる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>超出</t>
+    <rPh sb="0" eb="1">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>シュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>下回る</t>
+  </si>
+  <si>
+    <t>したまわる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>不</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>够…水平，在…以下</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>父親</t>
+    <rPh sb="0" eb="2">
+      <t>チチオヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ちちおや</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>亡くなる</t>
+    <rPh sb="0" eb="1">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なくなる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>業績</t>
+    <rPh sb="0" eb="2">
+      <t>ギョウセキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ぎょうせき</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>绩，业绩</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ほぼ～</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>大体，大</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>约</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入場者</t>
+    <rPh sb="0" eb="3">
+      <t>ニュウジョウシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>にゅうじょうしゃ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>零下</t>
+    <rPh sb="0" eb="2">
+      <t>レイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>れいか</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>外国語</t>
+    <rPh sb="0" eb="3">
+      <t>ガイコクゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>がいこくご</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>石油</t>
+    <rPh sb="0" eb="2">
+      <t>セキユ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>せきゆ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サウジアラビア</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>沙特阿拉伯</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>発展</t>
+    <rPh sb="0" eb="2">
+      <t>ハッテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>はってん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>破壊</t>
+    <rPh sb="0" eb="2">
+      <t>ハカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>はかい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>深刻</t>
+    <rPh sb="0" eb="2">
+      <t>シンコク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しんこく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>adj2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>試す</t>
+    <rPh sb="0" eb="1">
+      <t>タメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ためす</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>祖父</t>
+    <rPh sb="0" eb="2">
+      <t>ソフ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>そふ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>見舞い</t>
+    <rPh sb="0" eb="2">
+      <t>ミマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>みまい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>问</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>候，探望，慰</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>问</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仲良く</t>
+    <rPh sb="0" eb="2">
+      <t>ナカヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なかよく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>亲</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>密，友好</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ガソリン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>汽油</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>警察</t>
+    <rPh sb="0" eb="2">
+      <t>ケイサツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>けいさつ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>交通規則</t>
+    <rPh sb="0" eb="4">
+      <t>コウツウキソク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こうつうきそく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サラリーマン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>工薪族</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>北極</t>
+    <rPh sb="0" eb="2">
+      <t>ホッキョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ほっきょく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>氷</t>
+    <rPh sb="0" eb="1">
+      <t>コオリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こおり</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>溶ける</t>
+    <rPh sb="0" eb="1">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>とける</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>融化，消融，溶化；熔化</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>喫煙</t>
+    <rPh sb="0" eb="2">
+      <t>キツエン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>きつえん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2021/8/９の単語</t>
+    <rPh sb="9" eb="11">
+      <t>タンゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2021/8/11の単語</t>
+    <rPh sb="10" eb="12">
+      <t>タンゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2021/8/12の単語</t>
+    <rPh sb="10" eb="12">
+      <t>タンゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2021/8/13の単語</t>
+    <rPh sb="10" eb="12">
+      <t>タンゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2021/8/14の単語</t>
+    <rPh sb="10" eb="12">
+      <t>タンゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2021/8/15の単語</t>
+    <rPh sb="10" eb="12">
+      <t>タンゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かって</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>过</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>去，以前</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>連想</t>
+    <rPh sb="0" eb="2">
+      <t>レンソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>れんそう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>食器</t>
+    <rPh sb="0" eb="2">
+      <t>ショッキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しょっき</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>餐具</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>扱う</t>
+    <rPh sb="0" eb="1">
+      <t>アツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あつかう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>经营，对待，处理</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>増加</t>
+    <rPh sb="0" eb="2">
+      <t>ゾウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ぞうか</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>急激</t>
+    <rPh sb="0" eb="2">
+      <t>キュウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>きゅうげき</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>生活習慣</t>
+    <rPh sb="0" eb="4">
+      <t>セイカツシュウカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>せいかつしゅうかん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>農業</t>
+    <rPh sb="0" eb="2">
+      <t>ノウギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>のうぎょう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>盛ん</t>
+    <rPh sb="0" eb="1">
+      <t>サカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さかん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>兴</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>盛，旺盛，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>热</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>烈</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>工業</t>
+    <rPh sb="0" eb="2">
+      <t>コウギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こうぎょう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>保つ</t>
+    <rPh sb="0" eb="1">
+      <t>タモ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>たもつ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>保持；保住</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>崩れる</t>
+    <rPh sb="0" eb="1">
+      <t>クズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>くずれる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>崩</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>溃，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>毁</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>坏</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>失う</t>
+    <rPh sb="0" eb="1">
+      <t>ウシナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>うしなう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>失去，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>丧</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>失</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>収支</t>
+    <rPh sb="0" eb="2">
+      <t>シュウシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しゅうし</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>直前</t>
+    <rPh sb="0" eb="2">
+      <t>チョクゼン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ちょくぜん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>即将…之前；正前面</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>細かい</t>
+    <rPh sb="0" eb="1">
+      <t>コマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こまかい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>adj1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>疑問</t>
+    <rPh sb="0" eb="2">
+      <t>ギモン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ぎもん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>予測</t>
+    <rPh sb="0" eb="2">
+      <t>ヨソク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>よそく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Uターン現象</t>
+    <rPh sb="4" eb="6">
+      <t>ゲンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゆーたーんげんしょう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>调头现</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>象</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Iターン現象</t>
+    <rPh sb="4" eb="6">
+      <t>ゲンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あいたーんげんしょう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>单</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>行</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>现</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>象</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>代表的</t>
+    <rPh sb="0" eb="3">
+      <t>ダイヒョウテキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>だいひょうてき</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>職業</t>
+    <rPh sb="0" eb="2">
+      <t>ショクギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しょくぎょう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アナウンサー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>播音</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>员</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作曲家</t>
+    <rPh sb="0" eb="3">
+      <t>サッキョクカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さっきょくか</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>和室</t>
+    <rPh sb="0" eb="2">
+      <t>ワシツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>わしつ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>住宅</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>じゅうたく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>半年</t>
+    <rPh sb="0" eb="2">
+      <t>ハントシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>はんとし</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>働き</t>
+    <rPh sb="0" eb="1">
+      <t>ハタラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>はたらき</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作用，功能；工作</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>解明</t>
+    <rPh sb="0" eb="2">
+      <t>カイメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かいめい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>弄清楚，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>讲</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>清楚，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>阐</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>明</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>景気</t>
+    <rPh sb="0" eb="2">
+      <t>ケイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>けいき</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>市</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>场</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>情况，商</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>业状况，景气</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>回復</t>
+    <rPh sb="0" eb="2">
+      <t>カイフク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かいふく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>恢复；康复</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>迫る</t>
+    <rPh sb="0" eb="1">
+      <t>セマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>せまる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>接近，迫近，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>临</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>近</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>俳優</t>
+    <rPh sb="0" eb="2">
+      <t>ハイユウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>はいゆう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リサイクル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Recycle</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>長期</t>
+    <rPh sb="0" eb="2">
+      <t>チョウキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ちょうき</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>製品</t>
+    <rPh sb="0" eb="2">
+      <t>セイヒン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>せいひん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>元来</t>
+    <rPh sb="0" eb="2">
+      <t>ガンライ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>がんらい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>副詞</t>
+    <rPh sb="0" eb="2">
+      <t>フクシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>本来，原来</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>本来</t>
+    <rPh sb="0" eb="2">
+      <t>ホンライ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ほんらい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>本来</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バイオリン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小提琴</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>穏やか</t>
+    <rPh sb="0" eb="1">
+      <t>オダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おだやか</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>温和，平</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>稳，平静</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>工場</t>
+    <rPh sb="0" eb="2">
+      <t>コウバ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こうば</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>色紙</t>
+    <rPh sb="0" eb="2">
+      <t>シキシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しきし</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>方形厚</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>纸笺</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実話</t>
+    <rPh sb="0" eb="2">
+      <t>ジツワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>じつわ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>賞品</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しょうひん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>奖</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>品</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>関心</t>
+    <rPh sb="0" eb="2">
+      <t>カンシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かんしん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>关心，感兴</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>趣</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>家賃</t>
+    <rPh sb="0" eb="2">
+      <t>ヤチン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>やちん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イカ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鱿鱼</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>房租</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>胆固醇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コレステロール</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>食品</t>
+    <rPh sb="0" eb="2">
+      <t>ショクヒン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しょくひん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>欠伸</t>
+    <rPh sb="0" eb="2">
+      <t>アクビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あくび</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>哈欠</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>人手</t>
+    <rPh sb="0" eb="2">
+      <t>ヒトデ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ひとで</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>裁判</t>
+    <rPh sb="0" eb="2">
+      <t>サイバン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さいばん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実際</t>
+    <rPh sb="0" eb="2">
+      <t>ジッサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>じっさい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>活躍</t>
+    <rPh sb="0" eb="2">
+      <t>カツヤク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かつやく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>専門家</t>
+    <rPh sb="0" eb="3">
+      <t>センモンカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>せんもんか</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>言語</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>げんご</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>専攻</t>
+    <rPh sb="0" eb="2">
+      <t>センコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>せんこう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>交番</t>
+    <rPh sb="0" eb="2">
+      <t>コウバン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こうばん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>派出所；交替</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お巡りさん</t>
+    <rPh sb="1" eb="2">
+      <t>マワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おまわりさん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>巡警，警察</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テーブルクロス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>桌布，台布</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>風呂敷</t>
+    <rPh sb="0" eb="3">
+      <t>フロシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ふろしき</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>包袱布，包裹布</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>墙饰</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>手提袋，手提包</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>壁飾り</t>
+    <rPh sb="0" eb="2">
+      <t>カベカザ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かべかざり</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>手提げ</t>
+    <rPh sb="0" eb="2">
+      <t>テサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>てさげ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>不足</t>
+    <rPh sb="0" eb="2">
+      <t>ブソク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ぶそく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敷く</t>
+    <rPh sb="0" eb="1">
+      <t>シ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>铺，垫</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>煮る</t>
+    <rPh sb="0" eb="1">
+      <t>ニ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>にる</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1105,7 +3313,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1134,6 +3342,14 @@
       <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1188,8 +3404,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1470,10 +3688,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I33"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:X38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Y24" sqref="Y24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1481,23 +3700,45 @@
     <col min="1" max="1" width="9.125" customWidth="1"/>
     <col min="2" max="2" width="17.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="38" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="25.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="F1" s="4" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="F1" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="K1" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="P1" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="U1" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="V1" s="5"/>
+      <c r="W1" s="5"/>
+      <c r="X1" s="5"/>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -1522,8 +3763,44 @@
       <c r="I2" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="K2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="V2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="W2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="X2" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1534,17 +3811,50 @@
         <v>3</v>
       </c>
       <c r="D3" s="2"/>
-      <c r="G3" t="s">
+      <c r="F3" s="2"/>
+      <c r="G3" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="2" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="K3" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="S3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="X3" s="3" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -1555,17 +3865,48 @@
         <v>3</v>
       </c>
       <c r="D4" s="2"/>
-      <c r="F4" t="s">
+      <c r="F4" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="2" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I4" s="2"/>
+      <c r="K4" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="N4" s="2"/>
+      <c r="P4" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="S4" s="2"/>
+      <c r="U4" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="W4" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="X4" s="2"/>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -1576,17 +3917,52 @@
         <v>3</v>
       </c>
       <c r="D5" s="2"/>
-      <c r="F5" t="s">
+      <c r="F5" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="2" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I5" s="2"/>
+      <c r="K5" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="S5" s="2"/>
+      <c r="U5" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="V5" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="W5" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="X5" s="2" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -1597,20 +3973,54 @@
         <v>3</v>
       </c>
       <c r="D6" s="2"/>
-      <c r="F6" t="s">
+      <c r="F6" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="I6" s="3" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="K6" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="N6" s="2"/>
+      <c r="P6" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="U6" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="V6" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="W6" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="X6" s="3" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
@@ -1621,17 +4031,48 @@
         <v>3</v>
       </c>
       <c r="D7" s="2"/>
-      <c r="F7" t="s">
+      <c r="F7" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="2" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I7" s="2"/>
+      <c r="K7" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="N7" s="2"/>
+      <c r="P7" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="S7" s="2"/>
+      <c r="U7" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="V7" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="W7" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="X7" s="2"/>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
@@ -1642,20 +4083,52 @@
         <v>3</v>
       </c>
       <c r="D8" s="2"/>
-      <c r="F8" t="s">
+      <c r="F8" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="2" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="K8" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="N8" s="2"/>
+      <c r="P8" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="S8" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="U8" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="V8" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="W8" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="X8" s="2"/>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>18</v>
       </c>
@@ -1666,20 +4139,50 @@
         <v>3</v>
       </c>
       <c r="D9" s="2"/>
-      <c r="F9" t="s">
+      <c r="F9" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" s="2" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="K9" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="N9" s="2"/>
+      <c r="P9" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="S9" s="2"/>
+      <c r="U9" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="V9" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="W9" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="X9" s="2"/>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
@@ -1692,20 +4195,50 @@
       <c r="D10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="I10" s="5" t="s">
+      <c r="I10" s="3" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="K10" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="N10" s="2"/>
+      <c r="P10" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="S10" s="2"/>
+      <c r="U10" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="V10" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="W10" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="X10" s="2"/>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
         <v>23</v>
       </c>
@@ -1716,20 +4249,54 @@
         <v>3</v>
       </c>
       <c r="D11" s="2"/>
-      <c r="F11" t="s">
+      <c r="F11" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="I11" s="5" t="s">
+      <c r="I11" s="3" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="K11" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="N11" s="2"/>
+      <c r="P11" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="S11" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="U11" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="V11" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="W11" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="X11" s="3" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
         <v>25</v>
       </c>
@@ -1740,17 +4307,50 @@
         <v>3</v>
       </c>
       <c r="D12" s="2"/>
-      <c r="G12" t="s">
+      <c r="F12" s="2"/>
+      <c r="G12" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="I12" s="5" t="s">
+      <c r="I12" s="3" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="K12" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="N12" s="2"/>
+      <c r="P12" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="R12" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="S12" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="U12" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="V12" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="W12" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="X12" s="2"/>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
         <v>27</v>
       </c>
@@ -1761,17 +4361,50 @@
         <v>3</v>
       </c>
       <c r="D13" s="2"/>
-      <c r="G13" t="s">
+      <c r="F13" s="2"/>
+      <c r="G13" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="H13" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="I13" s="5" t="s">
+      <c r="I13" s="3" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="K13" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="N13" s="2"/>
+      <c r="P13" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="R13" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="S13" s="2"/>
+      <c r="U13" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="V13" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="W13" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="X13" s="2" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
         <v>29</v>
       </c>
@@ -1782,17 +4415,50 @@
         <v>3</v>
       </c>
       <c r="D14" s="2"/>
-      <c r="G14" t="s">
+      <c r="F14" s="2"/>
+      <c r="G14" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="H14" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="I14" s="5" t="s">
+      <c r="I14" s="3" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="K14" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="N14" s="2"/>
+      <c r="P14" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="R14" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="S14" s="2"/>
+      <c r="U14" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="V14" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="W14" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="X14" s="2" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A15" s="2"/>
       <c r="B15" s="2" t="s">
         <v>31</v>
@@ -1803,17 +4469,52 @@
       <c r="D15" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="H15" s="5" t="s">
+      <c r="H15" s="3" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="R15" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="S15" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="U15" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="V15" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="W15" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="X15" s="2" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
         <v>33</v>
       </c>
@@ -1824,20 +4525,50 @@
         <v>35</v>
       </c>
       <c r="D16" s="2"/>
-      <c r="F16" t="s">
+      <c r="F16" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="H16" s="5" t="s">
+      <c r="H16" s="3" t="s">
         <v>80</v>
       </c>
       <c r="I16" s="6" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="K16" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="N16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="R16" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="S16" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="U16" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="V16" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="W16" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="X16" s="2"/>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
         <v>36</v>
       </c>
@@ -1848,17 +4579,50 @@
         <v>35</v>
       </c>
       <c r="D17" s="2"/>
-      <c r="G17" t="s">
+      <c r="F17" s="2"/>
+      <c r="G17" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="H17" s="3" t="s">
         <v>93</v>
       </c>
       <c r="I17" s="6" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="K17" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="N17" s="2"/>
+      <c r="P17" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="R17" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="S17" s="2"/>
+      <c r="U17" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="V17" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="W17" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="X17" s="2" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
         <v>38</v>
       </c>
@@ -1869,20 +4633,50 @@
         <v>3</v>
       </c>
       <c r="D18" s="2"/>
-      <c r="F18" t="s">
+      <c r="F18" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="H18" s="5" t="s">
+      <c r="H18" s="3" t="s">
         <v>100</v>
       </c>
       <c r="I18" s="6" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="K18" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="N18" s="2"/>
+      <c r="P18" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q18" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="R18" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="S18" s="2"/>
+      <c r="U18" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="V18" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="W18" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="X18" s="2"/>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
         <v>40</v>
       </c>
@@ -1895,14 +4689,48 @@
       <c r="D19" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G19" t="s">
+      <c r="F19" s="2"/>
+      <c r="G19" s="2" t="s">
         <v>123</v>
       </c>
+      <c r="H19" s="2"/>
       <c r="I19" s="6" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="K19" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="P19" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q19" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="R19" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="S19" s="2"/>
+      <c r="U19" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="V19" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="W19" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="X19" s="2"/>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A20" s="2"/>
       <c r="B20" s="2" t="s">
         <v>44</v>
@@ -1913,14 +4741,46 @@
       <c r="D20" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="G20" t="s">
+      <c r="F20" s="2"/>
+      <c r="G20" s="2" t="s">
         <v>124</v>
       </c>
+      <c r="H20" s="2"/>
       <c r="I20" s="6" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="K20" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="N20" s="2"/>
+      <c r="P20" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q20" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="R20" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="S20" s="2"/>
+      <c r="U20" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="V20" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="W20" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="X20" s="2"/>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
         <v>46</v>
       </c>
@@ -1933,14 +4793,48 @@
       <c r="D21" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G21" t="s">
+      <c r="F21" s="2"/>
+      <c r="G21" s="2" t="s">
         <v>125</v>
       </c>
+      <c r="H21" s="2"/>
       <c r="I21" s="6" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="K21" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="N21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="R21" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="S21" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="U21" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="V21" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="W21" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="X21" s="3" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A22" s="2"/>
       <c r="B22" s="2" t="s">
         <v>49</v>
@@ -1951,20 +4845,52 @@
       <c r="D22" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G22" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="H22" t="s">
+      <c r="H22" s="2" t="s">
         <v>80</v>
       </c>
       <c r="I22" s="6" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="K22" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="N22" s="2"/>
+      <c r="P22" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q22" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="R22" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="S22" s="2"/>
+      <c r="U22" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="V22" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="W22" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="X22" s="3" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A23" s="2"/>
       <c r="B23" s="2" t="s">
         <v>51</v>
@@ -1975,17 +4901,48 @@
       <c r="D23" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="G23" t="s">
+      <c r="F23" s="2"/>
+      <c r="G23" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="H23" s="5" t="s">
+      <c r="H23" s="3" t="s">
         <v>108</v>
       </c>
       <c r="I23" s="6" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="K23" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="N23" s="2"/>
+      <c r="P23" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q23" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="R23" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="S23" s="2"/>
+      <c r="U23" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="V23" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="W23" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="X23" s="2"/>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A24" s="2" t="s">
         <v>54</v>
       </c>
@@ -1998,17 +4955,48 @@
       <c r="D24" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G24" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="H24" t="s">
+      <c r="H24" s="2" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I24" s="2"/>
+      <c r="K24" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="N24" s="2"/>
+      <c r="P24" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q24" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="R24" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="S24" s="2"/>
+      <c r="U24" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="V24" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="W24" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="X24" s="2"/>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A25" s="2" t="s">
         <v>57</v>
       </c>
@@ -2019,17 +5007,48 @@
         <v>3</v>
       </c>
       <c r="D25" s="2"/>
-      <c r="F25" t="s">
+      <c r="F25" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G25" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="H25" t="s">
+      <c r="H25" s="2" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I25" s="2"/>
+      <c r="K25" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="N25" s="2"/>
+      <c r="P25" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q25" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="R25" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="S25" s="2"/>
+      <c r="U25" s="2"/>
+      <c r="V25" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="W25" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="X25" s="2" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A26" s="2" t="s">
         <v>59</v>
       </c>
@@ -2040,17 +5059,48 @@
         <v>35</v>
       </c>
       <c r="D26" s="2"/>
-      <c r="F26" t="s">
+      <c r="F26" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G26" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="H26" t="s">
+      <c r="H26" s="2" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I26" s="2"/>
+      <c r="K26" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="N26" s="2"/>
+      <c r="P26" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q26" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="R26" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="S26" s="2"/>
+      <c r="U26" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="V26" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="W26" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="X26" s="2"/>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A27" s="2" t="s">
         <v>61</v>
       </c>
@@ -2063,20 +5113,52 @@
       <c r="D27" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G27" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="H27" t="s">
+      <c r="H27" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="I27" t="s">
+      <c r="I27" s="2" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="K27" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="P27" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q27" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="R27" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="S27" s="2"/>
+      <c r="U27" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="V27" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="W27" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="X27" s="2"/>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A28" s="2" t="s">
         <v>64</v>
       </c>
@@ -2087,17 +5169,50 @@
         <v>3</v>
       </c>
       <c r="D28" s="2"/>
-      <c r="F28" t="s">
+      <c r="F28" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G28" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="H28" t="s">
+      <c r="H28" s="2" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I28" s="2"/>
+      <c r="K28" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="N28" s="2"/>
+      <c r="P28" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q28" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="R28" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="S28" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="U28" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="V28" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="W28" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="X28" s="2"/>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A29" s="2" t="s">
         <v>66</v>
       </c>
@@ -2110,17 +5225,48 @@
       <c r="D29" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G29" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="H29" t="s">
+      <c r="H29" s="2" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I29" s="2"/>
+      <c r="K29" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="N29" s="2"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="R29" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="S29" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="U29" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="V29" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="W29" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="X29" s="2"/>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A30" s="2" t="s">
         <v>69</v>
       </c>
@@ -2133,17 +5279,50 @@
       <c r="D30" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="G30" t="s">
+      <c r="F30" s="2"/>
+      <c r="G30" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="H30" t="s">
+      <c r="H30" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="I30" t="s">
+      <c r="I30" s="2" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="K30" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="N30" s="2"/>
+      <c r="P30" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q30" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="R30" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="S30" s="2"/>
+      <c r="U30" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="V30" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="W30" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="X30" s="2" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A31" s="2" t="s">
         <v>72</v>
       </c>
@@ -2154,17 +5333,50 @@
         <v>3</v>
       </c>
       <c r="D31" s="2"/>
-      <c r="G31" t="s">
+      <c r="F31" s="2"/>
+      <c r="G31" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="H31" t="s">
+      <c r="H31" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="I31" t="s">
+      <c r="I31" s="2" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="K31" s="2"/>
+      <c r="L31" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="M31" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="N31" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="P31" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q31" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="R31" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="S31" s="2"/>
+      <c r="U31" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="V31" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="W31" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="X31" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A32" s="2" t="s">
         <v>74</v>
       </c>
@@ -2175,20 +5387,52 @@
         <v>3</v>
       </c>
       <c r="D32" s="2"/>
-      <c r="F32" t="s">
+      <c r="F32" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G32" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="H32" t="s">
+      <c r="H32" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="I32" t="s">
+      <c r="I32" s="2" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="K32" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="N32" s="2"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="R32" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="S32" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="U32" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="V32" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="W32" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="X32" s="2" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A33" s="2" t="s">
         <v>76</v>
       </c>
@@ -2199,23 +5443,713 @@
         <v>35</v>
       </c>
       <c r="D33" s="2"/>
-      <c r="F33" t="s">
+      <c r="F33" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="G33" t="s">
+      <c r="G33" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="H33" t="s">
+      <c r="H33" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="I33" s="5" t="s">
+      <c r="I33" s="3" t="s">
         <v>152</v>
       </c>
+      <c r="K33" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="N33" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="P33" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q33" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="R33" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="S33" s="2"/>
+      <c r="U33" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="V33" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="W33" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="X33" s="2" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="K34" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="M34" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="N34" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="P34" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q34" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="R34" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="S34" s="2"/>
+      <c r="U34" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="V34" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="W34" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="X34" s="2" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="K35" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="N35" s="2"/>
+      <c r="P35" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="Q35" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="R35" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="S35" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="U35" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="V35" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="W35" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="X35" s="2"/>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="K36" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="M36" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="N36" s="2"/>
+      <c r="P36" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="Q36" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="R36" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="S36" s="2"/>
+      <c r="U36" s="2"/>
+      <c r="V36" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="W36" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="X36" s="2" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="U37" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="V37" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="W37" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="X37" s="2"/>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="U38" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="V38" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="W38" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="X38" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="5">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="F1:I1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="U1:X1"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0CB3ADF-F836-4302-82E2-38AE117D5D80}">
+  <dimension ref="A1:AC32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="4" max="4" width="17.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29" x14ac:dyDescent="0.4">
+      <c r="A1" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="F1" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="K1" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="P1" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="U1" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="V1" s="5"/>
+      <c r="W1" s="5"/>
+      <c r="X1" s="5"/>
+      <c r="Z1" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="AA1" s="5"/>
+      <c r="AB1" s="5"/>
+      <c r="AC1" s="5"/>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.4">
+      <c r="A2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="V2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="W2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="X2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC2" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.4">
+      <c r="A3" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.4">
+      <c r="A4" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.4">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.4">
+      <c r="A6" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.4">
+      <c r="A7" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.4">
+      <c r="A8" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.4">
+      <c r="A9" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.4">
+      <c r="A10" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.4">
+      <c r="A11" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.4">
+      <c r="A12" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.4">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.4">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.4">
+      <c r="A15" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.4">
+      <c r="A16" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A17" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A18" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A19" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A20" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A21" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" s="2"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A22" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A23" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A24" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A25" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A27" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A28" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A29" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A30" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D30" s="2"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A31" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A32" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D32" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="U1:X1"/>
+    <mergeCell ref="Z1:AC1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/8月単語.xlsx
+++ b/8月単語.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kreis1g-tpc-029\Desktop\穆作業\Git管理\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9742FF39-3A55-4E4C-9548-85DAC63F357F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{899724DB-EE4F-4006-8473-AAAD48B0BC80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="20210802~20210808" sheetId="1" r:id="rId1"/>
     <sheet name="20210809～20210815" sheetId="2" r:id="rId2"/>
+    <sheet name="20210816～20210822" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1294" uniqueCount="882">
   <si>
     <t>2021/8/2の単語</t>
     <rPh sb="9" eb="11">
@@ -3306,6 +3307,2792 @@
   </si>
   <si>
     <t>にる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2021/8/16の単語</t>
+    <rPh sb="10" eb="12">
+      <t>タンゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2021/8/18の単語</t>
+    <rPh sb="10" eb="12">
+      <t>タンゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2021/8/20の単語</t>
+    <rPh sb="10" eb="12">
+      <t>タンゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2021/8/21の単語</t>
+    <rPh sb="10" eb="12">
+      <t>タンゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2021/8/22の単語</t>
+    <rPh sb="10" eb="12">
+      <t>タンゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ツアー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>短途旅行</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>欧米</t>
+    <rPh sb="0" eb="2">
+      <t>オウベイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おうべい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>洋室</t>
+    <rPh sb="0" eb="2">
+      <t>ヨウシツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ようしつ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>和服</t>
+    <rPh sb="0" eb="2">
+      <t>ワフク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>わふく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>和菓子</t>
+    <rPh sb="0" eb="3">
+      <t>ワガシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>わがし</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>洋菓子</t>
+    <rPh sb="0" eb="3">
+      <t>ヨウガシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ようがし</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>和式</t>
+    <rPh sb="0" eb="2">
+      <t>ワシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>わしき</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>洋式</t>
+    <rPh sb="0" eb="2">
+      <t>ヨウシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ようしき</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>和風</t>
+    <rPh sb="0" eb="2">
+      <t>ワフウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>わふう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>洋風</t>
+    <rPh sb="0" eb="2">
+      <t>ヨウフウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ようふう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>農村</t>
+    <rPh sb="0" eb="2">
+      <t>ノウソン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>のうそん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ランニング</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>跑步</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>発泡スチロール</t>
+    <rPh sb="0" eb="2">
+      <t>ハッポウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>はっぽうすちろーる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>泡沫苯乙</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>烯</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ビニール</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>不燃ごみ</t>
+    <rPh sb="0" eb="2">
+      <t>フネン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ふねんごみ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>乙</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>烯</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>基</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジーンズ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>牛仔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>裤</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スマート</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>苗条，漂亮</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鰻</t>
+    <rPh sb="0" eb="1">
+      <t>ウナギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>うなぎ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全身</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ぜんしん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>朝食</t>
+    <rPh sb="0" eb="2">
+      <t>チョウショク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ちょうしょく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バレンタインデー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>情人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>节</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>贈る</t>
+    <rPh sb="0" eb="1">
+      <t>オク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おくる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>時期</t>
+    <rPh sb="0" eb="2">
+      <t>ジキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>じき</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>受講料</t>
+    <rPh sb="0" eb="3">
+      <t>ジュコウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>じゅこうりょう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>離婚</t>
+    <rPh sb="0" eb="2">
+      <t>リコン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>りこん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>夫婦</t>
+    <rPh sb="0" eb="2">
+      <t>フウフ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ふうふ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>家庭料理</t>
+    <rPh sb="0" eb="4">
+      <t>カテイリョウリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かていりょうり</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>天候</t>
+    <rPh sb="0" eb="2">
+      <t>テンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>てんこう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>水道</t>
+    <rPh sb="0" eb="2">
+      <t>スイドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>すいどう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ガス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>時刻</t>
+    <rPh sb="0" eb="2">
+      <t>ジコク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>じこく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>食料品</t>
+    <rPh sb="0" eb="3">
+      <t>ショクリョウヒン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しょくりょうひん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>雑貨</t>
+    <rPh sb="0" eb="2">
+      <t>ザッカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ざっか</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イタリア</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>長靴</t>
+    <rPh sb="0" eb="2">
+      <t>ナガグツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ながぐつ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新疆</t>
+    <rPh sb="0" eb="2">
+      <t>シンキョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しんきょう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ラグビーボール</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>橄</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>榄</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>球</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>砂</t>
+    <rPh sb="0" eb="1">
+      <t>スナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>すな</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実</t>
+    <rPh sb="0" eb="1">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>み</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>立てる</t>
+    <rPh sb="0" eb="1">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>たてる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>V2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>弄响，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>扬</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>起，立，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>竖；制定</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>付き合い</t>
+    <rPh sb="0" eb="1">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>つきあい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>交往</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>演劇</t>
+    <rPh sb="0" eb="2">
+      <t>エンゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>えんげき</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>戏剧，演戏</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>雑草</t>
+    <rPh sb="0" eb="2">
+      <t>ザッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ざっそう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>早起き</t>
+    <rPh sb="0" eb="2">
+      <t>ハヤオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>はやおき</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日の出</t>
+    <rPh sb="0" eb="1">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>デ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ひので</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>返事</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>へんじ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>回答</t>
+    <rPh sb="0" eb="2">
+      <t>カイトウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>相づち</t>
+    <rPh sb="0" eb="1">
+      <t>アイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あいづち</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>随声</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>应</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>答</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>強盗</t>
+    <rPh sb="0" eb="2">
+      <t>ゴウトウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ごうとう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クリーム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジャム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>果</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>酱</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>加える</t>
+    <rPh sb="0" eb="1">
+      <t>クワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>くわえる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>株</t>
+    <rPh sb="0" eb="1">
+      <t>カブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かぶ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>股票</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>取引</t>
+    <rPh sb="0" eb="2">
+      <t>トリヒキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>とりひき</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>交易，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>买卖</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>目標</t>
+    <rPh sb="0" eb="2">
+      <t>モクヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>もくひょう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>点数</t>
+    <rPh sb="0" eb="2">
+      <t>テンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>てんすう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テーマ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>主</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>题，题目，中心思想</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>基本</t>
+    <rPh sb="0" eb="2">
+      <t>キホン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>きほん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>常識</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>じょうしき</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>思い切り</t>
+    <rPh sb="0" eb="1">
+      <t>オモ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おもいきり</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>副</t>
+    <rPh sb="0" eb="1">
+      <t>フク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>彻</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>底，痛快；决心，决意</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>挑戦</t>
+    <rPh sb="0" eb="2">
+      <t>チョウセン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ちょうせん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>近づく</t>
+    <rPh sb="0" eb="1">
+      <t>チカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ちかづく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>V1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>临</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>近，接近，靠近</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一応</t>
+    <rPh sb="0" eb="2">
+      <t>イチオウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いちおう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>暂</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>且</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>生産地</t>
+    <rPh sb="0" eb="3">
+      <t>セイサンチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>せいさんち</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>非常電話</t>
+    <rPh sb="0" eb="4">
+      <t>ヒジョウデンワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ひじょうでんわ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>緊急電話</t>
+    <rPh sb="0" eb="4">
+      <t>キンキュウデンワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>設置</t>
+    <rPh sb="0" eb="2">
+      <t>セッチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>せっち</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ポイント</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>貯まる</t>
+    <rPh sb="0" eb="1">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>たまる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>积攒</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>指揮者</t>
+    <rPh sb="0" eb="3">
+      <t>シキシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しきしゃ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>演奏</t>
+    <rPh sb="0" eb="2">
+      <t>エンソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>えんそう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>気にする</t>
+    <rPh sb="0" eb="1">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>きにする</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>介意，关心，留心</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一生</t>
+    <rPh sb="0" eb="2">
+      <t>イッショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いっしょう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>儲ける</t>
+    <rPh sb="0" eb="1">
+      <t>モウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>もうける</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>赚钱，发财</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>けが人</t>
+    <rPh sb="2" eb="3">
+      <t>ニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>げがにん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>伤员</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>被害</t>
+    <rPh sb="0" eb="2">
+      <t>ヒガイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ひがい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>拡大</t>
+    <rPh sb="0" eb="2">
+      <t>カクダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かくだい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>遭う</t>
+    <rPh sb="0" eb="1">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>遭遇，碰上</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シートベルト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>安全</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>带</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>骨折</t>
+    <rPh sb="0" eb="2">
+      <t>コッセツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こっせつ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>段ボール箱</t>
+    <rPh sb="0" eb="1">
+      <t>ダン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>バコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>だんぼーるばこ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>纸</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>箱</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ネズミ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>飛び出す</t>
+    <rPh sb="0" eb="1">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>とびだす</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>飞</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>起，跑出,跳出</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>猿</t>
+    <rPh sb="0" eb="1">
+      <t>サル</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>近寄る</t>
+    <rPh sb="0" eb="2">
+      <t>チカヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ちかよる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>挨近，靠近</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>打つ</t>
+    <rPh sb="0" eb="1">
+      <t>ウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>うつ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敲，打</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鍋</t>
+    <rPh sb="0" eb="1">
+      <t>ナベ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なべ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>長男</t>
+    <rPh sb="0" eb="2">
+      <t>チョウナン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ちょうなん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>米</t>
+    <rPh sb="0" eb="1">
+      <t>コメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こめ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>粉</t>
+    <rPh sb="0" eb="1">
+      <t>コナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こな</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>話し合い</t>
+    <rPh sb="0" eb="1">
+      <t>ハナ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>はなしあい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>协</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>商，商</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>谈</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>纏まる</t>
+    <rPh sb="0" eb="1">
+      <t>マト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>まとまる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>一致，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>归纳；凑齐</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>結局</t>
+    <rPh sb="0" eb="2">
+      <t>ケッキョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>けっきょく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>目的地</t>
+    <rPh sb="0" eb="3">
+      <t>モクテキチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>もくてきち</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小包</t>
+    <rPh sb="0" eb="2">
+      <t>コヅツミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こづつみ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>包裹</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>様子</t>
+    <rPh sb="0" eb="2">
+      <t>ヨウス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ようす</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>溶かす</t>
+    <rPh sb="0" eb="1">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>とかす</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シャッター</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>快</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>门</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>写す</t>
+    <rPh sb="0" eb="1">
+      <t>ウツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>うつす</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>移す</t>
+    <rPh sb="0" eb="1">
+      <t>ウツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>映す</t>
+    <rPh sb="0" eb="1">
+      <t>ウツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>遷す</t>
+    <rPh sb="0" eb="1">
+      <t>ウツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>家庭教師</t>
+    <rPh sb="0" eb="4">
+      <t>カテイキョウシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かていきょうし</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エネルギー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>能量</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>長年</t>
+    <rPh sb="0" eb="2">
+      <t>ナガネン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ながねん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>多年，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>长</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>年累月</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>努力</t>
+    <rPh sb="0" eb="2">
+      <t>ドリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>どりょく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>点検</t>
+    <rPh sb="0" eb="2">
+      <t>テンケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>てんけん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ロケット</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>発射</t>
+    <rPh sb="0" eb="2">
+      <t>ハッシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>はっしゃ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>沈黙</t>
+    <rPh sb="0" eb="2">
+      <t>チンモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ちんもく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おやつ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>偏る</t>
+    <rPh sb="0" eb="1">
+      <t>カタヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かたよる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>不平衡；偏</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>颇，偏袒</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>話しかける</t>
+    <rPh sb="0" eb="1">
+      <t>ハナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>はなしかける</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>搭</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>话，打招呼</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最終日</t>
+    <rPh sb="0" eb="3">
+      <t>サイシュウビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さいしゅうび</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ふわふわ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ぐずぐず</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ぼんやり</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いらいら</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>わくわく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>どきっと</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>どきどき</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>綿</t>
+    <rPh sb="0" eb="1">
+      <t>ワタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>わた</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>轻飘飘，软绵绵</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>磨磨蹭蹭，慢腾腾</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>发</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>呆，精神恍惚；模糊，不清楚</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>焦躁不安，焦急</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>欢</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>呼雀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>跃</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>兴奋</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大吃一惊，震惊，吓一跳</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>七上八下，忐忑不安，心怦怦跳</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロポーズする</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>V３</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>求婚</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>湯気</t>
+    <rPh sb="0" eb="2">
+      <t>ユゲ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゆげ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>水蒸气，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>热</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>气</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>目の前</t>
+    <rPh sb="0" eb="1">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>マエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>めのまえ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>扇子</t>
+    <rPh sb="0" eb="2">
+      <t>センス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>せんす</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>羽</t>
+    <rPh sb="0" eb="1">
+      <t>ハネ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>はね</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>雑巾</t>
+    <rPh sb="0" eb="2">
+      <t>ゾウキン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ぞうきん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いきなり</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>突然，冷不防</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>東洋</t>
+    <rPh sb="0" eb="2">
+      <t>トウヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>とうよう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>东</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>方</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>医学</t>
+    <rPh sb="0" eb="2">
+      <t>イガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いがく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>羨ましい</t>
+    <rPh sb="0" eb="1">
+      <t>ウラヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>うらやましい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>adj1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>羡慕，眼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>红</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>幽霊</t>
+    <rPh sb="0" eb="2">
+      <t>ユウレイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゆうれい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>好む</t>
+    <rPh sb="0" eb="1">
+      <t>コノ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>このむ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>喜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>欢，爱好</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>相通ずる</t>
+    <rPh sb="0" eb="2">
+      <t>アイツウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あいつうずる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>環境</t>
+    <rPh sb="0" eb="2">
+      <t>カンキョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かんきょう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>集会</t>
+    <rPh sb="0" eb="2">
+      <t>シュウカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しゅうかい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>終える</t>
+    <rPh sb="0" eb="1">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おえる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>完成，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>结</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>束，做完</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>閉会式</t>
+    <rPh sb="0" eb="2">
+      <t>ヘイカイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>へいかいしき</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>金沢</t>
+    <rPh sb="0" eb="2">
+      <t>カナザワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かなざわ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>友人</t>
+    <rPh sb="0" eb="2">
+      <t>ユウジン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゆうじん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>贈り物</t>
+    <rPh sb="0" eb="1">
+      <t>オク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>モノ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おくりもの</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>そのうち</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>不久，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>过</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>几天</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>紙袋</t>
+    <rPh sb="0" eb="2">
+      <t>カミブクロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かみぶくろ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上着</t>
+    <rPh sb="0" eb="2">
+      <t>ウワギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>うわぎ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>音色</t>
+    <rPh sb="0" eb="2">
+      <t>ネイロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ねいろ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>目立つ</t>
+    <rPh sb="0" eb="2">
+      <t>メダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>めだつ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>显</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>眼，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>显</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>著，引人注目</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>停留所</t>
+    <rPh sb="0" eb="3">
+      <t>テイリュウジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ていりゅうじょ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>车</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>站</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ぴったり</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>正合适，恰好</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>つるつる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>滑溜，光滑</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実験</t>
+    <rPh sb="0" eb="2">
+      <t>ジッケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>じっけん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>洪水</t>
+    <rPh sb="0" eb="2">
+      <t>コウズイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こうずい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>流す</t>
+    <rPh sb="0" eb="1">
+      <t>ナガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ながす</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>冲走，冲刷</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステーキ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>牛排</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おかず</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>菜肴</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全く</t>
+    <rPh sb="0" eb="1">
+      <t>マッタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>まったく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>完全，全然</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>範囲</t>
+    <rPh sb="0" eb="2">
+      <t>ハンイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>はんい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>食材</t>
+    <rPh sb="0" eb="2">
+      <t>ショクザイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しょくざい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>松茸</t>
+    <rPh sb="0" eb="2">
+      <t>マツタケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>まつたけ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>癒す</t>
+    <rPh sb="0" eb="1">
+      <t>イヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いやす</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>医治，治</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>疗</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>香り</t>
+    <rPh sb="0" eb="1">
+      <t>カオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かおり</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ビタミン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>予防</t>
+    <rPh sb="0" eb="2">
+      <t>ヨボウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>よぼう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>立て直す</t>
+    <rPh sb="0" eb="1">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ナオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>たてなおす</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>重整，重建</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>維持</t>
+    <rPh sb="0" eb="2">
+      <t>イジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いじ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>体重</t>
+    <rPh sb="0" eb="2">
+      <t>タイジュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>たいじゅう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>肌</t>
+    <rPh sb="0" eb="1">
+      <t>ハダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>はだ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>地区</t>
+    <rPh sb="0" eb="2">
+      <t>チク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ちく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>相当</t>
+    <rPh sb="0" eb="2">
+      <t>ソウトウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>そうとう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>社内</t>
+    <rPh sb="0" eb="2">
+      <t>シャナイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しゃない</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>天才</t>
+    <rPh sb="0" eb="2">
+      <t>テンサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>てんさい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>追いかける</t>
+    <rPh sb="0" eb="1">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おいかける</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>追赶；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>紧</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>接着，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>紧</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>跟着</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>風景</t>
+    <rPh sb="0" eb="2">
+      <t>フウケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ふうけい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>締め切り</t>
+    <rPh sb="0" eb="1">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しめきり</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>截止，期限，届</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>满</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>向ける</t>
+    <rPh sb="0" eb="1">
+      <t>ム</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>むける</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>向く</t>
+    <rPh sb="0" eb="1">
+      <t>ム</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>むく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>枕</t>
+    <rPh sb="0" eb="1">
+      <t>マクラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>まくら</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カバー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>外皮。套子</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>手続き</t>
+    <rPh sb="0" eb="2">
+      <t>テツヅ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>てつづき</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>専門書</t>
+    <rPh sb="0" eb="3">
+      <t>センモンショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>せんもんしょ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ドイツ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>德国</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>視察</t>
+    <rPh sb="0" eb="2">
+      <t>シサツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しさつ</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3394,7 +6181,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3408,6 +6195,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -3691,7 +6482,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:X38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="Y24" sqref="Y24"/>
     </sheetView>
   </sheetViews>
@@ -3707,36 +6498,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="F1" s="5" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="F1" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="K1" s="5" t="s">
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="K1" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="P1" s="5" t="s">
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="P1" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="U1" s="5" t="s">
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="U1" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
-      <c r="X1" s="5"/>
+      <c r="V1" s="7"/>
+      <c r="W1" s="7"/>
+      <c r="X1" s="7"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
@@ -5633,8 +8424,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0CB3ADF-F836-4302-82E2-38AE117D5D80}">
   <dimension ref="A1:AC32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -5643,42 +8434,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.4">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="F1" s="5" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="F1" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="K1" s="5" t="s">
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="K1" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="P1" s="5" t="s">
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="P1" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="U1" s="5" t="s">
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="U1" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
-      <c r="X1" s="5"/>
-      <c r="Z1" s="5" t="s">
+      <c r="V1" s="7"/>
+      <c r="W1" s="7"/>
+      <c r="X1" s="7"/>
+      <c r="Z1" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="AA1" s="5"/>
-      <c r="AB1" s="5"/>
-      <c r="AC1" s="5"/>
+      <c r="AA1" s="7"/>
+      <c r="AB1" s="7"/>
+      <c r="AC1" s="7"/>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
@@ -5767,6 +8558,57 @@
       <c r="D3" s="2" t="s">
         <v>410</v>
       </c>
+      <c r="G3" t="s">
+        <v>748</v>
+      </c>
+      <c r="H3" t="s">
+        <v>749</v>
+      </c>
+      <c r="I3" t="s">
+        <v>750</v>
+      </c>
+      <c r="K3" t="s">
+        <v>817</v>
+      </c>
+      <c r="L3" t="s">
+        <v>818</v>
+      </c>
+      <c r="M3" t="s">
+        <v>618</v>
+      </c>
+      <c r="N3" t="s">
+        <v>819</v>
+      </c>
+      <c r="P3" t="s">
+        <v>689</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>690</v>
+      </c>
+      <c r="R3" t="s">
+        <v>549</v>
+      </c>
+      <c r="U3" t="s">
+        <v>616</v>
+      </c>
+      <c r="V3" t="s">
+        <v>617</v>
+      </c>
+      <c r="W3" t="s">
+        <v>618</v>
+      </c>
+      <c r="X3" s="8" t="s">
+        <v>619</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>547</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>548</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>549</v>
+      </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
@@ -5780,6 +8622,57 @@
       </c>
       <c r="D4" s="2" t="s">
         <v>413</v>
+      </c>
+      <c r="F4" t="s">
+        <v>751</v>
+      </c>
+      <c r="G4" t="s">
+        <v>752</v>
+      </c>
+      <c r="H4" t="s">
+        <v>549</v>
+      </c>
+      <c r="I4" t="s">
+        <v>753</v>
+      </c>
+      <c r="L4" t="s">
+        <v>820</v>
+      </c>
+      <c r="M4" t="s">
+        <v>549</v>
+      </c>
+      <c r="N4" t="s">
+        <v>821</v>
+      </c>
+      <c r="P4" t="s">
+        <v>691</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>692</v>
+      </c>
+      <c r="R4" t="s">
+        <v>549</v>
+      </c>
+      <c r="U4" t="s">
+        <v>620</v>
+      </c>
+      <c r="V4" t="s">
+        <v>621</v>
+      </c>
+      <c r="W4" t="s">
+        <v>612</v>
+      </c>
+      <c r="X4" s="8" t="s">
+        <v>622</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>550</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>551</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>549</v>
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.4">
@@ -5793,6 +8686,54 @@
       <c r="D5" s="2" t="s">
         <v>415</v>
       </c>
+      <c r="F5" t="s">
+        <v>754</v>
+      </c>
+      <c r="G5" t="s">
+        <v>755</v>
+      </c>
+      <c r="H5" t="s">
+        <v>549</v>
+      </c>
+      <c r="L5" t="s">
+        <v>822</v>
+      </c>
+      <c r="M5" t="s">
+        <v>549</v>
+      </c>
+      <c r="N5" t="s">
+        <v>823</v>
+      </c>
+      <c r="P5" t="s">
+        <v>693</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>694</v>
+      </c>
+      <c r="R5" t="s">
+        <v>549</v>
+      </c>
+      <c r="S5" t="s">
+        <v>695</v>
+      </c>
+      <c r="U5" t="s">
+        <v>623</v>
+      </c>
+      <c r="V5" t="s">
+        <v>624</v>
+      </c>
+      <c r="W5" t="s">
+        <v>549</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>552</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>553</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>549</v>
+      </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
@@ -5807,6 +8748,51 @@
       <c r="D6" s="2" t="s">
         <v>418</v>
       </c>
+      <c r="F6" t="s">
+        <v>756</v>
+      </c>
+      <c r="G6" t="s">
+        <v>757</v>
+      </c>
+      <c r="H6" t="s">
+        <v>549</v>
+      </c>
+      <c r="K6" t="s">
+        <v>824</v>
+      </c>
+      <c r="L6" t="s">
+        <v>825</v>
+      </c>
+      <c r="M6" t="s">
+        <v>612</v>
+      </c>
+      <c r="N6" t="s">
+        <v>826</v>
+      </c>
+      <c r="P6" t="s">
+        <v>696</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>697</v>
+      </c>
+      <c r="U6" t="s">
+        <v>625</v>
+      </c>
+      <c r="V6" t="s">
+        <v>626</v>
+      </c>
+      <c r="W6" t="s">
+        <v>549</v>
+      </c>
+      <c r="X6" t="s">
+        <v>627</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>554</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>549</v>
+      </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
@@ -5819,6 +8805,51 @@
         <v>3</v>
       </c>
       <c r="D7" s="2"/>
+      <c r="F7" t="s">
+        <v>758</v>
+      </c>
+      <c r="G7" t="s">
+        <v>759</v>
+      </c>
+      <c r="H7" t="s">
+        <v>549</v>
+      </c>
+      <c r="K7" t="s">
+        <v>827</v>
+      </c>
+      <c r="L7" t="s">
+        <v>828</v>
+      </c>
+      <c r="M7" t="s">
+        <v>549</v>
+      </c>
+      <c r="P7" t="s">
+        <v>698</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>699</v>
+      </c>
+      <c r="R7" t="s">
+        <v>618</v>
+      </c>
+      <c r="U7" t="s">
+        <v>628</v>
+      </c>
+      <c r="V7" t="s">
+        <v>629</v>
+      </c>
+      <c r="W7" t="s">
+        <v>549</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>555</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>556</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>549</v>
+      </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
@@ -5833,6 +8864,48 @@
       <c r="D8" s="2" t="s">
         <v>423</v>
       </c>
+      <c r="F8" t="s">
+        <v>760</v>
+      </c>
+      <c r="G8" t="s">
+        <v>761</v>
+      </c>
+      <c r="H8" t="s">
+        <v>549</v>
+      </c>
+      <c r="K8" t="s">
+        <v>829</v>
+      </c>
+      <c r="L8" t="s">
+        <v>830</v>
+      </c>
+      <c r="M8" t="s">
+        <v>549</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>700</v>
+      </c>
+      <c r="R8" t="s">
+        <v>549</v>
+      </c>
+      <c r="S8" t="s">
+        <v>701</v>
+      </c>
+      <c r="V8" t="s">
+        <v>630</v>
+      </c>
+      <c r="W8" t="s">
+        <v>549</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>557</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>558</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>549</v>
+      </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
@@ -5845,6 +8918,54 @@
         <v>3</v>
       </c>
       <c r="D9" s="2"/>
+      <c r="G9" t="s">
+        <v>762</v>
+      </c>
+      <c r="H9" t="s">
+        <v>612</v>
+      </c>
+      <c r="I9" t="s">
+        <v>763</v>
+      </c>
+      <c r="K9" t="s">
+        <v>831</v>
+      </c>
+      <c r="L9" t="s">
+        <v>832</v>
+      </c>
+      <c r="M9" t="s">
+        <v>549</v>
+      </c>
+      <c r="P9" t="s">
+        <v>702</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>703</v>
+      </c>
+      <c r="R9" t="s">
+        <v>618</v>
+      </c>
+      <c r="U9" t="s">
+        <v>631</v>
+      </c>
+      <c r="V9" t="s">
+        <v>632</v>
+      </c>
+      <c r="W9" t="s">
+        <v>618</v>
+      </c>
+      <c r="X9" s="8" t="s">
+        <v>633</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>559</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>549</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>560</v>
+      </c>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
@@ -5859,6 +8980,57 @@
       <c r="D10" s="3" t="s">
         <v>428</v>
       </c>
+      <c r="F10" t="s">
+        <v>764</v>
+      </c>
+      <c r="G10" t="s">
+        <v>765</v>
+      </c>
+      <c r="H10" t="s">
+        <v>549</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>766</v>
+      </c>
+      <c r="K10" t="s">
+        <v>833</v>
+      </c>
+      <c r="L10" t="s">
+        <v>834</v>
+      </c>
+      <c r="M10" t="s">
+        <v>618</v>
+      </c>
+      <c r="N10" t="s">
+        <v>835</v>
+      </c>
+      <c r="P10" t="s">
+        <v>704</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>703</v>
+      </c>
+      <c r="R10" t="s">
+        <v>618</v>
+      </c>
+      <c r="U10" t="s">
+        <v>634</v>
+      </c>
+      <c r="V10" t="s">
+        <v>635</v>
+      </c>
+      <c r="W10" t="s">
+        <v>549</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>561</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>562</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>549</v>
+      </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
@@ -5873,6 +9045,51 @@
       <c r="D11" s="3" t="s">
         <v>431</v>
       </c>
+      <c r="F11" t="s">
+        <v>767</v>
+      </c>
+      <c r="G11" t="s">
+        <v>768</v>
+      </c>
+      <c r="H11" t="s">
+        <v>549</v>
+      </c>
+      <c r="K11" t="s">
+        <v>836</v>
+      </c>
+      <c r="L11" t="s">
+        <v>837</v>
+      </c>
+      <c r="M11" t="s">
+        <v>549</v>
+      </c>
+      <c r="P11" t="s">
+        <v>705</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>703</v>
+      </c>
+      <c r="R11" t="s">
+        <v>618</v>
+      </c>
+      <c r="U11" t="s">
+        <v>636</v>
+      </c>
+      <c r="V11" t="s">
+        <v>637</v>
+      </c>
+      <c r="W11" t="s">
+        <v>549</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>563</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>564</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>549</v>
+      </c>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
@@ -5886,6 +9103,54 @@
       </c>
       <c r="D12" s="3" t="s">
         <v>436</v>
+      </c>
+      <c r="F12" t="s">
+        <v>769</v>
+      </c>
+      <c r="G12" t="s">
+        <v>770</v>
+      </c>
+      <c r="H12" t="s">
+        <v>771</v>
+      </c>
+      <c r="I12" t="s">
+        <v>772</v>
+      </c>
+      <c r="L12" t="s">
+        <v>838</v>
+      </c>
+      <c r="M12" t="s">
+        <v>549</v>
+      </c>
+      <c r="P12" t="s">
+        <v>706</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>703</v>
+      </c>
+      <c r="R12" t="s">
+        <v>618</v>
+      </c>
+      <c r="U12" t="s">
+        <v>638</v>
+      </c>
+      <c r="V12" t="s">
+        <v>639</v>
+      </c>
+      <c r="X12" t="s">
+        <v>640</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>565</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>566</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>567</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.4">
@@ -5899,6 +9164,54 @@
       <c r="D13" s="3" t="s">
         <v>435</v>
       </c>
+      <c r="F13" t="s">
+        <v>773</v>
+      </c>
+      <c r="G13" t="s">
+        <v>774</v>
+      </c>
+      <c r="H13" t="s">
+        <v>549</v>
+      </c>
+      <c r="K13" t="s">
+        <v>839</v>
+      </c>
+      <c r="L13" t="s">
+        <v>840</v>
+      </c>
+      <c r="M13" t="s">
+        <v>549</v>
+      </c>
+      <c r="P13" t="s">
+        <v>707</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>708</v>
+      </c>
+      <c r="R13" t="s">
+        <v>549</v>
+      </c>
+      <c r="U13" t="s">
+        <v>641</v>
+      </c>
+      <c r="V13" t="s">
+        <v>642</v>
+      </c>
+      <c r="W13" t="s">
+        <v>549</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>569</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>570</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>549</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>571</v>
+      </c>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A14" s="2"/>
@@ -5911,6 +9224,63 @@
       <c r="D14" s="3" t="s">
         <v>437</v>
       </c>
+      <c r="F14" t="s">
+        <v>775</v>
+      </c>
+      <c r="G14" t="s">
+        <v>776</v>
+      </c>
+      <c r="H14" t="s">
+        <v>618</v>
+      </c>
+      <c r="I14" t="s">
+        <v>777</v>
+      </c>
+      <c r="K14" t="s">
+        <v>841</v>
+      </c>
+      <c r="L14" t="s">
+        <v>842</v>
+      </c>
+      <c r="M14" t="s">
+        <v>567</v>
+      </c>
+      <c r="N14" t="s">
+        <v>843</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>709</v>
+      </c>
+      <c r="R14" t="s">
+        <v>549</v>
+      </c>
+      <c r="S14" t="s">
+        <v>710</v>
+      </c>
+      <c r="U14" t="s">
+        <v>643</v>
+      </c>
+      <c r="V14" t="s">
+        <v>644</v>
+      </c>
+      <c r="W14" t="s">
+        <v>567</v>
+      </c>
+      <c r="X14" s="8" t="s">
+        <v>645</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>572</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>573</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>549</v>
+      </c>
+      <c r="AC14" s="8" t="s">
+        <v>574</v>
+      </c>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
@@ -5923,6 +9293,57 @@
         <v>3</v>
       </c>
       <c r="D15" s="2"/>
+      <c r="F15" t="s">
+        <v>778</v>
+      </c>
+      <c r="G15" t="s">
+        <v>779</v>
+      </c>
+      <c r="H15" t="s">
+        <v>749</v>
+      </c>
+      <c r="K15" t="s">
+        <v>844</v>
+      </c>
+      <c r="L15" t="s">
+        <v>845</v>
+      </c>
+      <c r="M15" t="s">
+        <v>549</v>
+      </c>
+      <c r="P15" t="s">
+        <v>711</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>712</v>
+      </c>
+      <c r="R15" t="s">
+        <v>549</v>
+      </c>
+      <c r="S15" t="s">
+        <v>713</v>
+      </c>
+      <c r="U15" t="s">
+        <v>646</v>
+      </c>
+      <c r="V15" t="s">
+        <v>647</v>
+      </c>
+      <c r="W15" t="s">
+        <v>549</v>
+      </c>
+      <c r="X15" s="8" t="s">
+        <v>648</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>575</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>576</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>549</v>
+      </c>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
@@ -5937,8 +9358,53 @@
       <c r="D16" s="2" t="s">
         <v>443</v>
       </c>
+      <c r="F16" t="s">
+        <v>780</v>
+      </c>
+      <c r="G16" t="s">
+        <v>781</v>
+      </c>
+      <c r="H16" t="s">
+        <v>549</v>
+      </c>
+      <c r="K16" t="s">
+        <v>846</v>
+      </c>
+      <c r="L16" t="s">
+        <v>847</v>
+      </c>
+      <c r="M16" t="s">
+        <v>549</v>
+      </c>
+      <c r="P16" t="s">
+        <v>714</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>715</v>
+      </c>
+      <c r="R16" t="s">
+        <v>549</v>
+      </c>
+      <c r="U16" t="s">
+        <v>649</v>
+      </c>
+      <c r="V16" t="s">
+        <v>650</v>
+      </c>
+      <c r="W16" t="s">
+        <v>549</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>577</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>578</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>549</v>
+      </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
         <v>444</v>
       </c>
@@ -5949,8 +9415,53 @@
         <v>3</v>
       </c>
       <c r="D17" s="2"/>
+      <c r="F17" t="s">
+        <v>782</v>
+      </c>
+      <c r="G17" t="s">
+        <v>783</v>
+      </c>
+      <c r="H17" t="s">
+        <v>549</v>
+      </c>
+      <c r="K17" t="s">
+        <v>848</v>
+      </c>
+      <c r="L17" t="s">
+        <v>849</v>
+      </c>
+      <c r="M17" t="s">
+        <v>549</v>
+      </c>
+      <c r="P17" t="s">
+        <v>716</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>717</v>
+      </c>
+      <c r="R17" t="s">
+        <v>549</v>
+      </c>
+      <c r="U17" t="s">
+        <v>651</v>
+      </c>
+      <c r="V17" t="s">
+        <v>652</v>
+      </c>
+      <c r="W17" t="s">
+        <v>549</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>579</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>580</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>549</v>
+      </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
         <v>446</v>
       </c>
@@ -5961,8 +9472,59 @@
         <v>3</v>
       </c>
       <c r="D18" s="2"/>
+      <c r="F18" t="s">
+        <v>784</v>
+      </c>
+      <c r="G18" t="s">
+        <v>785</v>
+      </c>
+      <c r="H18" t="s">
+        <v>567</v>
+      </c>
+      <c r="I18" t="s">
+        <v>786</v>
+      </c>
+      <c r="K18" t="s">
+        <v>850</v>
+      </c>
+      <c r="L18" t="s">
+        <v>851</v>
+      </c>
+      <c r="M18" t="s">
+        <v>549</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>718</v>
+      </c>
+      <c r="R18" t="s">
+        <v>549</v>
+      </c>
+      <c r="U18" t="s">
+        <v>653</v>
+      </c>
+      <c r="V18" t="s">
+        <v>654</v>
+      </c>
+      <c r="W18" t="s">
+        <v>618</v>
+      </c>
+      <c r="X18" t="s">
+        <v>655</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>581</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>582</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>549</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>583</v>
+      </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
         <v>448</v>
       </c>
@@ -5973,8 +9535,56 @@
         <v>3</v>
       </c>
       <c r="D19" s="2"/>
+      <c r="F19" t="s">
+        <v>787</v>
+      </c>
+      <c r="G19" t="s">
+        <v>788</v>
+      </c>
+      <c r="H19" t="s">
+        <v>549</v>
+      </c>
+      <c r="K19" t="s">
+        <v>852</v>
+      </c>
+      <c r="L19" t="s">
+        <v>853</v>
+      </c>
+      <c r="M19" t="s">
+        <v>612</v>
+      </c>
+      <c r="P19" t="s">
+        <v>719</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>720</v>
+      </c>
+      <c r="R19" t="s">
+        <v>549</v>
+      </c>
+      <c r="V19" t="s">
+        <v>656</v>
+      </c>
+      <c r="W19" t="s">
+        <v>549</v>
+      </c>
+      <c r="X19" t="s">
+        <v>657</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>584</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>585</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>549</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>586</v>
+      </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
         <v>450</v>
       </c>
@@ -5985,8 +9595,53 @@
         <v>3</v>
       </c>
       <c r="D20" s="2"/>
+      <c r="F20" t="s">
+        <v>789</v>
+      </c>
+      <c r="G20" t="s">
+        <v>790</v>
+      </c>
+      <c r="H20" t="s">
+        <v>549</v>
+      </c>
+      <c r="K20" t="s">
+        <v>854</v>
+      </c>
+      <c r="L20" t="s">
+        <v>855</v>
+      </c>
+      <c r="M20" t="s">
+        <v>549</v>
+      </c>
+      <c r="P20" t="s">
+        <v>721</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>722</v>
+      </c>
+      <c r="R20" t="s">
+        <v>549</v>
+      </c>
+      <c r="U20" t="s">
+        <v>658</v>
+      </c>
+      <c r="V20" t="s">
+        <v>659</v>
+      </c>
+      <c r="W20" t="s">
+        <v>549</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>587</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>588</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>549</v>
+      </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
         <v>452</v>
       </c>
@@ -5997,8 +9652,50 @@
         <v>3</v>
       </c>
       <c r="D21" s="2"/>
+      <c r="F21" t="s">
+        <v>791</v>
+      </c>
+      <c r="G21" t="s">
+        <v>792</v>
+      </c>
+      <c r="H21" t="s">
+        <v>549</v>
+      </c>
+      <c r="K21" t="s">
+        <v>856</v>
+      </c>
+      <c r="L21" t="s">
+        <v>857</v>
+      </c>
+      <c r="M21" t="s">
+        <v>549</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>723</v>
+      </c>
+      <c r="R21" t="s">
+        <v>549</v>
+      </c>
+      <c r="U21" t="s">
+        <v>660</v>
+      </c>
+      <c r="V21" t="s">
+        <v>661</v>
+      </c>
+      <c r="W21" t="s">
+        <v>549</v>
+      </c>
+      <c r="X21" s="8" t="s">
+        <v>662</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>589</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>549</v>
+      </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A22" s="2" t="s">
         <v>454</v>
       </c>
@@ -6009,8 +9706,56 @@
         <v>3</v>
       </c>
       <c r="D22" s="2"/>
+      <c r="F22" t="s">
+        <v>793</v>
+      </c>
+      <c r="G22" t="s">
+        <v>794</v>
+      </c>
+      <c r="H22" t="s">
+        <v>549</v>
+      </c>
+      <c r="K22" t="s">
+        <v>858</v>
+      </c>
+      <c r="L22" t="s">
+        <v>859</v>
+      </c>
+      <c r="M22" t="s">
+        <v>567</v>
+      </c>
+      <c r="N22" t="s">
+        <v>860</v>
+      </c>
+      <c r="P22" t="s">
+        <v>724</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>725</v>
+      </c>
+      <c r="R22" t="s">
+        <v>618</v>
+      </c>
+      <c r="S22" t="s">
+        <v>726</v>
+      </c>
+      <c r="V22" t="s">
+        <v>663</v>
+      </c>
+      <c r="W22" t="s">
+        <v>549</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>590</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>549</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>591</v>
+      </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
         <v>456</v>
       </c>
@@ -6021,8 +9766,59 @@
         <v>3</v>
       </c>
       <c r="D23" s="2"/>
+      <c r="G23" t="s">
+        <v>795</v>
+      </c>
+      <c r="H23" t="s">
+        <v>612</v>
+      </c>
+      <c r="I23" t="s">
+        <v>796</v>
+      </c>
+      <c r="K23" t="s">
+        <v>861</v>
+      </c>
+      <c r="L23" t="s">
+        <v>862</v>
+      </c>
+      <c r="M23" t="s">
+        <v>549</v>
+      </c>
+      <c r="P23" t="s">
+        <v>727</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>728</v>
+      </c>
+      <c r="R23" t="s">
+        <v>567</v>
+      </c>
+      <c r="S23" t="s">
+        <v>729</v>
+      </c>
+      <c r="U23" t="s">
+        <v>664</v>
+      </c>
+      <c r="V23" t="s">
+        <v>665</v>
+      </c>
+      <c r="W23" t="s">
+        <v>618</v>
+      </c>
+      <c r="X23" s="8" t="s">
+        <v>666</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>592</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>593</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>567</v>
+      </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A24" s="2" t="s">
         <v>458</v>
       </c>
@@ -6035,8 +9831,59 @@
       <c r="D24" s="2" t="s">
         <v>460</v>
       </c>
+      <c r="F24" t="s">
+        <v>797</v>
+      </c>
+      <c r="G24" t="s">
+        <v>798</v>
+      </c>
+      <c r="H24" t="s">
+        <v>549</v>
+      </c>
+      <c r="K24" t="s">
+        <v>863</v>
+      </c>
+      <c r="L24" t="s">
+        <v>864</v>
+      </c>
+      <c r="M24" t="s">
+        <v>549</v>
+      </c>
+      <c r="N24" t="s">
+        <v>865</v>
+      </c>
+      <c r="P24" t="s">
+        <v>730</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>731</v>
+      </c>
+      <c r="R24" t="s">
+        <v>549</v>
+      </c>
+      <c r="U24" t="s">
+        <v>667</v>
+      </c>
+      <c r="V24" t="s">
+        <v>668</v>
+      </c>
+      <c r="W24" t="s">
+        <v>549</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>594</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>595</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>549</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>596</v>
+      </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A25" s="2" t="s">
         <v>461</v>
       </c>
@@ -6049,8 +9896,59 @@
       <c r="D25" s="2" t="s">
         <v>463</v>
       </c>
+      <c r="F25" t="s">
+        <v>799</v>
+      </c>
+      <c r="G25" t="s">
+        <v>800</v>
+      </c>
+      <c r="H25" t="s">
+        <v>549</v>
+      </c>
+      <c r="K25" t="s">
+        <v>866</v>
+      </c>
+      <c r="L25" t="s">
+        <v>867</v>
+      </c>
+      <c r="M25" t="s">
+        <v>567</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>732</v>
+      </c>
+      <c r="R25" t="s">
+        <v>612</v>
+      </c>
+      <c r="S25" s="8" t="s">
+        <v>741</v>
+      </c>
+      <c r="U25" t="s">
+        <v>669</v>
+      </c>
+      <c r="V25" t="s">
+        <v>670</v>
+      </c>
+      <c r="W25" t="s">
+        <v>618</v>
+      </c>
+      <c r="X25" t="s">
+        <v>671</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>597</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>598</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>549</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>599</v>
+      </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A26" s="2"/>
       <c r="B26" s="2" t="s">
         <v>464</v>
@@ -6061,8 +9959,56 @@
       <c r="D26" s="2" t="s">
         <v>465</v>
       </c>
+      <c r="F26" t="s">
+        <v>801</v>
+      </c>
+      <c r="G26" t="s">
+        <v>802</v>
+      </c>
+      <c r="H26" t="s">
+        <v>549</v>
+      </c>
+      <c r="K26" t="s">
+        <v>868</v>
+      </c>
+      <c r="L26" t="s">
+        <v>869</v>
+      </c>
+      <c r="M26" t="s">
+        <v>618</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>733</v>
+      </c>
+      <c r="R26" t="s">
+        <v>612</v>
+      </c>
+      <c r="S26" s="8" t="s">
+        <v>742</v>
+      </c>
+      <c r="U26" t="s">
+        <v>672</v>
+      </c>
+      <c r="V26" t="s">
+        <v>673</v>
+      </c>
+      <c r="W26" t="s">
+        <v>618</v>
+      </c>
+      <c r="X26" s="8" t="s">
+        <v>674</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>600</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>601</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>549</v>
+      </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A27" s="2" t="s">
         <v>466</v>
       </c>
@@ -6075,8 +10021,56 @@
       <c r="D27" s="2" t="s">
         <v>468</v>
       </c>
+      <c r="F27" t="s">
+        <v>803</v>
+      </c>
+      <c r="G27" t="s">
+        <v>804</v>
+      </c>
+      <c r="H27" t="s">
+        <v>618</v>
+      </c>
+      <c r="I27" s="8" t="s">
+        <v>805</v>
+      </c>
+      <c r="K27" t="s">
+        <v>870</v>
+      </c>
+      <c r="L27" t="s">
+        <v>871</v>
+      </c>
+      <c r="M27" t="s">
+        <v>549</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>734</v>
+      </c>
+      <c r="R27" t="s">
+        <v>612</v>
+      </c>
+      <c r="S27" s="8" t="s">
+        <v>743</v>
+      </c>
+      <c r="U27" t="s">
+        <v>675</v>
+      </c>
+      <c r="V27" t="s">
+        <v>676</v>
+      </c>
+      <c r="W27" t="s">
+        <v>549</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>602</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>603</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>549</v>
+      </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A28" s="2" t="s">
         <v>471</v>
       </c>
@@ -6089,8 +10083,56 @@
       <c r="D28" s="3" t="s">
         <v>469</v>
       </c>
+      <c r="F28" t="s">
+        <v>806</v>
+      </c>
+      <c r="G28" t="s">
+        <v>807</v>
+      </c>
+      <c r="H28" t="s">
+        <v>549</v>
+      </c>
+      <c r="I28" s="8" t="s">
+        <v>808</v>
+      </c>
+      <c r="L28" t="s">
+        <v>872</v>
+      </c>
+      <c r="M28" t="s">
+        <v>549</v>
+      </c>
+      <c r="N28" t="s">
+        <v>873</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>735</v>
+      </c>
+      <c r="R28" t="s">
+        <v>612</v>
+      </c>
+      <c r="S28" s="8" t="s">
+        <v>744</v>
+      </c>
+      <c r="U28" t="s">
+        <v>677</v>
+      </c>
+      <c r="V28" t="s">
+        <v>678</v>
+      </c>
+      <c r="W28" t="s">
+        <v>549</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>604</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>549</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>605</v>
+      </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A29" s="2" t="s">
         <v>473</v>
       </c>
@@ -6103,8 +10145,53 @@
       <c r="D29" s="3" t="s">
         <v>470</v>
       </c>
+      <c r="G29" t="s">
+        <v>809</v>
+      </c>
+      <c r="H29" t="s">
+        <v>612</v>
+      </c>
+      <c r="I29" t="s">
+        <v>810</v>
+      </c>
+      <c r="K29" t="s">
+        <v>874</v>
+      </c>
+      <c r="L29" t="s">
+        <v>875</v>
+      </c>
+      <c r="M29" t="s">
+        <v>549</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>736</v>
+      </c>
+      <c r="R29" t="s">
+        <v>612</v>
+      </c>
+      <c r="S29" s="8" t="s">
+        <v>745</v>
+      </c>
+      <c r="U29" t="s">
+        <v>679</v>
+      </c>
+      <c r="V29" t="s">
+        <v>680</v>
+      </c>
+      <c r="W29" t="s">
+        <v>549</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>606</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>607</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>549</v>
+      </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A30" s="2" t="s">
         <v>475</v>
       </c>
@@ -6115,8 +10202,53 @@
         <v>3</v>
       </c>
       <c r="D30" s="2"/>
+      <c r="G30" t="s">
+        <v>811</v>
+      </c>
+      <c r="H30" t="s">
+        <v>612</v>
+      </c>
+      <c r="I30" t="s">
+        <v>812</v>
+      </c>
+      <c r="K30" t="s">
+        <v>876</v>
+      </c>
+      <c r="L30" t="s">
+        <v>877</v>
+      </c>
+      <c r="M30" t="s">
+        <v>549</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>737</v>
+      </c>
+      <c r="R30" t="s">
+        <v>612</v>
+      </c>
+      <c r="S30" s="8" t="s">
+        <v>746</v>
+      </c>
+      <c r="U30" t="s">
+        <v>681</v>
+      </c>
+      <c r="V30" t="s">
+        <v>682</v>
+      </c>
+      <c r="W30" t="s">
+        <v>549</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>608</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>609</v>
+      </c>
+      <c r="AB30" t="s">
+        <v>549</v>
+      </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A31" s="2" t="s">
         <v>477</v>
       </c>
@@ -6129,8 +10261,59 @@
       <c r="D31" s="3" t="s">
         <v>479</v>
       </c>
+      <c r="F31" t="s">
+        <v>813</v>
+      </c>
+      <c r="G31" t="s">
+        <v>814</v>
+      </c>
+      <c r="H31" t="s">
+        <v>549</v>
+      </c>
+      <c r="L31" t="s">
+        <v>878</v>
+      </c>
+      <c r="M31" t="s">
+        <v>549</v>
+      </c>
+      <c r="N31" t="s">
+        <v>879</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>738</v>
+      </c>
+      <c r="R31" t="s">
+        <v>612</v>
+      </c>
+      <c r="S31" s="8" t="s">
+        <v>747</v>
+      </c>
+      <c r="U31" t="s">
+        <v>683</v>
+      </c>
+      <c r="V31" t="s">
+        <v>684</v>
+      </c>
+      <c r="W31" t="s">
+        <v>549</v>
+      </c>
+      <c r="X31" s="8" t="s">
+        <v>685</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>610</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>611</v>
+      </c>
+      <c r="AB31" t="s">
+        <v>612</v>
+      </c>
+      <c r="AC31" s="8" t="s">
+        <v>613</v>
+      </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A32" s="2" t="s">
         <v>480</v>
       </c>
@@ -6141,15 +10324,511 @@
         <v>42</v>
       </c>
       <c r="D32" s="2"/>
+      <c r="F32" t="s">
+        <v>815</v>
+      </c>
+      <c r="G32" t="s">
+        <v>816</v>
+      </c>
+      <c r="H32" t="s">
+        <v>549</v>
+      </c>
+      <c r="K32" t="s">
+        <v>880</v>
+      </c>
+      <c r="L32" t="s">
+        <v>881</v>
+      </c>
+      <c r="M32" t="s">
+        <v>549</v>
+      </c>
+      <c r="P32" t="s">
+        <v>739</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>740</v>
+      </c>
+      <c r="R32" t="s">
+        <v>549</v>
+      </c>
+      <c r="U32" t="s">
+        <v>686</v>
+      </c>
+      <c r="V32" t="s">
+        <v>687</v>
+      </c>
+      <c r="W32" t="s">
+        <v>618</v>
+      </c>
+      <c r="X32" t="s">
+        <v>688</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>614</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>615</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>549</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="Z1:AC1"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="K1:N1"/>
     <mergeCell ref="P1:S1"/>
     <mergeCell ref="U1:X1"/>
-    <mergeCell ref="Z1:AC1"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30799995-C6B0-4CFC-AF44-2946D4718A77}">
+  <dimension ref="A1:X32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A1" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="F1" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="K1" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="P1" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="U1" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="V1" s="7"/>
+      <c r="W1" s="7"/>
+      <c r="X1" s="7"/>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="U2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="V2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="W2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="X2" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="B3" t="s">
+        <v>487</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>489</v>
+      </c>
+      <c r="B4" t="s">
+        <v>490</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>491</v>
+      </c>
+      <c r="B5" t="s">
+        <v>492</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>493</v>
+      </c>
+      <c r="B6" t="s">
+        <v>494</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>495</v>
+      </c>
+      <c r="B7" t="s">
+        <v>496</v>
+      </c>
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>497</v>
+      </c>
+      <c r="B8" t="s">
+        <v>498</v>
+      </c>
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>499</v>
+      </c>
+      <c r="B9" t="s">
+        <v>500</v>
+      </c>
+      <c r="C9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>501</v>
+      </c>
+      <c r="B10" t="s">
+        <v>502</v>
+      </c>
+      <c r="C10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>503</v>
+      </c>
+      <c r="B11" t="s">
+        <v>504</v>
+      </c>
+      <c r="C11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>505</v>
+      </c>
+      <c r="B12" t="s">
+        <v>506</v>
+      </c>
+      <c r="C12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>507</v>
+      </c>
+      <c r="B13" t="s">
+        <v>508</v>
+      </c>
+      <c r="C13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="B14" t="s">
+        <v>509</v>
+      </c>
+      <c r="C14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>511</v>
+      </c>
+      <c r="B15" t="s">
+        <v>512</v>
+      </c>
+      <c r="C15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="B16" t="s">
+        <v>514</v>
+      </c>
+      <c r="C16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>515</v>
+      </c>
+      <c r="B17" t="s">
+        <v>516</v>
+      </c>
+      <c r="C17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B18" t="s">
+        <v>518</v>
+      </c>
+      <c r="C18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B19" t="s">
+        <v>520</v>
+      </c>
+      <c r="C19" t="s">
+        <v>111</v>
+      </c>
+      <c r="D19" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>522</v>
+      </c>
+      <c r="B20" t="s">
+        <v>523</v>
+      </c>
+      <c r="C20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>524</v>
+      </c>
+      <c r="B21" t="s">
+        <v>525</v>
+      </c>
+      <c r="C21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>526</v>
+      </c>
+      <c r="B22" t="s">
+        <v>527</v>
+      </c>
+      <c r="C22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B23" t="s">
+        <v>528</v>
+      </c>
+      <c r="C23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>530</v>
+      </c>
+      <c r="B24" t="s">
+        <v>531</v>
+      </c>
+      <c r="C24" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>532</v>
+      </c>
+      <c r="B25" t="s">
+        <v>533</v>
+      </c>
+      <c r="C25" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>534</v>
+      </c>
+      <c r="B26" t="s">
+        <v>535</v>
+      </c>
+      <c r="C26" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
+        <v>536</v>
+      </c>
+      <c r="B27" t="s">
+        <v>537</v>
+      </c>
+      <c r="C27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
+        <v>538</v>
+      </c>
+      <c r="B28" t="s">
+        <v>539</v>
+      </c>
+      <c r="C28" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
+        <v>540</v>
+      </c>
+      <c r="B29" t="s">
+        <v>541</v>
+      </c>
+      <c r="C29" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
+        <v>542</v>
+      </c>
+      <c r="B30" t="s">
+        <v>543</v>
+      </c>
+      <c r="C30" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
+        <v>544</v>
+      </c>
+      <c r="B31" t="s">
+        <v>545</v>
+      </c>
+      <c r="C31" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B32" t="s">
+        <v>546</v>
+      </c>
+      <c r="C32" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="U1:X1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/8月単語.xlsx
+++ b/8月単語.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kreis1g-tpc-029\Desktop\穆作業\Git管理\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{899724DB-EE4F-4006-8473-AAAD48B0BC80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DA0D00E-7582-4575-A044-56932617A8A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1294" uniqueCount="882">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1400" uniqueCount="962">
   <si>
     <t>2021/8/2の単語</t>
     <rPh sb="9" eb="11">
@@ -6093,6 +6093,596 @@
   </si>
   <si>
     <t>しさつ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ミュージック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>豪華</t>
+    <rPh sb="0" eb="2">
+      <t>ゴウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ごうか</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>adj2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入浴</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウヨク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>にゅうよく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>不意</t>
+    <rPh sb="0" eb="2">
+      <t>フイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ふい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>突然的</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>立て掛ける</t>
+    <rPh sb="0" eb="1">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>たてかける</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>V2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>本気</t>
+    <rPh sb="0" eb="2">
+      <t>ホンキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ほんき</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>まじめ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>炊事</t>
+    <rPh sb="0" eb="2">
+      <t>スイジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>すいじ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>蜜蜂</t>
+    <rPh sb="0" eb="2">
+      <t>ミツバチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>みつばち</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>取り返す</t>
+    <rPh sb="0" eb="1">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>とりかえす</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>V1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>取回</t>
+    <rPh sb="0" eb="1">
+      <t>トリ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>カイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>音楽</t>
+    <rPh sb="0" eb="2">
+      <t>オンガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>収める</t>
+    <rPh sb="0" eb="1">
+      <t>オサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おさめる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>納める</t>
+    <rPh sb="0" eb="1">
+      <t>オサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>缴纳；接受；奉献给神佛；结束；收藏</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>收</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>纳，收藏</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>退会</t>
+    <rPh sb="0" eb="2">
+      <t>タイカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>たいかい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>目付き</t>
+    <rPh sb="0" eb="2">
+      <t>メツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>めつき</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>眼神</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>残る</t>
+    <rPh sb="0" eb="1">
+      <t>ノコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>のこる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>塔</t>
+    <rPh sb="0" eb="1">
+      <t>トウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>とう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>切り上げる</t>
+    <rPh sb="0" eb="1">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>きりあげる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>结</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>束，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>货币升</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>值</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>脱線</t>
+    <rPh sb="0" eb="2">
+      <t>ダッセン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>だっせん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>出</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>轨，离题</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブーツ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>長靴</t>
+    <rPh sb="0" eb="2">
+      <t>ナガグツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>忠告</t>
+    <rPh sb="0" eb="2">
+      <t>チュウコク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ちゅうこく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>加速</t>
+    <rPh sb="0" eb="2">
+      <t>カソク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かそく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>容積</t>
+    <rPh sb="0" eb="2">
+      <t>ヨウセキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ようせき</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>燃え上がる</t>
+    <rPh sb="0" eb="1">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>もえあがる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>燃えて，炎が高くあがる</t>
+  </si>
+  <si>
+    <t>不幸</t>
+    <rPh sb="0" eb="2">
+      <t>フコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ふこう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>執筆</t>
+    <rPh sb="0" eb="2">
+      <t>シッピツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しっぴつ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>文章を書くこと。筆をとって文字を書くこと。</t>
+  </si>
+  <si>
+    <t>新卒</t>
+    <rPh sb="0" eb="2">
+      <t>シンソツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しんそつ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>届け</t>
+    <rPh sb="0" eb="1">
+      <t>トド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>とどけ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>申請</t>
+    <rPh sb="0" eb="2">
+      <t>シンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>盛り上げる</t>
+    <rPh sb="0" eb="1">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>もりあげる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>使（气氛等）高</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>涨</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>热</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>烈起来。堆起，堆高</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ダム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>水坝，拦河坝，水库，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>拦河坝，水库</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いきのこる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>生き残る</t>
+    <rPh sb="0" eb="1">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ノコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>命をとりとめる</t>
+  </si>
+  <si>
+    <t>げっそり</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>副</t>
+    <rPh sb="0" eb="1">
+      <t>フク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>急</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>剧</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>消瘦、灰心，失望，无精打采</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仕上げ</t>
+    <rPh sb="0" eb="2">
+      <t>シア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しあげ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <rPh sb="0" eb="2">
+      <t>カンセイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -6100,7 +6690,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6138,6 +6728,26 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -6181,7 +6791,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -6195,10 +6805,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -6498,36 +7110,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="F1" s="7" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="F1" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="K1" s="7" t="s">
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="K1" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="P1" s="7" t="s">
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="P1" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="U1" s="7" t="s">
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+      <c r="U1" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="V1" s="7"/>
-      <c r="W1" s="7"/>
-      <c r="X1" s="7"/>
+      <c r="V1" s="8"/>
+      <c r="W1" s="8"/>
+      <c r="X1" s="8"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
@@ -8434,42 +9046,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.4">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>314</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="F1" s="7" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="F1" s="8" t="s">
         <v>315</v>
       </c>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="K1" s="7" t="s">
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="K1" s="8" t="s">
         <v>316</v>
       </c>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="P1" s="7" t="s">
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="P1" s="8" t="s">
         <v>317</v>
       </c>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="U1" s="7" t="s">
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+      <c r="U1" s="8" t="s">
         <v>318</v>
       </c>
-      <c r="V1" s="7"/>
-      <c r="W1" s="7"/>
-      <c r="X1" s="7"/>
-      <c r="Z1" s="7" t="s">
+      <c r="V1" s="8"/>
+      <c r="W1" s="8"/>
+      <c r="X1" s="8"/>
+      <c r="Z1" s="8" t="s">
         <v>319</v>
       </c>
-      <c r="AA1" s="7"/>
-      <c r="AB1" s="7"/>
-      <c r="AC1" s="7"/>
+      <c r="AA1" s="8"/>
+      <c r="AB1" s="8"/>
+      <c r="AC1" s="8"/>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
@@ -8597,7 +9209,7 @@
       <c r="W3" t="s">
         <v>618</v>
       </c>
-      <c r="X3" s="8" t="s">
+      <c r="X3" s="7" t="s">
         <v>619</v>
       </c>
       <c r="Z3" t="s">
@@ -8662,7 +9274,7 @@
       <c r="W4" t="s">
         <v>612</v>
       </c>
-      <c r="X4" s="8" t="s">
+      <c r="X4" s="7" t="s">
         <v>622</v>
       </c>
       <c r="Z4" t="s">
@@ -8954,7 +9566,7 @@
       <c r="W9" t="s">
         <v>618</v>
       </c>
-      <c r="X9" s="8" t="s">
+      <c r="X9" s="7" t="s">
         <v>633</v>
       </c>
       <c r="AA9" t="s">
@@ -8989,7 +9601,7 @@
       <c r="H10" t="s">
         <v>549</v>
       </c>
-      <c r="I10" s="8" t="s">
+      <c r="I10" s="7" t="s">
         <v>766</v>
       </c>
       <c r="K10" t="s">
@@ -9266,7 +9878,7 @@
       <c r="W14" t="s">
         <v>567</v>
       </c>
-      <c r="X14" s="8" t="s">
+      <c r="X14" s="7" t="s">
         <v>645</v>
       </c>
       <c r="Z14" t="s">
@@ -9278,7 +9890,7 @@
       <c r="AB14" t="s">
         <v>549</v>
       </c>
-      <c r="AC14" s="8" t="s">
+      <c r="AC14" s="7" t="s">
         <v>574</v>
       </c>
     </row>
@@ -9332,7 +9944,7 @@
       <c r="W15" t="s">
         <v>549</v>
       </c>
-      <c r="X15" s="8" t="s">
+      <c r="X15" s="7" t="s">
         <v>648</v>
       </c>
       <c r="Z15" t="s">
@@ -9685,7 +10297,7 @@
       <c r="W21" t="s">
         <v>549</v>
       </c>
-      <c r="X21" s="8" t="s">
+      <c r="X21" s="7" t="s">
         <v>662</v>
       </c>
       <c r="AA21" t="s">
@@ -9805,7 +10417,7 @@
       <c r="W23" t="s">
         <v>618</v>
       </c>
-      <c r="X23" s="8" t="s">
+      <c r="X23" s="7" t="s">
         <v>666</v>
       </c>
       <c r="Z23" t="s">
@@ -9920,7 +10532,7 @@
       <c r="R25" t="s">
         <v>612</v>
       </c>
-      <c r="S25" s="8" t="s">
+      <c r="S25" s="7" t="s">
         <v>741</v>
       </c>
       <c r="U25" t="s">
@@ -9983,7 +10595,7 @@
       <c r="R26" t="s">
         <v>612</v>
       </c>
-      <c r="S26" s="8" t="s">
+      <c r="S26" s="7" t="s">
         <v>742</v>
       </c>
       <c r="U26" t="s">
@@ -9995,7 +10607,7 @@
       <c r="W26" t="s">
         <v>618</v>
       </c>
-      <c r="X26" s="8" t="s">
+      <c r="X26" s="7" t="s">
         <v>674</v>
       </c>
       <c r="Z26" t="s">
@@ -10030,7 +10642,7 @@
       <c r="H27" t="s">
         <v>618</v>
       </c>
-      <c r="I27" s="8" t="s">
+      <c r="I27" s="7" t="s">
         <v>805</v>
       </c>
       <c r="K27" t="s">
@@ -10048,7 +10660,7 @@
       <c r="R27" t="s">
         <v>612</v>
       </c>
-      <c r="S27" s="8" t="s">
+      <c r="S27" s="7" t="s">
         <v>743</v>
       </c>
       <c r="U27" t="s">
@@ -10092,7 +10704,7 @@
       <c r="H28" t="s">
         <v>549</v>
       </c>
-      <c r="I28" s="8" t="s">
+      <c r="I28" s="7" t="s">
         <v>808</v>
       </c>
       <c r="L28" t="s">
@@ -10110,7 +10722,7 @@
       <c r="R28" t="s">
         <v>612</v>
       </c>
-      <c r="S28" s="8" t="s">
+      <c r="S28" s="7" t="s">
         <v>744</v>
       </c>
       <c r="U28" t="s">
@@ -10169,7 +10781,7 @@
       <c r="R29" t="s">
         <v>612</v>
       </c>
-      <c r="S29" s="8" t="s">
+      <c r="S29" s="7" t="s">
         <v>745</v>
       </c>
       <c r="U29" t="s">
@@ -10226,7 +10838,7 @@
       <c r="R30" t="s">
         <v>612</v>
       </c>
-      <c r="S30" s="8" t="s">
+      <c r="S30" s="7" t="s">
         <v>746</v>
       </c>
       <c r="U30" t="s">
@@ -10285,7 +10897,7 @@
       <c r="R31" t="s">
         <v>612</v>
       </c>
-      <c r="S31" s="8" t="s">
+      <c r="S31" s="7" t="s">
         <v>747</v>
       </c>
       <c r="U31" t="s">
@@ -10297,7 +10909,7 @@
       <c r="W31" t="s">
         <v>549</v>
       </c>
-      <c r="X31" s="8" t="s">
+      <c r="X31" s="7" t="s">
         <v>685</v>
       </c>
       <c r="Z31" t="s">
@@ -10309,7 +10921,7 @@
       <c r="AB31" t="s">
         <v>612</v>
       </c>
-      <c r="AC31" s="8" t="s">
+      <c r="AC31" s="7" t="s">
         <v>613</v>
       </c>
     </row>
@@ -10390,45 +11002,45 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30799995-C6B0-4CFC-AF44-2946D4718A77}">
-  <dimension ref="A1:X32"/>
+  <dimension ref="A1:X33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>482</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="F1" s="7" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="F1" s="8" t="s">
         <v>483</v>
       </c>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="K1" s="7" t="s">
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="K1" s="8" t="s">
         <v>484</v>
       </c>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="P1" s="7" t="s">
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="P1" s="8" t="s">
         <v>485</v>
       </c>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="U1" s="7" t="s">
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+      <c r="U1" s="8" t="s">
         <v>486</v>
       </c>
-      <c r="V1" s="7"/>
-      <c r="W1" s="7"/>
-      <c r="X1" s="7"/>
+      <c r="V1" s="8"/>
+      <c r="W1" s="8"/>
+      <c r="X1" s="8"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
@@ -10502,6 +11114,15 @@
       <c r="D3" t="s">
         <v>488</v>
       </c>
+      <c r="G3" t="s">
+        <v>882</v>
+      </c>
+      <c r="H3" t="s">
+        <v>888</v>
+      </c>
+      <c r="I3" t="s">
+        <v>906</v>
+      </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
@@ -10513,6 +11134,15 @@
       <c r="C4" t="s">
         <v>3</v>
       </c>
+      <c r="F4" t="s">
+        <v>883</v>
+      </c>
+      <c r="G4" t="s">
+        <v>884</v>
+      </c>
+      <c r="H4" t="s">
+        <v>885</v>
+      </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
@@ -10524,6 +11154,15 @@
       <c r="C5" t="s">
         <v>3</v>
       </c>
+      <c r="F5" t="s">
+        <v>886</v>
+      </c>
+      <c r="G5" t="s">
+        <v>887</v>
+      </c>
+      <c r="H5" t="s">
+        <v>888</v>
+      </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
@@ -10535,6 +11174,18 @@
       <c r="C6" t="s">
         <v>3</v>
       </c>
+      <c r="F6" t="s">
+        <v>889</v>
+      </c>
+      <c r="G6" t="s">
+        <v>890</v>
+      </c>
+      <c r="H6" t="s">
+        <v>885</v>
+      </c>
+      <c r="I6" t="s">
+        <v>891</v>
+      </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
@@ -10546,6 +11197,15 @@
       <c r="C7" t="s">
         <v>3</v>
       </c>
+      <c r="F7" t="s">
+        <v>892</v>
+      </c>
+      <c r="G7" t="s">
+        <v>893</v>
+      </c>
+      <c r="H7" t="s">
+        <v>894</v>
+      </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
@@ -10557,6 +11217,18 @@
       <c r="C8" t="s">
         <v>3</v>
       </c>
+      <c r="F8" t="s">
+        <v>895</v>
+      </c>
+      <c r="G8" t="s">
+        <v>896</v>
+      </c>
+      <c r="H8" t="s">
+        <v>885</v>
+      </c>
+      <c r="I8" t="s">
+        <v>897</v>
+      </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
@@ -10568,6 +11240,15 @@
       <c r="C9" t="s">
         <v>3</v>
       </c>
+      <c r="F9" t="s">
+        <v>898</v>
+      </c>
+      <c r="G9" t="s">
+        <v>899</v>
+      </c>
+      <c r="H9" t="s">
+        <v>888</v>
+      </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
@@ -10579,6 +11260,15 @@
       <c r="C10" t="s">
         <v>3</v>
       </c>
+      <c r="F10" t="s">
+        <v>900</v>
+      </c>
+      <c r="G10" t="s">
+        <v>901</v>
+      </c>
+      <c r="H10" t="s">
+        <v>888</v>
+      </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
@@ -10590,6 +11280,18 @@
       <c r="C11" t="s">
         <v>3</v>
       </c>
+      <c r="F11" t="s">
+        <v>902</v>
+      </c>
+      <c r="G11" t="s">
+        <v>903</v>
+      </c>
+      <c r="H11" t="s">
+        <v>904</v>
+      </c>
+      <c r="I11" t="s">
+        <v>905</v>
+      </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
@@ -10601,6 +11303,18 @@
       <c r="C12" t="s">
         <v>3</v>
       </c>
+      <c r="F12" t="s">
+        <v>907</v>
+      </c>
+      <c r="G12" t="s">
+        <v>908</v>
+      </c>
+      <c r="H12" t="s">
+        <v>894</v>
+      </c>
+      <c r="I12" t="s">
+        <v>911</v>
+      </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
@@ -10612,6 +11326,18 @@
       <c r="C13" t="s">
         <v>3</v>
       </c>
+      <c r="F13" t="s">
+        <v>909</v>
+      </c>
+      <c r="G13" t="s">
+        <v>908</v>
+      </c>
+      <c r="H13" t="s">
+        <v>894</v>
+      </c>
+      <c r="I13" t="s">
+        <v>910</v>
+      </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.4">
       <c r="B14" t="s">
@@ -10623,6 +11349,15 @@
       <c r="D14" t="s">
         <v>510</v>
       </c>
+      <c r="F14" t="s">
+        <v>912</v>
+      </c>
+      <c r="G14" t="s">
+        <v>913</v>
+      </c>
+      <c r="H14" t="s">
+        <v>888</v>
+      </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
@@ -10637,6 +11372,18 @@
       <c r="D15" t="s">
         <v>513</v>
       </c>
+      <c r="F15" t="s">
+        <v>914</v>
+      </c>
+      <c r="G15" t="s">
+        <v>915</v>
+      </c>
+      <c r="H15" t="s">
+        <v>888</v>
+      </c>
+      <c r="I15" t="s">
+        <v>916</v>
+      </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.4">
       <c r="B16" t="s">
@@ -10648,8 +11395,17 @@
       <c r="D16" t="s">
         <v>517</v>
       </c>
+      <c r="F16" t="s">
+        <v>917</v>
+      </c>
+      <c r="G16" t="s">
+        <v>918</v>
+      </c>
+      <c r="H16" t="s">
+        <v>904</v>
+      </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>515</v>
       </c>
@@ -10659,8 +11415,17 @@
       <c r="C17" t="s">
         <v>3</v>
       </c>
+      <c r="F17" t="s">
+        <v>919</v>
+      </c>
+      <c r="G17" t="s">
+        <v>920</v>
+      </c>
+      <c r="H17" t="s">
+        <v>888</v>
+      </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B18" t="s">
         <v>518</v>
       </c>
@@ -10670,8 +11435,20 @@
       <c r="D18" t="s">
         <v>519</v>
       </c>
+      <c r="F18" t="s">
+        <v>921</v>
+      </c>
+      <c r="G18" t="s">
+        <v>922</v>
+      </c>
+      <c r="H18" t="s">
+        <v>894</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>923</v>
+      </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B19" t="s">
         <v>520</v>
       </c>
@@ -10681,8 +11458,20 @@
       <c r="D19" t="s">
         <v>521</v>
       </c>
+      <c r="F19" t="s">
+        <v>924</v>
+      </c>
+      <c r="G19" t="s">
+        <v>925</v>
+      </c>
+      <c r="H19" t="s">
+        <v>888</v>
+      </c>
+      <c r="I19" t="s">
+        <v>926</v>
+      </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>522</v>
       </c>
@@ -10692,8 +11481,17 @@
       <c r="C20" t="s">
         <v>3</v>
       </c>
+      <c r="G20" t="s">
+        <v>927</v>
+      </c>
+      <c r="H20" t="s">
+        <v>888</v>
+      </c>
+      <c r="I20" t="s">
+        <v>928</v>
+      </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>524</v>
       </c>
@@ -10703,8 +11501,17 @@
       <c r="C21" t="s">
         <v>3</v>
       </c>
+      <c r="F21" t="s">
+        <v>929</v>
+      </c>
+      <c r="G21" t="s">
+        <v>930</v>
+      </c>
+      <c r="H21" t="s">
+        <v>888</v>
+      </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>526</v>
       </c>
@@ -10714,8 +11521,17 @@
       <c r="C22" t="s">
         <v>3</v>
       </c>
+      <c r="F22" t="s">
+        <v>931</v>
+      </c>
+      <c r="G22" t="s">
+        <v>932</v>
+      </c>
+      <c r="H22" t="s">
+        <v>888</v>
+      </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B23" t="s">
         <v>528</v>
       </c>
@@ -10725,8 +11541,17 @@
       <c r="D23" t="s">
         <v>529</v>
       </c>
+      <c r="F23" t="s">
+        <v>933</v>
+      </c>
+      <c r="G23" t="s">
+        <v>934</v>
+      </c>
+      <c r="H23" t="s">
+        <v>888</v>
+      </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>530</v>
       </c>
@@ -10736,8 +11561,20 @@
       <c r="C24" t="s">
         <v>42</v>
       </c>
+      <c r="F24" t="s">
+        <v>935</v>
+      </c>
+      <c r="G24" t="s">
+        <v>936</v>
+      </c>
+      <c r="H24" t="s">
+        <v>904</v>
+      </c>
+      <c r="I24" s="10" t="s">
+        <v>937</v>
+      </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>532</v>
       </c>
@@ -10747,8 +11584,17 @@
       <c r="C25" t="s">
         <v>3</v>
       </c>
+      <c r="F25" t="s">
+        <v>938</v>
+      </c>
+      <c r="G25" t="s">
+        <v>939</v>
+      </c>
+      <c r="H25" t="s">
+        <v>885</v>
+      </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>534</v>
       </c>
@@ -10758,8 +11604,17 @@
       <c r="C26" t="s">
         <v>3</v>
       </c>
+      <c r="F26" t="s">
+        <v>940</v>
+      </c>
+      <c r="G26" t="s">
+        <v>941</v>
+      </c>
+      <c r="I26" s="10" t="s">
+        <v>942</v>
+      </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>536</v>
       </c>
@@ -10769,8 +11624,17 @@
       <c r="C27" t="s">
         <v>3</v>
       </c>
+      <c r="F27" t="s">
+        <v>943</v>
+      </c>
+      <c r="G27" t="s">
+        <v>944</v>
+      </c>
+      <c r="H27" t="s">
+        <v>888</v>
+      </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>538</v>
       </c>
@@ -10780,8 +11644,20 @@
       <c r="C28" t="s">
         <v>3</v>
       </c>
+      <c r="F28" t="s">
+        <v>945</v>
+      </c>
+      <c r="G28" t="s">
+        <v>946</v>
+      </c>
+      <c r="H28" t="s">
+        <v>888</v>
+      </c>
+      <c r="I28" t="s">
+        <v>947</v>
+      </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>540</v>
       </c>
@@ -10791,8 +11667,20 @@
       <c r="C29" t="s">
         <v>3</v>
       </c>
+      <c r="F29" t="s">
+        <v>948</v>
+      </c>
+      <c r="G29" t="s">
+        <v>949</v>
+      </c>
+      <c r="H29" t="s">
+        <v>894</v>
+      </c>
+      <c r="I29" t="s">
+        <v>950</v>
+      </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>542</v>
       </c>
@@ -10802,8 +11690,17 @@
       <c r="C30" t="s">
         <v>3</v>
       </c>
+      <c r="G30" t="s">
+        <v>951</v>
+      </c>
+      <c r="H30" t="s">
+        <v>888</v>
+      </c>
+      <c r="I30" s="9" t="s">
+        <v>952</v>
+      </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>544</v>
       </c>
@@ -10813,13 +11710,48 @@
       <c r="C31" t="s">
         <v>3</v>
       </c>
+      <c r="F31" t="s">
+        <v>954</v>
+      </c>
+      <c r="G31" t="s">
+        <v>953</v>
+      </c>
+      <c r="H31" t="s">
+        <v>904</v>
+      </c>
+      <c r="I31" s="10" t="s">
+        <v>955</v>
+      </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B32" t="s">
         <v>546</v>
       </c>
       <c r="C32" t="s">
         <v>3</v>
+      </c>
+      <c r="G32" t="s">
+        <v>956</v>
+      </c>
+      <c r="H32" t="s">
+        <v>957</v>
+      </c>
+      <c r="I32" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="33" spans="6:9" x14ac:dyDescent="0.4">
+      <c r="F33" t="s">
+        <v>959</v>
+      </c>
+      <c r="G33" t="s">
+        <v>960</v>
+      </c>
+      <c r="H33" t="s">
+        <v>888</v>
+      </c>
+      <c r="I33" t="s">
+        <v>961</v>
       </c>
     </row>
   </sheetData>

--- a/8月単語.xlsx
+++ b/8月単語.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kreis1g-tpc-029\Desktop\穆作業\Git管理\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DA0D00E-7582-4575-A044-56932617A8A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3CE46B7-838A-4C74-81F4-60D77E3CFF98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="20210802~20210808" sheetId="1" r:id="rId1"/>
     <sheet name="20210809～20210815" sheetId="2" r:id="rId2"/>
     <sheet name="20210816～20210822" sheetId="3" r:id="rId3"/>
+    <sheet name="20210823～20210829" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1400" uniqueCount="962">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1869" uniqueCount="1293">
   <si>
     <t>2021/8/2の単語</t>
     <rPh sb="9" eb="11">
@@ -6683,6 +6684,2587 @@
     <rPh sb="0" eb="2">
       <t>カンセイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こまやか</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>adj2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>細やか</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>细</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>致，周到</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>喫煙</t>
+    <rPh sb="0" eb="2">
+      <t>キツエン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>きつえん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>通る</t>
+    <rPh sb="0" eb="1">
+      <t>トオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>とおる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>V1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大金</t>
+    <rPh sb="0" eb="2">
+      <t>タイキン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>たいきん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>多くの金銭</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>隅々</t>
+    <rPh sb="0" eb="2">
+      <t>スミズミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>すみずみ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>方々の隅</t>
+  </si>
+  <si>
+    <t>前者</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ぜんしゃ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スライド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>V3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>滑</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>动</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>週休二日制</t>
+    <rPh sb="0" eb="5">
+      <t>シュウキュウフツカセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しゅうきゅうふつかせい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>双休日</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>燃やす</t>
+    <rPh sb="0" eb="1">
+      <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>もやす</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>燃起，激起</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>万能</t>
+    <rPh sb="0" eb="2">
+      <t>バンノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ばんのう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>N,adj2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>減退</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>げんたい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>N,V3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>衰退，减退</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スムーズ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>物事が支障なく滑らかに運ぶさま</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>枚数</t>
+    <rPh sb="0" eb="2">
+      <t>マイスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>まいすう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>気まま</t>
+    <rPh sb="0" eb="1">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>きまま</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なんの束縛も受けずに、思い通りに行動する様子</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>銭湯</t>
+    <rPh sb="0" eb="2">
+      <t>セントウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>せんとう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ふろや</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>脳</t>
+    <rPh sb="0" eb="1">
+      <t>ノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>のう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>優先</t>
+    <rPh sb="0" eb="2">
+      <t>ユウセン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゆうせん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>釣り上げる</t>
+    <rPh sb="0" eb="1">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>つりあげる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>V2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>吊起来、抬高，提高，哄抬（物价）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>込める</t>
+    <rPh sb="0" eb="1">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こめる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>集中精力</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>引く</t>
+    <rPh sb="0" eb="1">
+      <t>ヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ひく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>引水，拉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>电线（指安装），扣除，减除，抽签，引用</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>支給</t>
+    <rPh sb="0" eb="2">
+      <t>シキュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しきゅう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>方向</t>
+    <rPh sb="0" eb="2">
+      <t>ホウコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ほうこう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>うっとり</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>副、V3</t>
+    <rPh sb="0" eb="1">
+      <t>フク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出神。陶醉。恍惚とするさま</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>陸地</t>
+    <rPh sb="0" eb="2">
+      <t>リクチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>りくち</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>軽視</t>
+    <rPh sb="0" eb="2">
+      <t>ケイシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>けいし</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>美人</t>
+    <rPh sb="0" eb="2">
+      <t>ビジン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>びじん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>勝手</t>
+    <rPh sb="0" eb="2">
+      <t>カッテ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かって</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>便利さ、任意。随便。任性。只</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>顾</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>个人方便。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>平行</t>
+    <rPh sb="0" eb="2">
+      <t>ヘイコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>へいこう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>虫歯</t>
+    <rPh sb="0" eb="2">
+      <t>ムシバ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>むしば</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>目安</t>
+    <rPh sb="0" eb="2">
+      <t>メヤス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>めやす</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>目当て。標準。目標</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>株</t>
+    <rPh sb="0" eb="1">
+      <t>カブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かぶ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>株券</t>
+  </si>
+  <si>
+    <t>縄</t>
+    <rPh sb="0" eb="1">
+      <t>ナワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なわ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>膨れる</t>
+    <rPh sb="0" eb="1">
+      <t>フク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ふくれる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>V2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>内から外へと張り出す。盛り上がる。不満そうな顔つきをする</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パトカー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>主観的</t>
+    <rPh sb="0" eb="3">
+      <t>シュカンテキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しゅかんてき</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>adj2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>巻き込む</t>
+    <rPh sb="0" eb="1">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>まきこむ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>V1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>まいて中へ入れる。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>道端</t>
+    <rPh sb="0" eb="2">
+      <t>ミチバタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>みちばた</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>道のほとり。路傍。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>妊娠</t>
+    <rPh sb="0" eb="2">
+      <t>ニンシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>にんしん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>興奮</t>
+    <rPh sb="0" eb="2">
+      <t>コウフン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こうふん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>N,V3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>派遣</t>
+    <rPh sb="0" eb="2">
+      <t>ハケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>はけん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イラスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>插</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>图</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>旅券</t>
+    <rPh sb="0" eb="2">
+      <t>リョケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>りょけん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスポート</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しきりに</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>副</t>
+    <rPh sb="0" eb="1">
+      <t>フク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>同じことが何度も引き続き起こるさま。ひっきりなし。</t>
+  </si>
+  <si>
+    <t>費やす</t>
+    <rPh sb="0" eb="1">
+      <t>ツイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ついやす</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>使ってへらす。浪費</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>恐縮</t>
+    <rPh sb="0" eb="2">
+      <t>キョウシュク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>きょうしゅく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>N,V3adj2,V3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>惶恐。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>对</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>不起。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>过</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>意不去。不好意思。羞愧。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>惭</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>愧</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>履歴</t>
+    <rPh sb="0" eb="2">
+      <t>リレキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>りれき</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>現在までに経てきた学業・職業・賞罰など。経歴。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あらかじめ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>予め</t>
+    <rPh sb="0" eb="1">
+      <t>アラカジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>预</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>先；先。（前もって。かねて）</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>黙り込む</t>
+    <rPh sb="0" eb="1">
+      <t>ダマ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>だまりこむ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>じっと黙っている。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>書き取る</t>
+    <rPh sb="0" eb="1">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かきとる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>記録</t>
+    <rPh sb="0" eb="2">
+      <t>キロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>嘘</t>
+    <rPh sb="0" eb="1">
+      <t>ウソ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>うそ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>好適</t>
+    <rPh sb="0" eb="2">
+      <t>コウテキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こうてき</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>N,adj2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>うまく適していること。（适宜，正好）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>公務</t>
+    <rPh sb="0" eb="2">
+      <t>コウム</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こうむ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>取材</t>
+    <rPh sb="0" eb="2">
+      <t>シュザイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しゅざい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>作品や報道の材料をある物事・人から取ること。（取材，采</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>访</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>確実</t>
+    <rPh sb="0" eb="2">
+      <t>カクジツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かくじつ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>確かで間違いがないこと（确实。可靠。）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>取り掛かる</t>
+    <rPh sb="0" eb="1">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>とりかかる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仕事をしはじめる。着手する。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>相続</t>
+    <rPh sb="0" eb="2">
+      <t>ソウゾク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>そうぞく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>うけつぐこと。特に跡目や遺産を受け継ぐこと。</t>
+    <rPh sb="15" eb="16">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>逃がす</t>
+    <rPh sb="0" eb="1">
+      <t>ニ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>にがす</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>错过、放跑</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>はめる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>镶</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>嵌；戴上；引</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>诱</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>息苦しい</t>
+    <rPh sb="0" eb="2">
+      <t>イキグル</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いきぐるしい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>呼吸が十分にできず、苦しい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>散らし</t>
+    <rPh sb="0" eb="1">
+      <t>チ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ちらし</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>広告・宣伝のために配る印刷物。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ビスケット</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ケーキ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>見解</t>
+    <rPh sb="0" eb="2">
+      <t>ケンカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>けんかい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>物事に対する考え方や評価。意見。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仕上がり</t>
+    <rPh sb="0" eb="2">
+      <t>シア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しあがり</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>できあがること。（做完。完成。）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>恩</t>
+    <rPh sb="0" eb="1">
+      <t>オン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>めぐむ。なさけをかける。受けた方でありがたく思うべき行為。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>重い</t>
+    <rPh sb="0" eb="1">
+      <t>オモ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おもい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>adj1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>重要，重</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>视，沉重</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>単に</t>
+    <rPh sb="0" eb="1">
+      <t>タン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>たんに</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ただ。単純に。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>静脈</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウミャク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>じょうみゃく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>問う</t>
+    <rPh sb="0" eb="1">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>とう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>先々日</t>
+    <rPh sb="0" eb="2">
+      <t>センセン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>せんせんじつ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一昨日</t>
+    <rPh sb="0" eb="3">
+      <t>オトトイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>天国</t>
+    <rPh sb="0" eb="2">
+      <t>テンゴク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>てんごく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>着く</t>
+    <rPh sb="0" eb="1">
+      <t>ツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>つく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>座席に坐る</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>演説</t>
+    <rPh sb="0" eb="2">
+      <t>エンゼツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>えんぜつ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>招き</t>
+    <rPh sb="0" eb="1">
+      <t>マネ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>まねき</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>招くこと。招待。招聘</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>招待</t>
+    <rPh sb="0" eb="2">
+      <t>ショウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しょうたい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>招聘</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヘイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しょうへい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>帯</t>
+    <rPh sb="0" eb="1">
+      <t>オビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おび</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>衣服の上から，腰にまいて結ぶ細長い布。また，そういう形をしたもの。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャリア</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>経歴</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>腰掛ける</t>
+    <rPh sb="0" eb="2">
+      <t>コシカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こしかける</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>台などの上に腰をのせ，足をたれてすわる。腰をかける。（坐下）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>伝説</t>
+    <rPh sb="0" eb="2">
+      <t>デンセツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>でんせつ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ラベル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>标签</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>文科</t>
+    <rPh sb="0" eb="2">
+      <t>ブンカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ぶんか</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>文化</t>
+    <rPh sb="0" eb="2">
+      <t>ブンカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>分化</t>
+    <rPh sb="0" eb="2">
+      <t>ブンカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>見つけ出す</t>
+    <rPh sb="0" eb="1">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>みつけだす</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>看出，找到，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>发现</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。（探し出す。）</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>文献</t>
+    <rPh sb="0" eb="2">
+      <t>ブンケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ぶんけん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>理科</t>
+    <rPh sb="0" eb="2">
+      <t>リカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>りか</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>座り込む</t>
+    <rPh sb="0" eb="1">
+      <t>スワ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>すわりこむ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>静坐。静坐示威。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>罰する</t>
+    <rPh sb="0" eb="1">
+      <t>バッ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ばっする</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>V3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>刑罰を与える。処罰する。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>増量</t>
+    <rPh sb="0" eb="2">
+      <t>ゾウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ぞうりょう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>捕まえる</t>
+    <rPh sb="0" eb="1">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>つかまえる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>（在路上）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>拦车</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>；揪住</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>对</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>方（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>强</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>行自</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>说</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>自</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>话</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>はるかに</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>程度の差がはなはだしいさま</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>独立</t>
+    <rPh sb="0" eb="2">
+      <t>ドクリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>どくりつ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>揺れる</t>
+    <rPh sb="0" eb="1">
+      <t>ユ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゆれる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>动摇</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，不</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>稳</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>定</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>反する</t>
+    <rPh sb="0" eb="1">
+      <t>ハン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>はんする</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>反対になる。違反する。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上げる</t>
+    <rPh sb="0" eb="1">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あげる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>举</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>起、抬起、提高</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2021/8/23の単語</t>
+    <rPh sb="10" eb="12">
+      <t>タンゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2021/8/25の単語</t>
+    <rPh sb="10" eb="12">
+      <t>タンゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2021/8/27の単語</t>
+    <rPh sb="10" eb="12">
+      <t>タンゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2021/8/28の単語</t>
+    <rPh sb="10" eb="12">
+      <t>タンゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2021/8/29の単語</t>
+    <rPh sb="10" eb="12">
+      <t>タンゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>もむ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>按摩；用手搓，反复揉搓</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>振動</t>
+    <rPh sb="0" eb="2">
+      <t>シンドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しんどう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>湿す</t>
+    <rPh sb="0" eb="1">
+      <t>シメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>揉む</t>
+    <rPh sb="0" eb="1">
+      <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>弄湿。浸湿</t>
+  </si>
+  <si>
+    <t>果たして</t>
+    <rPh sb="0" eb="1">
+      <t>ハ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>はたして</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>果真；真的；到底；与表示疑</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>问</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、假定的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>词</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>一起使用。（まことに）。果然。（思っていたように）。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>明確</t>
+    <rPh sb="0" eb="2">
+      <t>メイカク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>めいかく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>区域</t>
+    <rPh sb="0" eb="2">
+      <t>クイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>くいき</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>浪人</t>
+    <rPh sb="0" eb="2">
+      <t>ロウニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ろうにん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>失</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>业</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>者，落榜生</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>絞る</t>
+    <rPh sb="0" eb="1">
+      <t>シボ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しぼる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>拧，挤；责备；集中</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>知恵を</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>絞る</t>
+    </r>
+  </si>
+  <si>
+    <t>ちえをしぼる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>开动脑筋。绞尽脑汁。</t>
+  </si>
+  <si>
+    <t>鍵</t>
+    <rPh sb="0" eb="1">
+      <t>カギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かぎ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>錠（じょう）を開閉（かいへい）するための器具</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>避ける</t>
+    <rPh sb="0" eb="1">
+      <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>よける</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>防ぐ</t>
+    <rPh sb="0" eb="1">
+      <t>フセ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ふせぐ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>物資</t>
+    <rPh sb="0" eb="2">
+      <t>ブッシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ぶっし</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>そもそも</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>从一开始；最初</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>洒落る</t>
+    <rPh sb="0" eb="2">
+      <t>シャレ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しゃれる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>漂亮打扮；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>说</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>俏皮</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>话</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>别</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>致；狂妄。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>摘む</t>
+    <rPh sb="0" eb="1">
+      <t>ツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>つむ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>積む</t>
+    <rPh sb="0" eb="1">
+      <t>ツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>詰む</t>
+    <rPh sb="0" eb="1">
+      <t>ツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>抓む</t>
+    <rPh sb="0" eb="1">
+      <t>ツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>稠密，密</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>实；难以前进，遇到阻碍。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>堆</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>积</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>积垒</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>；装</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>载</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>积</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>累，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>积攒</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>；（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>某一特定目的而）提供（金</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>钱</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>捏、撮、拈；摘要、扼要；被迷住</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>摘。掐。采</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>農薬</t>
+    <rPh sb="0" eb="2">
+      <t>ノウヤク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>のうやく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ウエスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>腰</t>
+    <rPh sb="0" eb="1">
+      <t>コシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>負け組</t>
+    <rPh sb="0" eb="1">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>グミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>まけぐみ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敗れる</t>
+    <rPh sb="0" eb="1">
+      <t>ヤブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>やぶれる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鉄橋</t>
+    <rPh sb="0" eb="2">
+      <t>テッキョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>てっきょう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>兵隊</t>
+    <rPh sb="0" eb="2">
+      <t>ヘイタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>へいたい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>军队</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>明日</t>
+    <rPh sb="0" eb="2">
+      <t>アス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あす</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>みょうにち；あした</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>输</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>家(勝負事で負けたり、事業などで失敗した者。人生の競争に敗れた者。)</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>勝負</t>
+  </si>
+  <si>
+    <t>しょうぶ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>比</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>赛；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>胜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>负</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>防范。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>预</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>防。（のがれる。防ぐ。）避开。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>闪</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>开。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>躲</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>开。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>逃れる</t>
+    <rPh sb="0" eb="1">
+      <t>ノガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>のがれる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>逃跑。逃走。逃脱。逃避。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>摆</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>脱。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>遁れる</t>
+    <rPh sb="0" eb="1">
+      <t>ノガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>逃跑;逃遁;逃避;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>规</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>避</t>
+    </r>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -6690,7 +9272,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6749,6 +9331,29 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF666666"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF999999"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -6791,7 +9396,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -6806,11 +9411,18 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -7110,36 +9722,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="F1" s="8" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="F1" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="K1" s="8" t="s">
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="K1" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="P1" s="8" t="s">
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="P1" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
-      <c r="U1" s="8" t="s">
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="U1" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="V1" s="8"/>
-      <c r="W1" s="8"/>
-      <c r="X1" s="8"/>
+      <c r="V1" s="13"/>
+      <c r="W1" s="13"/>
+      <c r="X1" s="13"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
@@ -9036,8 +11648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0CB3ADF-F836-4302-82E2-38AE117D5D80}">
   <dimension ref="A1:AC32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M32" sqref="M32"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="Z24" sqref="Z24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -9046,42 +11658,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.4">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="13" t="s">
         <v>314</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="F1" s="8" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="F1" s="13" t="s">
         <v>315</v>
       </c>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="K1" s="8" t="s">
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="K1" s="13" t="s">
         <v>316</v>
       </c>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="P1" s="8" t="s">
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="P1" s="13" t="s">
         <v>317</v>
       </c>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
-      <c r="U1" s="8" t="s">
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="U1" s="13" t="s">
         <v>318</v>
       </c>
-      <c r="V1" s="8"/>
-      <c r="W1" s="8"/>
-      <c r="X1" s="8"/>
-      <c r="Z1" s="8" t="s">
+      <c r="V1" s="13"/>
+      <c r="W1" s="13"/>
+      <c r="X1" s="13"/>
+      <c r="Z1" s="13" t="s">
         <v>319</v>
       </c>
-      <c r="AA1" s="8"/>
-      <c r="AB1" s="8"/>
-      <c r="AC1" s="8"/>
+      <c r="AA1" s="13"/>
+      <c r="AB1" s="13"/>
+      <c r="AC1" s="13"/>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
@@ -11002,45 +13614,45 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30799995-C6B0-4CFC-AF44-2946D4718A77}">
-  <dimension ref="A1:X33"/>
+  <dimension ref="A1:X36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+    <sheetView topLeftCell="G11" workbookViewId="0">
+      <selection activeCell="Q35" sqref="Q35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="13" t="s">
         <v>482</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="F1" s="8" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="F1" s="13" t="s">
         <v>483</v>
       </c>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="K1" s="8" t="s">
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="K1" s="13" t="s">
         <v>484</v>
       </c>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="P1" s="8" t="s">
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="P1" s="13" t="s">
         <v>485</v>
       </c>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
-      <c r="U1" s="8" t="s">
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="U1" s="13" t="s">
         <v>486</v>
       </c>
-      <c r="V1" s="8"/>
-      <c r="W1" s="8"/>
-      <c r="X1" s="8"/>
+      <c r="V1" s="13"/>
+      <c r="W1" s="13"/>
+      <c r="X1" s="13"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
@@ -11123,6 +13735,39 @@
       <c r="I3" t="s">
         <v>906</v>
       </c>
+      <c r="K3" t="s">
+        <v>964</v>
+      </c>
+      <c r="L3" t="s">
+        <v>962</v>
+      </c>
+      <c r="M3" t="s">
+        <v>963</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>965</v>
+      </c>
+      <c r="P3" t="s">
+        <v>1047</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>1048</v>
+      </c>
+      <c r="R3" t="s">
+        <v>1038</v>
+      </c>
+      <c r="U3" t="s">
+        <v>1131</v>
+      </c>
+      <c r="V3" t="s">
+        <v>1132</v>
+      </c>
+      <c r="W3" t="s">
+        <v>1038</v>
+      </c>
+      <c r="X3" t="s">
+        <v>1133</v>
+      </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
@@ -11143,6 +13788,39 @@
       <c r="H4" t="s">
         <v>885</v>
       </c>
+      <c r="K4" t="s">
+        <v>966</v>
+      </c>
+      <c r="L4" t="s">
+        <v>967</v>
+      </c>
+      <c r="M4" t="s">
+        <v>968</v>
+      </c>
+      <c r="P4" t="s">
+        <v>1049</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>1050</v>
+      </c>
+      <c r="R4" t="s">
+        <v>1051</v>
+      </c>
+      <c r="S4" t="s">
+        <v>1052</v>
+      </c>
+      <c r="U4" t="s">
+        <v>1134</v>
+      </c>
+      <c r="V4" t="s">
+        <v>1135</v>
+      </c>
+      <c r="W4" t="s">
+        <v>1038</v>
+      </c>
+      <c r="X4" t="s">
+        <v>1136</v>
+      </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
@@ -11163,6 +13841,33 @@
       <c r="H5" t="s">
         <v>888</v>
       </c>
+      <c r="K5" t="s">
+        <v>969</v>
+      </c>
+      <c r="L5" t="s">
+        <v>970</v>
+      </c>
+      <c r="M5" t="s">
+        <v>971</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>1053</v>
+      </c>
+      <c r="R5" t="s">
+        <v>1038</v>
+      </c>
+      <c r="U5" t="s">
+        <v>1137</v>
+      </c>
+      <c r="V5" t="s">
+        <v>1138</v>
+      </c>
+      <c r="W5" t="s">
+        <v>1038</v>
+      </c>
+      <c r="X5" t="s">
+        <v>1139</v>
+      </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
@@ -11186,6 +13891,39 @@
       <c r="I6" t="s">
         <v>891</v>
       </c>
+      <c r="K6" t="s">
+        <v>972</v>
+      </c>
+      <c r="L6" t="s">
+        <v>973</v>
+      </c>
+      <c r="M6" t="s">
+        <v>968</v>
+      </c>
+      <c r="N6" s="11" t="s">
+        <v>974</v>
+      </c>
+      <c r="P6" t="s">
+        <v>1054</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>1055</v>
+      </c>
+      <c r="R6" t="s">
+        <v>1056</v>
+      </c>
+      <c r="U6" t="s">
+        <v>1140</v>
+      </c>
+      <c r="V6" t="s">
+        <v>1141</v>
+      </c>
+      <c r="W6" t="s">
+        <v>1142</v>
+      </c>
+      <c r="X6" t="s">
+        <v>1143</v>
+      </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
@@ -11206,6 +13944,42 @@
       <c r="H7" t="s">
         <v>894</v>
       </c>
+      <c r="K7" t="s">
+        <v>975</v>
+      </c>
+      <c r="L7" t="s">
+        <v>976</v>
+      </c>
+      <c r="M7" t="s">
+        <v>968</v>
+      </c>
+      <c r="N7" s="12" t="s">
+        <v>977</v>
+      </c>
+      <c r="P7" t="s">
+        <v>1057</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>1058</v>
+      </c>
+      <c r="R7" t="s">
+        <v>1059</v>
+      </c>
+      <c r="S7" t="s">
+        <v>1060</v>
+      </c>
+      <c r="U7" t="s">
+        <v>1144</v>
+      </c>
+      <c r="V7" t="s">
+        <v>1145</v>
+      </c>
+      <c r="W7" t="s">
+        <v>1077</v>
+      </c>
+      <c r="X7" t="s">
+        <v>1146</v>
+      </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
@@ -11229,6 +14003,36 @@
       <c r="I8" t="s">
         <v>897</v>
       </c>
+      <c r="K8" t="s">
+        <v>978</v>
+      </c>
+      <c r="L8" t="s">
+        <v>979</v>
+      </c>
+      <c r="M8" t="s">
+        <v>968</v>
+      </c>
+      <c r="P8" t="s">
+        <v>1061</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>1062</v>
+      </c>
+      <c r="R8" t="s">
+        <v>1038</v>
+      </c>
+      <c r="S8" t="s">
+        <v>1063</v>
+      </c>
+      <c r="U8" t="s">
+        <v>1147</v>
+      </c>
+      <c r="V8" t="s">
+        <v>1148</v>
+      </c>
+      <c r="W8" t="s">
+        <v>1038</v>
+      </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
@@ -11249,6 +14053,33 @@
       <c r="H9" t="s">
         <v>888</v>
       </c>
+      <c r="L9" t="s">
+        <v>980</v>
+      </c>
+      <c r="M9" t="s">
+        <v>981</v>
+      </c>
+      <c r="N9" t="s">
+        <v>982</v>
+      </c>
+      <c r="P9" t="s">
+        <v>1064</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>1065</v>
+      </c>
+      <c r="R9" t="s">
+        <v>1038</v>
+      </c>
+      <c r="U9" t="s">
+        <v>1149</v>
+      </c>
+      <c r="V9" t="s">
+        <v>1150</v>
+      </c>
+      <c r="W9" t="s">
+        <v>1059</v>
+      </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
@@ -11269,6 +14100,39 @@
       <c r="H10" t="s">
         <v>888</v>
       </c>
+      <c r="K10" t="s">
+        <v>983</v>
+      </c>
+      <c r="L10" t="s">
+        <v>984</v>
+      </c>
+      <c r="M10" t="s">
+        <v>968</v>
+      </c>
+      <c r="N10" t="s">
+        <v>985</v>
+      </c>
+      <c r="P10" t="s">
+        <v>1066</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>1067</v>
+      </c>
+      <c r="R10" t="s">
+        <v>1068</v>
+      </c>
+      <c r="U10" t="s">
+        <v>1151</v>
+      </c>
+      <c r="V10" t="s">
+        <v>1152</v>
+      </c>
+      <c r="W10" t="s">
+        <v>1038</v>
+      </c>
+      <c r="X10" t="s">
+        <v>1153</v>
+      </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
@@ -11292,6 +14156,36 @@
       <c r="I11" t="s">
         <v>905</v>
       </c>
+      <c r="K11" t="s">
+        <v>986</v>
+      </c>
+      <c r="L11" t="s">
+        <v>987</v>
+      </c>
+      <c r="M11" t="s">
+        <v>971</v>
+      </c>
+      <c r="N11" t="s">
+        <v>988</v>
+      </c>
+      <c r="P11" t="s">
+        <v>1069</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>1070</v>
+      </c>
+      <c r="R11" t="s">
+        <v>1068</v>
+      </c>
+      <c r="U11" t="s">
+        <v>1154</v>
+      </c>
+      <c r="V11" t="s">
+        <v>1155</v>
+      </c>
+      <c r="W11" t="s">
+        <v>1038</v>
+      </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
@@ -11315,6 +14209,36 @@
       <c r="I12" t="s">
         <v>911</v>
       </c>
+      <c r="K12" t="s">
+        <v>989</v>
+      </c>
+      <c r="L12" t="s">
+        <v>990</v>
+      </c>
+      <c r="M12" t="s">
+        <v>991</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>1071</v>
+      </c>
+      <c r="R12" t="s">
+        <v>1038</v>
+      </c>
+      <c r="S12" t="s">
+        <v>1072</v>
+      </c>
+      <c r="U12" t="s">
+        <v>1156</v>
+      </c>
+      <c r="V12" t="s">
+        <v>1157</v>
+      </c>
+      <c r="W12" t="s">
+        <v>1059</v>
+      </c>
+      <c r="X12" t="s">
+        <v>1158</v>
+      </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
@@ -11338,6 +14262,39 @@
       <c r="I13" t="s">
         <v>910</v>
       </c>
+      <c r="K13" t="s">
+        <v>992</v>
+      </c>
+      <c r="L13" t="s">
+        <v>993</v>
+      </c>
+      <c r="M13" t="s">
+        <v>994</v>
+      </c>
+      <c r="N13" t="s">
+        <v>995</v>
+      </c>
+      <c r="P13" t="s">
+        <v>1073</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>1074</v>
+      </c>
+      <c r="R13" t="s">
+        <v>1038</v>
+      </c>
+      <c r="S13" t="s">
+        <v>1075</v>
+      </c>
+      <c r="U13" t="s">
+        <v>1159</v>
+      </c>
+      <c r="V13" t="s">
+        <v>1160</v>
+      </c>
+      <c r="W13" t="s">
+        <v>1068</v>
+      </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.4">
       <c r="B14" t="s">
@@ -11358,6 +14315,36 @@
       <c r="H14" t="s">
         <v>888</v>
       </c>
+      <c r="L14" t="s">
+        <v>996</v>
+      </c>
+      <c r="M14" t="s">
+        <v>963</v>
+      </c>
+      <c r="N14" t="s">
+        <v>997</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>1076</v>
+      </c>
+      <c r="R14" t="s">
+        <v>1077</v>
+      </c>
+      <c r="S14" s="11" t="s">
+        <v>1078</v>
+      </c>
+      <c r="U14" t="s">
+        <v>1161</v>
+      </c>
+      <c r="V14" t="s">
+        <v>1162</v>
+      </c>
+      <c r="W14" t="s">
+        <v>1038</v>
+      </c>
+      <c r="X14" t="s">
+        <v>1163</v>
+      </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
@@ -11384,6 +14371,36 @@
       <c r="I15" t="s">
         <v>916</v>
       </c>
+      <c r="K15" t="s">
+        <v>998</v>
+      </c>
+      <c r="L15" t="s">
+        <v>999</v>
+      </c>
+      <c r="M15" t="s">
+        <v>968</v>
+      </c>
+      <c r="P15" t="s">
+        <v>1079</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>1080</v>
+      </c>
+      <c r="R15" t="s">
+        <v>1059</v>
+      </c>
+      <c r="S15" t="s">
+        <v>1081</v>
+      </c>
+      <c r="U15" t="s">
+        <v>1164</v>
+      </c>
+      <c r="V15" t="s">
+        <v>1165</v>
+      </c>
+      <c r="W15" t="s">
+        <v>1038</v>
+      </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.4">
       <c r="B16" t="s">
@@ -11404,8 +14421,41 @@
       <c r="H16" t="s">
         <v>904</v>
       </c>
+      <c r="K16" t="s">
+        <v>1000</v>
+      </c>
+      <c r="L16" t="s">
+        <v>1001</v>
+      </c>
+      <c r="M16" t="s">
+        <v>963</v>
+      </c>
+      <c r="N16" t="s">
+        <v>1002</v>
+      </c>
+      <c r="P16" t="s">
+        <v>1082</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>1083</v>
+      </c>
+      <c r="R16" t="s">
+        <v>1084</v>
+      </c>
+      <c r="S16" t="s">
+        <v>1085</v>
+      </c>
+      <c r="U16" t="s">
+        <v>1166</v>
+      </c>
+      <c r="V16" t="s">
+        <v>1167</v>
+      </c>
+      <c r="W16" t="s">
+        <v>1038</v>
+      </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>515</v>
       </c>
@@ -11424,8 +14474,44 @@
       <c r="H17" t="s">
         <v>888</v>
       </c>
+      <c r="K17" t="s">
+        <v>1003</v>
+      </c>
+      <c r="L17" t="s">
+        <v>1004</v>
+      </c>
+      <c r="M17" t="s">
+        <v>968</v>
+      </c>
+      <c r="N17" t="s">
+        <v>1005</v>
+      </c>
+      <c r="P17" t="s">
+        <v>1086</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>1087</v>
+      </c>
+      <c r="R17" t="s">
+        <v>1038</v>
+      </c>
+      <c r="S17" t="s">
+        <v>1088</v>
+      </c>
+      <c r="U17" t="s">
+        <v>1168</v>
+      </c>
+      <c r="V17" t="s">
+        <v>1169</v>
+      </c>
+      <c r="W17" t="s">
+        <v>1038</v>
+      </c>
+      <c r="X17" t="s">
+        <v>1170</v>
+      </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.4">
       <c r="B18" t="s">
         <v>518</v>
       </c>
@@ -11447,8 +14533,38 @@
       <c r="I18" s="7" t="s">
         <v>923</v>
       </c>
+      <c r="K18" t="s">
+        <v>1006</v>
+      </c>
+      <c r="L18" t="s">
+        <v>1007</v>
+      </c>
+      <c r="M18" t="s">
+        <v>968</v>
+      </c>
+      <c r="P18" t="s">
+        <v>1090</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>1089</v>
+      </c>
+      <c r="R18" t="s">
+        <v>1077</v>
+      </c>
+      <c r="S18" s="7" t="s">
+        <v>1091</v>
+      </c>
+      <c r="V18" t="s">
+        <v>1171</v>
+      </c>
+      <c r="W18" t="s">
+        <v>1038</v>
+      </c>
+      <c r="X18" t="s">
+        <v>1172</v>
+      </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.4">
       <c r="B19" t="s">
         <v>520</v>
       </c>
@@ -11470,8 +14586,41 @@
       <c r="I19" t="s">
         <v>926</v>
       </c>
+      <c r="K19" t="s">
+        <v>1008</v>
+      </c>
+      <c r="L19" t="s">
+        <v>1009</v>
+      </c>
+      <c r="M19" t="s">
+        <v>994</v>
+      </c>
+      <c r="P19" t="s">
+        <v>1092</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>1093</v>
+      </c>
+      <c r="R19" t="s">
+        <v>1059</v>
+      </c>
+      <c r="S19" s="7" t="s">
+        <v>1094</v>
+      </c>
+      <c r="U19" t="s">
+        <v>1173</v>
+      </c>
+      <c r="V19" t="s">
+        <v>1174</v>
+      </c>
+      <c r="W19" t="s">
+        <v>1051</v>
+      </c>
+      <c r="X19" t="s">
+        <v>1175</v>
+      </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>522</v>
       </c>
@@ -11490,8 +14639,41 @@
       <c r="I20" t="s">
         <v>928</v>
       </c>
+      <c r="K20" t="s">
+        <v>1010</v>
+      </c>
+      <c r="L20" t="s">
+        <v>1011</v>
+      </c>
+      <c r="M20" t="s">
+        <v>1012</v>
+      </c>
+      <c r="N20" t="s">
+        <v>1013</v>
+      </c>
+      <c r="P20" t="s">
+        <v>1095</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>1096</v>
+      </c>
+      <c r="R20" t="s">
+        <v>1059</v>
+      </c>
+      <c r="S20" s="7" t="s">
+        <v>1097</v>
+      </c>
+      <c r="U20" t="s">
+        <v>1176</v>
+      </c>
+      <c r="V20" t="s">
+        <v>1177</v>
+      </c>
+      <c r="W20" t="s">
+        <v>1038</v>
+      </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>524</v>
       </c>
@@ -11510,8 +14692,38 @@
       <c r="H21" t="s">
         <v>888</v>
       </c>
+      <c r="K21" t="s">
+        <v>1014</v>
+      </c>
+      <c r="L21" t="s">
+        <v>1015</v>
+      </c>
+      <c r="M21" t="s">
+        <v>1012</v>
+      </c>
+      <c r="N21" t="s">
+        <v>1016</v>
+      </c>
+      <c r="P21" t="s">
+        <v>1098</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>1099</v>
+      </c>
+      <c r="R21" t="s">
+        <v>1038</v>
+      </c>
+      <c r="V21" t="s">
+        <v>1178</v>
+      </c>
+      <c r="W21" t="s">
+        <v>1038</v>
+      </c>
+      <c r="X21" s="11" t="s">
+        <v>1179</v>
+      </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>526</v>
       </c>
@@ -11530,8 +14742,41 @@
       <c r="H22" t="s">
         <v>888</v>
       </c>
+      <c r="K22" t="s">
+        <v>1017</v>
+      </c>
+      <c r="L22" t="s">
+        <v>1018</v>
+      </c>
+      <c r="M22" t="s">
+        <v>971</v>
+      </c>
+      <c r="N22" t="s">
+        <v>1019</v>
+      </c>
+      <c r="P22" t="s">
+        <v>1100</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>1101</v>
+      </c>
+      <c r="R22" t="s">
+        <v>1102</v>
+      </c>
+      <c r="S22" t="s">
+        <v>1103</v>
+      </c>
+      <c r="U22" t="s">
+        <v>1189</v>
+      </c>
+      <c r="V22" t="s">
+        <v>1190</v>
+      </c>
+      <c r="W22" t="s">
+        <v>1038</v>
+      </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.4">
       <c r="B23" t="s">
         <v>528</v>
       </c>
@@ -11550,8 +14795,35 @@
       <c r="H23" t="s">
         <v>888</v>
       </c>
+      <c r="K23" t="s">
+        <v>1020</v>
+      </c>
+      <c r="L23" t="s">
+        <v>1021</v>
+      </c>
+      <c r="M23" t="s">
+        <v>994</v>
+      </c>
+      <c r="P23" t="s">
+        <v>1104</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>1105</v>
+      </c>
+      <c r="R23" t="s">
+        <v>1038</v>
+      </c>
+      <c r="U23" t="s">
+        <v>1180</v>
+      </c>
+      <c r="V23" t="s">
+        <v>1181</v>
+      </c>
+      <c r="W23" t="s">
+        <v>1038</v>
+      </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>530</v>
       </c>
@@ -11570,11 +14842,41 @@
       <c r="H24" t="s">
         <v>904</v>
       </c>
-      <c r="I24" s="10" t="s">
+      <c r="I24" s="9" t="s">
         <v>937</v>
       </c>
+      <c r="K24" t="s">
+        <v>1022</v>
+      </c>
+      <c r="L24" t="s">
+        <v>1023</v>
+      </c>
+      <c r="M24" t="s">
+        <v>968</v>
+      </c>
+      <c r="P24" t="s">
+        <v>1106</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>1107</v>
+      </c>
+      <c r="R24" t="s">
+        <v>1038</v>
+      </c>
+      <c r="S24" t="s">
+        <v>1108</v>
+      </c>
+      <c r="U24" t="s">
+        <v>1182</v>
+      </c>
+      <c r="V24" t="s">
+        <v>1181</v>
+      </c>
+      <c r="W24" t="s">
+        <v>1038</v>
+      </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>532</v>
       </c>
@@ -11593,8 +14895,38 @@
       <c r="H25" t="s">
         <v>885</v>
       </c>
+      <c r="L25" t="s">
+        <v>1024</v>
+      </c>
+      <c r="M25" t="s">
+        <v>1025</v>
+      </c>
+      <c r="N25" t="s">
+        <v>1026</v>
+      </c>
+      <c r="P25" t="s">
+        <v>1109</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>1110</v>
+      </c>
+      <c r="R25" t="s">
+        <v>1056</v>
+      </c>
+      <c r="S25" s="12" t="s">
+        <v>1111</v>
+      </c>
+      <c r="U25" t="s">
+        <v>1183</v>
+      </c>
+      <c r="V25" t="s">
+        <v>1181</v>
+      </c>
+      <c r="W25" t="s">
+        <v>1038</v>
+      </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>534</v>
       </c>
@@ -11610,11 +14942,44 @@
       <c r="G26" t="s">
         <v>941</v>
       </c>
-      <c r="I26" s="10" t="s">
+      <c r="I26" s="9" t="s">
         <v>942</v>
       </c>
+      <c r="K26" t="s">
+        <v>1027</v>
+      </c>
+      <c r="L26" t="s">
+        <v>1028</v>
+      </c>
+      <c r="M26" t="s">
+        <v>968</v>
+      </c>
+      <c r="P26" t="s">
+        <v>1112</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>1113</v>
+      </c>
+      <c r="R26" t="s">
+        <v>1059</v>
+      </c>
+      <c r="S26" t="s">
+        <v>1114</v>
+      </c>
+      <c r="U26" t="s">
+        <v>1184</v>
+      </c>
+      <c r="V26" t="s">
+        <v>1185</v>
+      </c>
+      <c r="W26" t="s">
+        <v>1059</v>
+      </c>
+      <c r="X26" t="s">
+        <v>1186</v>
+      </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>536</v>
       </c>
@@ -11633,8 +14998,38 @@
       <c r="H27" t="s">
         <v>888</v>
       </c>
+      <c r="K27" t="s">
+        <v>1029</v>
+      </c>
+      <c r="L27" t="s">
+        <v>1030</v>
+      </c>
+      <c r="M27" t="s">
+        <v>994</v>
+      </c>
+      <c r="P27" t="s">
+        <v>1115</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>1116</v>
+      </c>
+      <c r="R27" t="s">
+        <v>1068</v>
+      </c>
+      <c r="S27" t="s">
+        <v>1117</v>
+      </c>
+      <c r="U27" t="s">
+        <v>1187</v>
+      </c>
+      <c r="V27" t="s">
+        <v>1188</v>
+      </c>
+      <c r="W27" t="s">
+        <v>1038</v>
+      </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>538</v>
       </c>
@@ -11656,8 +15051,41 @@
       <c r="I28" t="s">
         <v>947</v>
       </c>
+      <c r="K28" t="s">
+        <v>1031</v>
+      </c>
+      <c r="L28" t="s">
+        <v>1032</v>
+      </c>
+      <c r="M28" t="s">
+        <v>968</v>
+      </c>
+      <c r="P28" t="s">
+        <v>1118</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>1119</v>
+      </c>
+      <c r="R28" t="s">
+        <v>1059</v>
+      </c>
+      <c r="S28" s="7" t="s">
+        <v>1120</v>
+      </c>
+      <c r="U28" t="s">
+        <v>1191</v>
+      </c>
+      <c r="V28" t="s">
+        <v>1192</v>
+      </c>
+      <c r="W28" t="s">
+        <v>1059</v>
+      </c>
+      <c r="X28" t="s">
+        <v>1193</v>
+      </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>540</v>
       </c>
@@ -11679,8 +15107,41 @@
       <c r="I29" t="s">
         <v>950</v>
       </c>
+      <c r="K29" t="s">
+        <v>1033</v>
+      </c>
+      <c r="L29" t="s">
+        <v>1034</v>
+      </c>
+      <c r="M29" t="s">
+        <v>111</v>
+      </c>
+      <c r="N29" t="s">
+        <v>1035</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>1121</v>
+      </c>
+      <c r="R29" t="s">
+        <v>1051</v>
+      </c>
+      <c r="S29" s="7" t="s">
+        <v>1122</v>
+      </c>
+      <c r="U29" t="s">
+        <v>1194</v>
+      </c>
+      <c r="V29" t="s">
+        <v>1195</v>
+      </c>
+      <c r="W29" t="s">
+        <v>1196</v>
+      </c>
+      <c r="X29" t="s">
+        <v>1197</v>
+      </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>542</v>
       </c>
@@ -11696,11 +15157,41 @@
       <c r="H30" t="s">
         <v>888</v>
       </c>
-      <c r="I30" s="9" t="s">
+      <c r="I30" s="8" t="s">
         <v>952</v>
       </c>
+      <c r="K30" t="s">
+        <v>1036</v>
+      </c>
+      <c r="L30" t="s">
+        <v>1037</v>
+      </c>
+      <c r="M30" t="s">
+        <v>1038</v>
+      </c>
+      <c r="P30" t="s">
+        <v>1123</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>1124</v>
+      </c>
+      <c r="R30" t="s">
+        <v>1056</v>
+      </c>
+      <c r="S30" s="7" t="s">
+        <v>1125</v>
+      </c>
+      <c r="U30" t="s">
+        <v>1198</v>
+      </c>
+      <c r="V30" t="s">
+        <v>1199</v>
+      </c>
+      <c r="W30" t="s">
+        <v>1038</v>
+      </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>544</v>
       </c>
@@ -11719,11 +15210,44 @@
       <c r="H31" t="s">
         <v>904</v>
       </c>
-      <c r="I31" s="10" t="s">
+      <c r="I31" s="9" t="s">
         <v>955</v>
       </c>
+      <c r="K31" t="s">
+        <v>1039</v>
+      </c>
+      <c r="L31" t="s">
+        <v>1040</v>
+      </c>
+      <c r="M31" t="s">
+        <v>1038</v>
+      </c>
+      <c r="P31" t="s">
+        <v>1126</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>1127</v>
+      </c>
+      <c r="R31" t="s">
+        <v>1038</v>
+      </c>
+      <c r="S31" s="7" t="s">
+        <v>1128</v>
+      </c>
+      <c r="U31" t="s">
+        <v>1200</v>
+      </c>
+      <c r="V31" t="s">
+        <v>1201</v>
+      </c>
+      <c r="W31" t="s">
+        <v>1051</v>
+      </c>
+      <c r="X31" t="s">
+        <v>1202</v>
+      </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.4">
       <c r="B32" t="s">
         <v>546</v>
       </c>
@@ -11739,8 +15263,38 @@
       <c r="I32" t="s">
         <v>958</v>
       </c>
+      <c r="K32" t="s">
+        <v>1041</v>
+      </c>
+      <c r="L32" t="s">
+        <v>1042</v>
+      </c>
+      <c r="M32" t="s">
+        <v>1038</v>
+      </c>
+      <c r="N32" t="s">
+        <v>1043</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>1129</v>
+      </c>
+      <c r="R32" t="s">
+        <v>1038</v>
+      </c>
+      <c r="S32" s="7" t="s">
+        <v>1130</v>
+      </c>
+      <c r="V32" t="s">
+        <v>1203</v>
+      </c>
+      <c r="W32" t="s">
+        <v>1077</v>
+      </c>
+      <c r="X32" t="s">
+        <v>1204</v>
+      </c>
     </row>
-    <row r="33" spans="6:9" x14ac:dyDescent="0.4">
+    <row r="33" spans="6:24" x14ac:dyDescent="0.4">
       <c r="F33" t="s">
         <v>959</v>
       </c>
@@ -11752,6 +15306,582 @@
       </c>
       <c r="I33" t="s">
         <v>961</v>
+      </c>
+      <c r="K33" t="s">
+        <v>1044</v>
+      </c>
+      <c r="L33" t="s">
+        <v>1045</v>
+      </c>
+      <c r="M33" t="s">
+        <v>1038</v>
+      </c>
+      <c r="N33" s="12" t="s">
+        <v>1046</v>
+      </c>
+      <c r="U33" t="s">
+        <v>1205</v>
+      </c>
+      <c r="V33" t="s">
+        <v>1206</v>
+      </c>
+      <c r="W33" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="34" spans="6:24" x14ac:dyDescent="0.4">
+      <c r="U34" t="s">
+        <v>1207</v>
+      </c>
+      <c r="V34" t="s">
+        <v>1208</v>
+      </c>
+      <c r="W34" t="s">
+        <v>1051</v>
+      </c>
+      <c r="X34" s="7" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="35" spans="6:24" x14ac:dyDescent="0.4">
+      <c r="U35" t="s">
+        <v>1210</v>
+      </c>
+      <c r="V35" t="s">
+        <v>1211</v>
+      </c>
+      <c r="W35" t="s">
+        <v>1196</v>
+      </c>
+      <c r="X35" s="7" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="36" spans="6:24" x14ac:dyDescent="0.4">
+      <c r="U36" t="s">
+        <v>1213</v>
+      </c>
+      <c r="V36" t="s">
+        <v>1214</v>
+      </c>
+      <c r="W36" t="s">
+        <v>1051</v>
+      </c>
+      <c r="X36" s="7" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="U1:X1"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABCFB6B5-470C-49CD-A986-0D927513A327}">
+  <dimension ref="A1:X33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A1" s="13" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="F1" s="13" t="s">
+        <v>1217</v>
+      </c>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="K1" s="13" t="s">
+        <v>1218</v>
+      </c>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="P1" s="13" t="s">
+        <v>1219</v>
+      </c>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="U1" s="13" t="s">
+        <v>1220</v>
+      </c>
+      <c r="V1" s="13"/>
+      <c r="W1" s="13"/>
+      <c r="X1" s="13"/>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A2" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="N2" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="P2" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="R2" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="S2" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="U2" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="V2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="W2" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="X2" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1221</v>
+      </c>
+      <c r="C3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1224</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>1225</v>
+      </c>
+      <c r="B6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1229</v>
+      </c>
+      <c r="C7" t="s">
+        <v>185</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1232</v>
+      </c>
+      <c r="C8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>1233</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1234</v>
+      </c>
+      <c r="C9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>1235</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1236</v>
+      </c>
+      <c r="C10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1239</v>
+      </c>
+      <c r="C11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A12" s="14" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1242</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1245</v>
+      </c>
+      <c r="C13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>1247</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1248</v>
+      </c>
+      <c r="C14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>1249</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1250</v>
+      </c>
+      <c r="C15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1252</v>
+      </c>
+      <c r="C16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B17" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C17" t="s">
+        <v>185</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1256</v>
+      </c>
+      <c r="C18" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1259</v>
+      </c>
+      <c r="C19" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1259</v>
+      </c>
+      <c r="C20" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1259</v>
+      </c>
+      <c r="C21" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1259</v>
+      </c>
+      <c r="C22" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1268</v>
+      </c>
+      <c r="C23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B24" t="s">
+        <v>1269</v>
+      </c>
+      <c r="C24" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>1271</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1272</v>
+      </c>
+      <c r="C25" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
+        <v>1273</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1274</v>
+      </c>
+      <c r="C27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
+        <v>1275</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C28" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
+        <v>1277</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C29" t="s">
+        <v>3</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
+        <v>1280</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C30" t="s">
+        <v>3</v>
+      </c>
+      <c r="D30" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
+        <v>1284</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1285</v>
+      </c>
+      <c r="C31" t="s">
+        <v>3</v>
+      </c>
+      <c r="D31" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1289</v>
+      </c>
+      <c r="C32" t="s">
+        <v>35</v>
+      </c>
+      <c r="D32" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
+        <v>1291</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1289</v>
+      </c>
+      <c r="C33" t="s">
+        <v>35</v>
+      </c>
+      <c r="D33" t="s">
+        <v>1292</v>
       </c>
     </row>
   </sheetData>

--- a/8月単語.xlsx
+++ b/8月単語.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kreis1g-tpc-029\Desktop\穆作業\Git管理\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3CE46B7-838A-4C74-81F4-60D77E3CFF98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22977C2B-F370-4E94-8862-7B8CE0E18098}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1869" uniqueCount="1293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1981" uniqueCount="1379">
   <si>
     <t>2021/8/2の単語</t>
     <rPh sb="9" eb="11">
@@ -9058,10 +9058,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>みょうにち；あした</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <r>
       <t>输</t>
     </r>
@@ -9265,6 +9261,602 @@
       </rPr>
       <t>避</t>
     </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>みょうにち；あした；未来</t>
+    <rPh sb="10" eb="12">
+      <t>ミライ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>並</t>
+    <rPh sb="0" eb="1">
+      <t>ナミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なみ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>普通</t>
+    <rPh sb="0" eb="2">
+      <t>フツウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>差支え</t>
+    <rPh sb="0" eb="2">
+      <t>サシツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さしつかえ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しようとする事の妨げ（さまたげ）になるような事情。都合の悪い事柄（ことがら）。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>妨げ</t>
+    <rPh sb="0" eb="1">
+      <t>サマタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さまたげ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>事柄</t>
+    <rPh sb="0" eb="2">
+      <t>コトガラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ことがら</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>事</t>
+    <rPh sb="0" eb="1">
+      <t>コト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>主催</t>
+    <rPh sb="0" eb="2">
+      <t>シュサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しゅさい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中心になって催しを行うこと。また，その主体。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>催し</t>
+    <rPh sb="0" eb="1">
+      <t>モヨオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>もよおし</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>筹划，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>计</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>划；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>举办</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，主</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>办</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>貯蔵</t>
+    <rPh sb="0" eb="2">
+      <t>チョゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ちょぞう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>物をたくわえておくこと</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>たくわえ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>貯え</t>
+    <rPh sb="0" eb="1">
+      <t>タクワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作法</t>
+    <rPh sb="0" eb="2">
+      <t>サホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さほう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>礼にかなった立ち居振る舞いのしかた；物事を行う方法</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>物事</t>
+    <rPh sb="0" eb="2">
+      <t>モノゴト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ものごと</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>振る舞い</t>
+    <rPh sb="0" eb="1">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>マ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ふるまい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>请客，款待；举</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>止，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>动</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>作；</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>すすぐ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>V1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>口をゆすぐ。うがいする；水で洗い清める</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>震災</t>
+    <rPh sb="0" eb="2">
+      <t>シンサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しんさい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>遭う</t>
+    <rPh sb="0" eb="1">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>震災を遭う</t>
+    <rPh sb="0" eb="2">
+      <t>シンサイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>長短</t>
+    <rPh sb="0" eb="2">
+      <t>チョウタン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ちょうたん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>人にはそれぞれ長短がある。</t>
+    <rPh sb="0" eb="1">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>チョウタン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>共催</t>
+    <rPh sb="0" eb="2">
+      <t>キョウサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>きょうさい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>共同で主催すること。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>薄暗い</t>
+    <rPh sb="0" eb="2">
+      <t>ウスグラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>うすぐらい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>adj1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>光が薄くて，まっくらではないが，暗い。ほのぐらい。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>光</t>
+    <rPh sb="0" eb="1">
+      <t>ヒカリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ひかり</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>真っ暗</t>
+    <rPh sb="0" eb="1">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>クラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>まっくら</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ａｄｊ２</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仄暗い</t>
+    <rPh sb="0" eb="2">
+      <t>ホノグラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ほうのぐらい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>微暗',有点黑暗</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>漆黑</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大統領</t>
+    <rPh sb="0" eb="3">
+      <t>ダイトウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>だいとうりょう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一斉に</t>
+    <rPh sb="0" eb="2">
+      <t>イッセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いっせいに</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>副</t>
+    <rPh sb="0" eb="1">
+      <t>フク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>同時に</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名札</t>
+    <rPh sb="0" eb="2">
+      <t>ナフダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なふだ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>姓名牌，名牌，名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>签</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>書斎</t>
+    <rPh sb="0" eb="2">
+      <t>ショサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しょさい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>個人の部屋で読書・研究・執筆をするための部屋</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>測量</t>
+    <rPh sb="0" eb="2">
+      <t>ソクリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>そくりょう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パチンコ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>弹</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>子房，老虎机。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>腰掛</t>
+    <rPh sb="0" eb="2">
+      <t>コシカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こしかけ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>椅子</t>
+    <rPh sb="0" eb="2">
+      <t>イス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>複合</t>
+    <rPh sb="0" eb="2">
+      <t>フクゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ふくごう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>めっきり</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>目立って変化するさま。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>騒々しい</t>
+    <rPh sb="0" eb="2">
+      <t>ソウゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>そうぞうしい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>騒がしい。うるさい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>騒がしい</t>
+    <rPh sb="0" eb="1">
+      <t>サワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さわがしい</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -9418,11 +10010,11 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -9722,36 +10314,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="F1" s="13" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="F1" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="K1" s="13" t="s">
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="K1" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="P1" s="13" t="s">
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="P1" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="U1" s="13" t="s">
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="U1" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="V1" s="13"/>
-      <c r="W1" s="13"/>
-      <c r="X1" s="13"/>
+      <c r="V1" s="15"/>
+      <c r="W1" s="15"/>
+      <c r="X1" s="15"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
@@ -11658,42 +12250,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.4">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="15" t="s">
         <v>314</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="F1" s="13" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="F1" s="15" t="s">
         <v>315</v>
       </c>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="K1" s="13" t="s">
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="K1" s="15" t="s">
         <v>316</v>
       </c>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="P1" s="13" t="s">
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="P1" s="15" t="s">
         <v>317</v>
       </c>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="U1" s="13" t="s">
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="U1" s="15" t="s">
         <v>318</v>
       </c>
-      <c r="V1" s="13"/>
-      <c r="W1" s="13"/>
-      <c r="X1" s="13"/>
-      <c r="Z1" s="13" t="s">
+      <c r="V1" s="15"/>
+      <c r="W1" s="15"/>
+      <c r="X1" s="15"/>
+      <c r="Z1" s="15" t="s">
         <v>319</v>
       </c>
-      <c r="AA1" s="13"/>
-      <c r="AB1" s="13"/>
-      <c r="AC1" s="13"/>
+      <c r="AA1" s="15"/>
+      <c r="AB1" s="15"/>
+      <c r="AC1" s="15"/>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
@@ -13623,36 +14215,36 @@
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="15" t="s">
         <v>482</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="F1" s="13" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="F1" s="15" t="s">
         <v>483</v>
       </c>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="K1" s="13" t="s">
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="K1" s="15" t="s">
         <v>484</v>
       </c>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="P1" s="13" t="s">
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="P1" s="15" t="s">
         <v>485</v>
       </c>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="U1" s="13" t="s">
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="U1" s="15" t="s">
         <v>486</v>
       </c>
-      <c r="V1" s="13"/>
-      <c r="W1" s="13"/>
-      <c r="X1" s="13"/>
+      <c r="V1" s="15"/>
+      <c r="W1" s="15"/>
+      <c r="X1" s="15"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
@@ -15389,43 +15981,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABCFB6B5-470C-49CD-A986-0D927513A327}">
   <dimension ref="A1:X33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" topLeftCell="E15" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="4" max="4" width="94.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="81.625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="15" t="s">
         <v>1216</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="F1" s="13" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="F1" s="15" t="s">
         <v>1217</v>
       </c>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="K1" s="13" t="s">
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="K1" s="15" t="s">
         <v>1218</v>
       </c>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="P1" s="13" t="s">
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="P1" s="15" t="s">
         <v>1219</v>
       </c>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="U1" s="13" t="s">
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="U1" s="15" t="s">
         <v>1220</v>
       </c>
-      <c r="V1" s="13"/>
-      <c r="W1" s="13"/>
-      <c r="X1" s="13"/>
+      <c r="V1" s="15"/>
+      <c r="W1" s="15"/>
+      <c r="X1" s="15"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A2" s="10" t="s">
@@ -15502,6 +16098,18 @@
       <c r="D3" t="s">
         <v>1222</v>
       </c>
+      <c r="F3" t="s">
+        <v>1293</v>
+      </c>
+      <c r="G3" t="s">
+        <v>1294</v>
+      </c>
+      <c r="H3" t="s">
+        <v>1295</v>
+      </c>
+      <c r="I3" t="s">
+        <v>1296</v>
+      </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
@@ -15513,6 +16121,18 @@
       <c r="C4" t="s">
         <v>3</v>
       </c>
+      <c r="F4" t="s">
+        <v>1297</v>
+      </c>
+      <c r="G4" t="s">
+        <v>1298</v>
+      </c>
+      <c r="H4" t="s">
+        <v>1295</v>
+      </c>
+      <c r="I4" t="s">
+        <v>1299</v>
+      </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
@@ -15524,6 +16144,15 @@
       <c r="C5" t="s">
         <v>42</v>
       </c>
+      <c r="F5" t="s">
+        <v>1300</v>
+      </c>
+      <c r="G5" t="s">
+        <v>1301</v>
+      </c>
+      <c r="H5" t="s">
+        <v>1295</v>
+      </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
@@ -15538,6 +16167,18 @@
       <c r="D6" s="12" t="s">
         <v>1227</v>
       </c>
+      <c r="F6" t="s">
+        <v>1302</v>
+      </c>
+      <c r="G6" t="s">
+        <v>1303</v>
+      </c>
+      <c r="H6" t="s">
+        <v>1295</v>
+      </c>
+      <c r="I6" t="s">
+        <v>1304</v>
+      </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
@@ -15552,6 +16193,18 @@
       <c r="D7" t="s">
         <v>1230</v>
       </c>
+      <c r="F7" t="s">
+        <v>1305</v>
+      </c>
+      <c r="G7" t="s">
+        <v>1306</v>
+      </c>
+      <c r="H7" t="s">
+        <v>1295</v>
+      </c>
+      <c r="I7" t="s">
+        <v>1307</v>
+      </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
@@ -15563,6 +16216,18 @@
       <c r="C8" t="s">
         <v>111</v>
       </c>
+      <c r="F8" t="s">
+        <v>1308</v>
+      </c>
+      <c r="G8" t="s">
+        <v>1309</v>
+      </c>
+      <c r="H8" t="s">
+        <v>1295</v>
+      </c>
+      <c r="I8" t="s">
+        <v>1310</v>
+      </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
@@ -15574,6 +16239,18 @@
       <c r="C9" t="s">
         <v>3</v>
       </c>
+      <c r="F9" t="s">
+        <v>1311</v>
+      </c>
+      <c r="G9" t="s">
+        <v>1312</v>
+      </c>
+      <c r="H9" t="s">
+        <v>1295</v>
+      </c>
+      <c r="I9" t="s">
+        <v>1313</v>
+      </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
@@ -15588,6 +16265,15 @@
       <c r="D10" t="s">
         <v>1237</v>
       </c>
+      <c r="F10" t="s">
+        <v>1315</v>
+      </c>
+      <c r="G10" t="s">
+        <v>1314</v>
+      </c>
+      <c r="H10" t="s">
+        <v>1295</v>
+      </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
@@ -15602,16 +16288,37 @@
       <c r="D11" s="7" t="s">
         <v>1240</v>
       </c>
+      <c r="F11" t="s">
+        <v>1316</v>
+      </c>
+      <c r="G11" t="s">
+        <v>1317</v>
+      </c>
+      <c r="H11" t="s">
+        <v>1295</v>
+      </c>
+      <c r="I11" t="s">
+        <v>1318</v>
+      </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="13" t="s">
         <v>1241</v>
       </c>
       <c r="B12" t="s">
         <v>1242</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="14" t="s">
         <v>1243</v>
+      </c>
+      <c r="F12" t="s">
+        <v>1319</v>
+      </c>
+      <c r="G12" t="s">
+        <v>1320</v>
+      </c>
+      <c r="H12" t="s">
+        <v>1295</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.4">
@@ -15627,6 +16334,18 @@
       <c r="D13" s="7" t="s">
         <v>1246</v>
       </c>
+      <c r="F13" t="s">
+        <v>1321</v>
+      </c>
+      <c r="G13" t="s">
+        <v>1322</v>
+      </c>
+      <c r="H13" t="s">
+        <v>1295</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>1323</v>
+      </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
@@ -15639,7 +16358,16 @@
         <v>35</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>1287</v>
+        <v>1286</v>
+      </c>
+      <c r="G14" t="s">
+        <v>1324</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>1325</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>1326</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.4">
@@ -15652,6 +16380,15 @@
       <c r="C15" t="s">
         <v>42</v>
       </c>
+      <c r="F15" t="s">
+        <v>1327</v>
+      </c>
+      <c r="G15" t="s">
+        <v>1328</v>
+      </c>
+      <c r="H15" t="s">
+        <v>1295</v>
+      </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
@@ -15663,8 +16400,20 @@
       <c r="C16" t="s">
         <v>3</v>
       </c>
+      <c r="F16" t="s">
+        <v>1329</v>
+      </c>
+      <c r="G16" t="s">
+        <v>1330</v>
+      </c>
+      <c r="H16" t="s">
+        <v>1325</v>
+      </c>
+      <c r="I16" t="s">
+        <v>1331</v>
+      </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B17" t="s">
         <v>1253</v>
       </c>
@@ -15674,8 +16423,20 @@
       <c r="D17" t="s">
         <v>1254</v>
       </c>
+      <c r="F17" t="s">
+        <v>1332</v>
+      </c>
+      <c r="G17" t="s">
+        <v>1333</v>
+      </c>
+      <c r="H17" t="s">
+        <v>1295</v>
+      </c>
+      <c r="I17" t="s">
+        <v>1334</v>
+      </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>1255</v>
       </c>
@@ -15688,8 +16449,20 @@
       <c r="D18" t="s">
         <v>1257</v>
       </c>
+      <c r="F18" t="s">
+        <v>1335</v>
+      </c>
+      <c r="G18" t="s">
+        <v>1336</v>
+      </c>
+      <c r="H18" t="s">
+        <v>1295</v>
+      </c>
+      <c r="I18" t="s">
+        <v>1337</v>
+      </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>1258</v>
       </c>
@@ -15702,8 +16475,20 @@
       <c r="D19" t="s">
         <v>1266</v>
       </c>
+      <c r="F19" t="s">
+        <v>1338</v>
+      </c>
+      <c r="G19" t="s">
+        <v>1339</v>
+      </c>
+      <c r="H19" t="s">
+        <v>1340</v>
+      </c>
+      <c r="I19" t="s">
+        <v>1341</v>
+      </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>1260</v>
       </c>
@@ -15716,8 +16501,17 @@
       <c r="D20" t="s">
         <v>1264</v>
       </c>
+      <c r="F20" t="s">
+        <v>1342</v>
+      </c>
+      <c r="G20" t="s">
+        <v>1343</v>
+      </c>
+      <c r="H20" t="s">
+        <v>1295</v>
+      </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>1261</v>
       </c>
@@ -15730,8 +16524,20 @@
       <c r="D21" t="s">
         <v>1263</v>
       </c>
+      <c r="F21" t="s">
+        <v>1344</v>
+      </c>
+      <c r="G21" t="s">
+        <v>1345</v>
+      </c>
+      <c r="H21" t="s">
+        <v>1346</v>
+      </c>
+      <c r="I21" t="s">
+        <v>1350</v>
+      </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>1262</v>
       </c>
@@ -15744,8 +16550,20 @@
       <c r="D22" t="s">
         <v>1265</v>
       </c>
+      <c r="F22" t="s">
+        <v>1347</v>
+      </c>
+      <c r="G22" t="s">
+        <v>1348</v>
+      </c>
+      <c r="H22" t="s">
+        <v>1346</v>
+      </c>
+      <c r="I22" t="s">
+        <v>1349</v>
+      </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>1267</v>
       </c>
@@ -15755,8 +16573,17 @@
       <c r="C23" t="s">
         <v>3</v>
       </c>
+      <c r="F23" t="s">
+        <v>1351</v>
+      </c>
+      <c r="G23" t="s">
+        <v>1352</v>
+      </c>
+      <c r="H23" t="s">
+        <v>1295</v>
+      </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B24" t="s">
         <v>1269</v>
       </c>
@@ -15766,8 +16593,20 @@
       <c r="D24" t="s">
         <v>1270</v>
       </c>
+      <c r="F24" t="s">
+        <v>1353</v>
+      </c>
+      <c r="G24" t="s">
+        <v>1354</v>
+      </c>
+      <c r="H24" t="s">
+        <v>1355</v>
+      </c>
+      <c r="I24" t="s">
+        <v>1356</v>
+      </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>1271</v>
       </c>
@@ -15778,10 +16617,22 @@
         <v>3</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>1283</v>
+        <v>1282</v>
+      </c>
+      <c r="F25" t="s">
+        <v>1357</v>
+      </c>
+      <c r="G25" t="s">
+        <v>1358</v>
+      </c>
+      <c r="H25" t="s">
+        <v>1295</v>
+      </c>
+      <c r="I25" t="s">
+        <v>1359</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -15791,8 +16642,20 @@
       <c r="C26" t="s">
         <v>3</v>
       </c>
+      <c r="F26" t="s">
+        <v>1360</v>
+      </c>
+      <c r="G26" t="s">
+        <v>1361</v>
+      </c>
+      <c r="H26" t="s">
+        <v>1295</v>
+      </c>
+      <c r="I26" t="s">
+        <v>1362</v>
+      </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>1273</v>
       </c>
@@ -15802,8 +16665,17 @@
       <c r="C27" t="s">
         <v>35</v>
       </c>
+      <c r="F27" t="s">
+        <v>1363</v>
+      </c>
+      <c r="G27" t="s">
+        <v>1364</v>
+      </c>
+      <c r="H27" t="s">
+        <v>1295</v>
+      </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>1275</v>
       </c>
@@ -15813,8 +16685,17 @@
       <c r="C28" t="s">
         <v>3</v>
       </c>
+      <c r="G28" t="s">
+        <v>1365</v>
+      </c>
+      <c r="H28" t="s">
+        <v>1295</v>
+      </c>
+      <c r="I28" s="7" t="s">
+        <v>1366</v>
+      </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>1277</v>
       </c>
@@ -15827,8 +16708,20 @@
       <c r="D29" s="7" t="s">
         <v>1279</v>
       </c>
+      <c r="F29" t="s">
+        <v>1367</v>
+      </c>
+      <c r="G29" t="s">
+        <v>1368</v>
+      </c>
+      <c r="H29" t="s">
+        <v>1295</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>1369</v>
+      </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>1280</v>
       </c>
@@ -15839,49 +16732,88 @@
         <v>3</v>
       </c>
       <c r="D30" t="s">
-        <v>1282</v>
+        <v>1292</v>
+      </c>
+      <c r="F30" t="s">
+        <v>1370</v>
+      </c>
+      <c r="G30" t="s">
+        <v>1371</v>
+      </c>
+      <c r="H30" t="s">
+        <v>1295</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B31" t="s">
         <v>1284</v>
-      </c>
-      <c r="B31" t="s">
-        <v>1285</v>
       </c>
       <c r="C31" t="s">
         <v>3</v>
       </c>
       <c r="D31" t="s">
-        <v>1286</v>
+        <v>1285</v>
+      </c>
+      <c r="G31" t="s">
+        <v>1372</v>
+      </c>
+      <c r="H31" t="s">
+        <v>1355</v>
+      </c>
+      <c r="I31" t="s">
+        <v>1373</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
+        <v>1287</v>
+      </c>
+      <c r="B32" t="s">
         <v>1288</v>
-      </c>
-      <c r="B32" t="s">
-        <v>1289</v>
       </c>
       <c r="C32" t="s">
         <v>35</v>
       </c>
       <c r="D32" t="s">
+        <v>1289</v>
+      </c>
+      <c r="F32" t="s">
+        <v>1374</v>
+      </c>
+      <c r="G32" t="s">
+        <v>1375</v>
+      </c>
+      <c r="H32" t="s">
+        <v>1340</v>
+      </c>
+      <c r="I32" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
         <v>1290</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A33" t="s">
-        <v>1291</v>
-      </c>
       <c r="B33" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="C33" t="s">
         <v>35</v>
       </c>
       <c r="D33" t="s">
-        <v>1292</v>
+        <v>1291</v>
+      </c>
+      <c r="F33" t="s">
+        <v>1377</v>
+      </c>
+      <c r="G33" t="s">
+        <v>1378</v>
+      </c>
+      <c r="H33" t="s">
+        <v>1340</v>
       </c>
     </row>
   </sheetData>
@@ -15894,5 +16826,6 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/8月単語.xlsx
+++ b/8月単語.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kreis1g-tpc-029\Desktop\穆作業\Git管理\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22977C2B-F370-4E94-8862-7B8CE0E18098}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F777AB84-6DEB-4931-B4B4-7BC616753E84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="20210802~20210808" sheetId="1" r:id="rId1"/>
     <sheet name="20210809～20210815" sheetId="2" r:id="rId2"/>
     <sheet name="20210816～20210822" sheetId="3" r:id="rId3"/>
-    <sheet name="20210823～20210829" sheetId="4" r:id="rId4"/>
+    <sheet name="20210823～20210830" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1981" uniqueCount="1379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2409" uniqueCount="1677">
   <si>
     <t>2021/8/2の単語</t>
     <rPh sb="9" eb="11">
@@ -9857,6 +9857,2517 @@
   </si>
   <si>
     <t>さわがしい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>そうぞう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>選る</t>
+    <rPh sb="0" eb="1">
+      <t>エ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>得る</t>
+    <rPh sb="0" eb="1">
+      <t>エ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>獲る</t>
+    <rPh sb="0" eb="1">
+      <t>エ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>える</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>創造</t>
+    <rPh sb="0" eb="2">
+      <t>ソウゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>想像</t>
+    <rPh sb="0" eb="2">
+      <t>ソウゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>V2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>V1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>手頃</t>
+    <rPh sb="0" eb="2">
+      <t>テゴロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>てごろ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>adj2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>正合适</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>水準</t>
+    <rPh sb="0" eb="2">
+      <t>スイジュン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>すいじゅん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>期待</t>
+    <rPh sb="0" eb="2">
+      <t>キタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>きたい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>気体</t>
+    <rPh sb="0" eb="2">
+      <t>キタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>機体</t>
+    <rPh sb="0" eb="2">
+      <t>キタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>机身，机体，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>飞</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>机</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カプセル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>胶囊、密封</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>舱</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ため息</t>
+    <rPh sb="2" eb="3">
+      <t>イキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ためいき</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>叹</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>气</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>成り立つ</t>
+    <rPh sb="0" eb="1">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なりたつ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>構成される</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>零下</t>
+    <rPh sb="0" eb="2">
+      <t>レイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>れいか</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出入り</t>
+    <rPh sb="0" eb="2">
+      <t>デイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>でいり</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>出入，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>进</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>出</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こたつ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>被炉，暖炉</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>同様</t>
+    <rPh sb="0" eb="2">
+      <t>ドウヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>どうよう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>世話</t>
+    <rPh sb="0" eb="2">
+      <t>セワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>せわ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>紹介</t>
+    <rPh sb="0" eb="2">
+      <t>ショウカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>代替</t>
+    <rPh sb="0" eb="2">
+      <t>ダイタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>だいたい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中間</t>
+    <rPh sb="0" eb="2">
+      <t>チュウカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ちゅうかん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小国</t>
+    <rPh sb="0" eb="2">
+      <t>ショウコク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しょうこく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>多発</t>
+    <rPh sb="0" eb="2">
+      <t>タハツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>たはつ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>訴え</t>
+    <rPh sb="0" eb="1">
+      <t>ウッタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>うったえ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>控告、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>诉说</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>模型</t>
+    <rPh sb="0" eb="2">
+      <t>モケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>もけい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>海水浴</t>
+    <rPh sb="0" eb="3">
+      <t>カイスイヨク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かいすいよく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>逆立ち</t>
+    <rPh sb="0" eb="2">
+      <t>サカダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さかだち</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>倒立、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>颠</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>倒</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2021/8/30の単語</t>
+    <rPh sb="10" eb="12">
+      <t>タンゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>受け取り</t>
+    <rPh sb="0" eb="1">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>うけとり</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>領収書</t>
+    <rPh sb="0" eb="3">
+      <t>リョウシュウショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>妙</t>
+    <rPh sb="0" eb="1">
+      <t>ミョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>みょう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>N/adj2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おかしい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山脈</t>
+    <rPh sb="0" eb="2">
+      <t>サンミャク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さんみゃく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>雑談</t>
+    <rPh sb="0" eb="2">
+      <t>ザツダン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ざつだん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>よもやま話</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しみじみ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>副</t>
+    <rPh sb="0" eb="1">
+      <t>フク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>痛切，深切</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>不平</t>
+    <rPh sb="0" eb="2">
+      <t>フヘイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ふへい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>N/adj2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>不</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>满</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，牢</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>骚</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>居住</t>
+    <rPh sb="0" eb="2">
+      <t>キョジュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>きょじゅう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>現地</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>げんち</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>现</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>住地方，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>现场</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>案の定</t>
+    <rPh sb="0" eb="1">
+      <t>アン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あんのじょう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>果然，果如所料</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブローチ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>胸针</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日暮れ</t>
+    <rPh sb="0" eb="2">
+      <t>ヒグ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ひぐれ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>夕方</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>下回る</t>
+    <rPh sb="0" eb="2">
+      <t>シタマワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>したまわる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>V1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>低于、不足</t>
+    <rPh sb="3" eb="5">
+      <t>フソク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>腹立たしい</t>
+    <rPh sb="0" eb="2">
+      <t>ハラダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>はらだたしい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>adj2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>可气，令人气愤</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>知事</t>
+    <rPh sb="0" eb="2">
+      <t>チジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ちじ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>保障</t>
+    <rPh sb="0" eb="2">
+      <t>ホショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ほしょう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>乗り越える</t>
+    <rPh sb="0" eb="1">
+      <t>ノ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>のりこえる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>V2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>越</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>过</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スイッチ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>转换、开关</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ぶら下がる</t>
+    <rPh sb="2" eb="3">
+      <t>サ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ぶらさがる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鉄棒</t>
+    <rPh sb="0" eb="2">
+      <t>テツボウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>てつぼう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>单</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>杠</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>吊垂，悬</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，耷拉</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>年毎</t>
+    <rPh sb="0" eb="2">
+      <t>トシゴト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>としごと</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>毎年</t>
+    <rPh sb="0" eb="2">
+      <t>マイトシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>安らか</t>
+    <rPh sb="0" eb="1">
+      <t>ヤス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>やすらか</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>安稳</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、无</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>忧</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>无</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>虑</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>体罰</t>
+    <rPh sb="0" eb="2">
+      <t>タイバツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>たいばつ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>休刊</t>
+    <rPh sb="0" eb="2">
+      <t>キュウカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>きゅうかん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>休館</t>
+    <rPh sb="0" eb="2">
+      <t>キュウカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>怪しい</t>
+    <rPh sb="0" eb="1">
+      <t>アヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あやしい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>adj1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>可疑；靠不住的；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>奇怪的</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>給食</t>
+    <rPh sb="0" eb="2">
+      <t>キュウショク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>きゅうしょく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>提供伙食</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>見比べる</t>
+    <rPh sb="0" eb="2">
+      <t>ミクラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>みくらべる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>相比</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>较</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>業績</t>
+    <rPh sb="0" eb="2">
+      <t>ギョウセキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ぎょうせき</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>空中</t>
+    <rPh sb="0" eb="2">
+      <t>クウチュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>くうちゅう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>工員</t>
+    <rPh sb="0" eb="2">
+      <t>コウイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こういん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>公印</t>
+    <rPh sb="0" eb="2">
+      <t>コウイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>同館</t>
+    <rPh sb="0" eb="2">
+      <t>ドウカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>どうかん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>同感</t>
+    <rPh sb="0" eb="2">
+      <t>ドウカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>銅管</t>
+    <rPh sb="0" eb="2">
+      <t>ドウカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>募集</t>
+    <rPh sb="0" eb="2">
+      <t>ボシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ぼしゅう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>生徒</t>
+    <rPh sb="0" eb="2">
+      <t>セイト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>せいと</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>硬い、厳しい</t>
+    <rPh sb="0" eb="1">
+      <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>着々</t>
+    <rPh sb="0" eb="2">
+      <t>チャクチャク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ちゃくちゃく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>稳</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>步而</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>顺</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>利地</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>重役</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウヤク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>じゅうやく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>担任要</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>职</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的人</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>要点</t>
+    <rPh sb="0" eb="2">
+      <t>ヨウテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ようてん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>給与</t>
+    <rPh sb="0" eb="2">
+      <t>キュウヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>きゅうよ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>超える</t>
+    <rPh sb="0" eb="1">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こえる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>為替</t>
+    <rPh sb="0" eb="2">
+      <t>カワセ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かわせ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>（尤指外</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>汇</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>汇兑</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>汇</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>票</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>当番</t>
+    <rPh sb="0" eb="2">
+      <t>トウバン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>とうばん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>班，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>勤</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>宿題</t>
+    <rPh sb="0" eb="2">
+      <t>シュクダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しゅくだい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>気味</t>
+    <rPh sb="0" eb="2">
+      <t>ギミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ぎみ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>【接</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>头</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/接尾】稍微</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名作</t>
+    <rPh sb="0" eb="2">
+      <t>メイサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>めいさく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>粗い</t>
+    <rPh sb="0" eb="1">
+      <t>アラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あらい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>洗い</t>
+    <rPh sb="0" eb="1">
+      <t>アラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>荒い</t>
+    <rPh sb="0" eb="1">
+      <t>アラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>粗暴；凶猛；不礼貌</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>届ける</t>
+    <rPh sb="0" eb="1">
+      <t>トド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>とどける</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>投</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>递、申报或报告</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>盗難</t>
+    <rPh sb="0" eb="2">
+      <t>トウナン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>とうなん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>失盗，被盗</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>改正</t>
+    <rPh sb="0" eb="2">
+      <t>カイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かいせい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>快晴</t>
+    <rPh sb="0" eb="2">
+      <t>カイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>晴れる</t>
+    <rPh sb="0" eb="1">
+      <t>ハ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻める</t>
+    <rPh sb="0" eb="1">
+      <t>セ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>せめる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>进</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>攻</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>議員</t>
+    <rPh sb="0" eb="2">
+      <t>ギイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ぎいん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>瞬間</t>
+    <rPh sb="0" eb="2">
+      <t>シュンカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しゅんかん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オリエンテーション</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>新人教育、确定方</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>针</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>過失</t>
+    <rPh sb="0" eb="2">
+      <t>カシツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かしつ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>器</t>
+    <rPh sb="0" eb="1">
+      <t>ウツワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>うつわ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>地主</t>
+    <rPh sb="0" eb="2">
+      <t>ジヌシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>じぬし</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>むさべつ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無差別</t>
+    <rPh sb="0" eb="3">
+      <t>ムサベツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>通り道</t>
+    <rPh sb="0" eb="1">
+      <t>トオ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ミチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>とおりみち</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>通路。通道</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自殺</t>
+    <rPh sb="0" eb="2">
+      <t>ジサツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>じさつ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>漏らす</t>
+    <rPh sb="0" eb="1">
+      <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>もらす</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>冒険</t>
+    <rPh sb="0" eb="2">
+      <t>ボウケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ぼうけん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>つる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>吊る</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>吊；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>悬</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>；挂</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>不快</t>
+    <rPh sb="0" eb="2">
+      <t>フカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ふかい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>車道</t>
+    <rPh sb="0" eb="2">
+      <t>シャドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しゃどう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>裏口</t>
+    <rPh sb="0" eb="2">
+      <t>ウラグチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>うらぐち</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>裏側にある出入口、正式でない手段で，かげに回ってすること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無表情</t>
+    <rPh sb="0" eb="3">
+      <t>ムヒョウジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ムヒョウジョウ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>不満足</t>
+    <rPh sb="0" eb="3">
+      <t>フマンゾク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ふまんぞく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>国産</t>
+    <rPh sb="0" eb="2">
+      <t>コクサン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こくさん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>保守的</t>
+    <rPh sb="0" eb="3">
+      <t>ホシュテキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ほしゅてき</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フリーマーケット</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>古物市</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>古物</t>
+    <rPh sb="0" eb="2">
+      <t>コブツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こぶつ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>外来</t>
+    <rPh sb="0" eb="2">
+      <t>ガイライ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>がいらい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チンパンジー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>黑猩猩</t>
+  </si>
+  <si>
+    <t>隣り合わせる</t>
+    <rPh sb="0" eb="1">
+      <t>トナ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>となりあわせる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>毗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>邻</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>；（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>优</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>势</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>和劣</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>势</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）相伴</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>飛び跳ねる</t>
+    <rPh sb="0" eb="1">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ハ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>とびはねる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>跳</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>动</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>蹦</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>跳</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無給</t>
+    <rPh sb="0" eb="2">
+      <t>ムキュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>むきゅう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>観察</t>
+    <rPh sb="0" eb="2">
+      <t>カンサツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かんさつ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>亡くす</t>
+    <rPh sb="0" eb="1">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なくす</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無くす</t>
+    <rPh sb="0" eb="1">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>失くす</t>
+    <rPh sb="0" eb="1">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>丢</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>失，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>丢</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>掉；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>丧</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>失，失去；消</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>灭</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，去掉</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>死，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>丧</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>丢</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>失，消除</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>芯</t>
+    <rPh sb="0" eb="1">
+      <t>シン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>花心；灯芯；中心，核心</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>そり</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>雪橇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>成る</t>
+    <rPh sb="0" eb="1">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>1.做好；完成。（物事ができ上がる。）
+2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>组</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>成。（構成される。）
+3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>变</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>成。（今までと違った状態、形に変わる。）
+4.到了某个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>阶</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>段。（ある時分、時期などに至る。）</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>紺</t>
+    <rPh sb="0" eb="1">
+      <t>コン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>藏青色</t>
+    <rPh sb="2" eb="3">
+      <t>イロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大使</t>
+    <rPh sb="0" eb="2">
+      <t>タイシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>たいし</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エチケット</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>礼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>节</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，礼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>仪</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>规</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>矩</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>笑い話</t>
+    <rPh sb="0" eb="1">
+      <t>ワラ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>バナシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>わらいばなし</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>笑話</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>着ける</t>
+    <rPh sb="0" eb="1">
+      <t>ツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>つける</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>穿上；尾随</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>待遇</t>
+    <rPh sb="0" eb="2">
+      <t>タイグウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>たいぐう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>教養</t>
+    <rPh sb="0" eb="2">
+      <t>キョウヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>きょうよう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>文脈</t>
+    <rPh sb="0" eb="2">
+      <t>ブンミャク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ぶんみゃく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>傷</t>
+    <rPh sb="0" eb="1">
+      <t>キズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>きず</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ペンチ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>钳子</t>
+  </si>
+  <si>
+    <t>不正</t>
+    <rPh sb="0" eb="2">
+      <t>フセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ふせい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>不正当，不正</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>经</t>
+    </r>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -9988,7 +12499,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -10015,6 +12526,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -10314,36 +12832,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="F1" s="15" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="F1" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="K1" s="15" t="s">
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="K1" s="16" t="s">
         <v>155</v>
       </c>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="P1" s="15" t="s">
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="P1" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
-      <c r="U1" s="15" t="s">
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
+      <c r="U1" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="V1" s="15"/>
-      <c r="W1" s="15"/>
-      <c r="X1" s="15"/>
+      <c r="V1" s="16"/>
+      <c r="W1" s="16"/>
+      <c r="X1" s="16"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
@@ -12250,42 +14768,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.4">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>314</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="F1" s="15" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="F1" s="16" t="s">
         <v>315</v>
       </c>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="K1" s="15" t="s">
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="K1" s="16" t="s">
         <v>316</v>
       </c>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="P1" s="15" t="s">
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="P1" s="16" t="s">
         <v>317</v>
       </c>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
-      <c r="U1" s="15" t="s">
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
+      <c r="U1" s="16" t="s">
         <v>318</v>
       </c>
-      <c r="V1" s="15"/>
-      <c r="W1" s="15"/>
-      <c r="X1" s="15"/>
-      <c r="Z1" s="15" t="s">
+      <c r="V1" s="16"/>
+      <c r="W1" s="16"/>
+      <c r="X1" s="16"/>
+      <c r="Z1" s="16" t="s">
         <v>319</v>
       </c>
-      <c r="AA1" s="15"/>
-      <c r="AB1" s="15"/>
-      <c r="AC1" s="15"/>
+      <c r="AA1" s="16"/>
+      <c r="AB1" s="16"/>
+      <c r="AC1" s="16"/>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
@@ -14215,36 +16733,36 @@
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>482</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="F1" s="15" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="F1" s="16" t="s">
         <v>483</v>
       </c>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="K1" s="15" t="s">
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="K1" s="16" t="s">
         <v>484</v>
       </c>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="P1" s="15" t="s">
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="P1" s="16" t="s">
         <v>485</v>
       </c>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
-      <c r="U1" s="15" t="s">
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
+      <c r="U1" s="16" t="s">
         <v>486</v>
       </c>
-      <c r="V1" s="15"/>
-      <c r="W1" s="15"/>
-      <c r="X1" s="15"/>
+      <c r="V1" s="16"/>
+      <c r="W1" s="16"/>
+      <c r="X1" s="16"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
@@ -15979,10 +18497,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABCFB6B5-470C-49CD-A986-0D927513A327}">
-  <dimension ref="A1:X33"/>
+  <dimension ref="A1:AC34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E15" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="AC34" sqref="AC34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -15991,39 +18509,45 @@
     <col min="9" max="9" width="81.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.4">
+      <c r="A1" s="16" t="s">
         <v>1216</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="F1" s="15" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="F1" s="16" t="s">
         <v>1217</v>
       </c>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="K1" s="15" t="s">
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="K1" s="16" t="s">
         <v>1218</v>
       </c>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="P1" s="15" t="s">
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="P1" s="16" t="s">
         <v>1219</v>
       </c>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
-      <c r="U1" s="15" t="s">
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
+      <c r="U1" s="16" t="s">
         <v>1220</v>
       </c>
-      <c r="V1" s="15"/>
-      <c r="W1" s="15"/>
-      <c r="X1" s="15"/>
+      <c r="V1" s="16"/>
+      <c r="W1" s="16"/>
+      <c r="X1" s="16"/>
+      <c r="Z1" s="16" t="s">
+        <v>1438</v>
+      </c>
+      <c r="AA1" s="16"/>
+      <c r="AB1" s="16"/>
+      <c r="AC1" s="16"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A2" s="10" t="s">
         <v>4</v>
       </c>
@@ -16084,8 +18608,20 @@
       <c r="X2" s="10" t="s">
         <v>6</v>
       </c>
+      <c r="Z2" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA2" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB2" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC2" s="15" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>1226</v>
       </c>
@@ -16110,8 +18646,47 @@
       <c r="I3" t="s">
         <v>1296</v>
       </c>
+      <c r="K3" t="s">
+        <v>1384</v>
+      </c>
+      <c r="L3" t="s">
+        <v>1379</v>
+      </c>
+      <c r="M3" t="s">
+        <v>1386</v>
+      </c>
+      <c r="P3" t="s">
+        <v>1455</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>1456</v>
+      </c>
+      <c r="R3" t="s">
+        <v>1457</v>
+      </c>
+      <c r="S3" t="s">
+        <v>1458</v>
+      </c>
+      <c r="V3" t="s">
+        <v>1532</v>
+      </c>
+      <c r="W3" t="s">
+        <v>1478</v>
+      </c>
+      <c r="X3" t="s">
+        <v>1533</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>1603</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>1604</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>1478</v>
+      </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>1223</v>
       </c>
@@ -16133,8 +18708,47 @@
       <c r="I4" t="s">
         <v>1299</v>
       </c>
+      <c r="K4" t="s">
+        <v>1385</v>
+      </c>
+      <c r="L4" t="s">
+        <v>1379</v>
+      </c>
+      <c r="M4" t="s">
+        <v>1386</v>
+      </c>
+      <c r="P4" t="s">
+        <v>1459</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>1460</v>
+      </c>
+      <c r="R4" t="s">
+        <v>1448</v>
+      </c>
+      <c r="U4" t="s">
+        <v>1534</v>
+      </c>
+      <c r="V4" t="s">
+        <v>1535</v>
+      </c>
+      <c r="W4" t="s">
+        <v>1453</v>
+      </c>
+      <c r="X4" s="7" t="s">
+        <v>1536</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>1605</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>1606</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>1448</v>
+      </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>133</v>
       </c>
@@ -16153,8 +18767,53 @@
       <c r="H5" t="s">
         <v>1295</v>
       </c>
+      <c r="K5" t="s">
+        <v>1380</v>
+      </c>
+      <c r="L5" t="s">
+        <v>1383</v>
+      </c>
+      <c r="M5" t="s">
+        <v>1388</v>
+      </c>
+      <c r="P5" t="s">
+        <v>1461</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>1462</v>
+      </c>
+      <c r="R5" t="s">
+        <v>1448</v>
+      </c>
+      <c r="S5" s="7" t="s">
+        <v>1463</v>
+      </c>
+      <c r="U5" t="s">
+        <v>1537</v>
+      </c>
+      <c r="V5" t="s">
+        <v>1538</v>
+      </c>
+      <c r="W5" t="s">
+        <v>1448</v>
+      </c>
+      <c r="X5" t="s">
+        <v>1539</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>1607</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>1608</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>1448</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>1609</v>
+      </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>1225</v>
       </c>
@@ -16179,8 +18838,47 @@
       <c r="I6" t="s">
         <v>1304</v>
       </c>
+      <c r="K6" t="s">
+        <v>1381</v>
+      </c>
+      <c r="L6" t="s">
+        <v>1383</v>
+      </c>
+      <c r="M6" t="s">
+        <v>1387</v>
+      </c>
+      <c r="P6" t="s">
+        <v>1464</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>1465</v>
+      </c>
+      <c r="R6" t="s">
+        <v>1453</v>
+      </c>
+      <c r="S6" s="17" t="s">
+        <v>1466</v>
+      </c>
+      <c r="U6" t="s">
+        <v>1540</v>
+      </c>
+      <c r="V6" t="s">
+        <v>1541</v>
+      </c>
+      <c r="W6" t="s">
+        <v>1448</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>1610</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>1611</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>1478</v>
+      </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>1228</v>
       </c>
@@ -16205,8 +18903,44 @@
       <c r="I7" t="s">
         <v>1307</v>
       </c>
+      <c r="K7" t="s">
+        <v>1382</v>
+      </c>
+      <c r="L7" t="s">
+        <v>1383</v>
+      </c>
+      <c r="M7" t="s">
+        <v>1387</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>1467</v>
+      </c>
+      <c r="R7" t="s">
+        <v>1448</v>
+      </c>
+      <c r="S7" s="17" t="s">
+        <v>1468</v>
+      </c>
+      <c r="U7" t="s">
+        <v>1542</v>
+      </c>
+      <c r="V7" t="s">
+        <v>1543</v>
+      </c>
+      <c r="W7" t="s">
+        <v>1448</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>1612</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>1613</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>1478</v>
+      </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>1231</v>
       </c>
@@ -16228,8 +18962,50 @@
       <c r="I8" t="s">
         <v>1310</v>
       </c>
+      <c r="K8" t="s">
+        <v>1389</v>
+      </c>
+      <c r="L8" t="s">
+        <v>1390</v>
+      </c>
+      <c r="M8" t="s">
+        <v>1391</v>
+      </c>
+      <c r="N8" t="s">
+        <v>1392</v>
+      </c>
+      <c r="P8" t="s">
+        <v>1469</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>1470</v>
+      </c>
+      <c r="R8" t="s">
+        <v>1448</v>
+      </c>
+      <c r="S8" s="17" t="s">
+        <v>1471</v>
+      </c>
+      <c r="U8" t="s">
+        <v>1544</v>
+      </c>
+      <c r="V8" t="s">
+        <v>1545</v>
+      </c>
+      <c r="W8" t="s">
+        <v>1486</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>1614</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>1615</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>1448</v>
+      </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>1233</v>
       </c>
@@ -16251,8 +19027,50 @@
       <c r="I9" t="s">
         <v>1313</v>
       </c>
+      <c r="K9" t="s">
+        <v>1393</v>
+      </c>
+      <c r="L9" t="s">
+        <v>1394</v>
+      </c>
+      <c r="M9" t="s">
+        <v>1386</v>
+      </c>
+      <c r="P9" t="s">
+        <v>1472</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>1473</v>
+      </c>
+      <c r="R9" t="s">
+        <v>1474</v>
+      </c>
+      <c r="S9" s="17" t="s">
+        <v>1475</v>
+      </c>
+      <c r="U9" t="s">
+        <v>1546</v>
+      </c>
+      <c r="V9" t="s">
+        <v>1547</v>
+      </c>
+      <c r="W9" t="s">
+        <v>1448</v>
+      </c>
+      <c r="X9" t="s">
+        <v>1548</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>1616</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>1617</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>1478</v>
+      </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>1235</v>
       </c>
@@ -16274,8 +19092,50 @@
       <c r="H10" t="s">
         <v>1295</v>
       </c>
+      <c r="K10" t="s">
+        <v>1395</v>
+      </c>
+      <c r="L10" t="s">
+        <v>1396</v>
+      </c>
+      <c r="M10" t="s">
+        <v>1386</v>
+      </c>
+      <c r="P10" t="s">
+        <v>1476</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>1477</v>
+      </c>
+      <c r="R10" t="s">
+        <v>1478</v>
+      </c>
+      <c r="S10" s="17" t="s">
+        <v>1479</v>
+      </c>
+      <c r="U10" t="s">
+        <v>1549</v>
+      </c>
+      <c r="V10" t="s">
+        <v>1550</v>
+      </c>
+      <c r="W10" t="s">
+        <v>1448</v>
+      </c>
+      <c r="X10" s="18" t="s">
+        <v>1551</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>1618</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>1448</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>1619</v>
+      </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>1238</v>
       </c>
@@ -16300,8 +19160,44 @@
       <c r="I11" t="s">
         <v>1318</v>
       </c>
+      <c r="K11" t="s">
+        <v>1397</v>
+      </c>
+      <c r="L11" t="s">
+        <v>1396</v>
+      </c>
+      <c r="M11" t="s">
+        <v>1386</v>
+      </c>
+      <c r="P11" t="s">
+        <v>1480</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>1481</v>
+      </c>
+      <c r="R11" t="s">
+        <v>1448</v>
+      </c>
+      <c r="U11" t="s">
+        <v>1552</v>
+      </c>
+      <c r="V11" t="s">
+        <v>1553</v>
+      </c>
+      <c r="W11" t="s">
+        <v>1448</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>1620</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>1621</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>1448</v>
+      </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A12" s="13" t="s">
         <v>1241</v>
       </c>
@@ -16320,8 +19216,47 @@
       <c r="H12" t="s">
         <v>1295</v>
       </c>
+      <c r="K12" t="s">
+        <v>1398</v>
+      </c>
+      <c r="L12" t="s">
+        <v>1396</v>
+      </c>
+      <c r="M12" t="s">
+        <v>1386</v>
+      </c>
+      <c r="N12" t="s">
+        <v>1399</v>
+      </c>
+      <c r="P12" t="s">
+        <v>1482</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>1483</v>
+      </c>
+      <c r="R12" t="s">
+        <v>1448</v>
+      </c>
+      <c r="U12" t="s">
+        <v>1554</v>
+      </c>
+      <c r="V12" t="s">
+        <v>1555</v>
+      </c>
+      <c r="X12" t="s">
+        <v>1556</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>1622</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>1623</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>1448</v>
+      </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>1244</v>
       </c>
@@ -16346,8 +19281,47 @@
       <c r="I13" s="7" t="s">
         <v>1323</v>
       </c>
+      <c r="L13" t="s">
+        <v>1400</v>
+      </c>
+      <c r="M13" t="s">
+        <v>1386</v>
+      </c>
+      <c r="N13" t="s">
+        <v>1401</v>
+      </c>
+      <c r="P13" t="s">
+        <v>1484</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>1485</v>
+      </c>
+      <c r="R13" t="s">
+        <v>1486</v>
+      </c>
+      <c r="S13" t="s">
+        <v>1487</v>
+      </c>
+      <c r="U13" t="s">
+        <v>1557</v>
+      </c>
+      <c r="V13" t="s">
+        <v>1558</v>
+      </c>
+      <c r="W13" t="s">
+        <v>1448</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>1624</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>1448</v>
+      </c>
+      <c r="AC13" s="19" t="s">
+        <v>1625</v>
+      </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>1247</v>
       </c>
@@ -16369,8 +19343,50 @@
       <c r="I14" s="7" t="s">
         <v>1326</v>
       </c>
+      <c r="K14" t="s">
+        <v>1402</v>
+      </c>
+      <c r="L14" t="s">
+        <v>1403</v>
+      </c>
+      <c r="M14" t="s">
+        <v>1386</v>
+      </c>
+      <c r="N14" s="7" t="s">
+        <v>1404</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>1488</v>
+      </c>
+      <c r="R14" t="s">
+        <v>1448</v>
+      </c>
+      <c r="S14" s="7" t="s">
+        <v>1489</v>
+      </c>
+      <c r="U14" t="s">
+        <v>1559</v>
+      </c>
+      <c r="V14" t="s">
+        <v>1560</v>
+      </c>
+      <c r="W14" t="s">
+        <v>1509</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>1626</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>1627</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>1486</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>1628</v>
+      </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>1249</v>
       </c>
@@ -16389,8 +19405,53 @@
       <c r="H15" t="s">
         <v>1295</v>
       </c>
+      <c r="K15" t="s">
+        <v>1405</v>
+      </c>
+      <c r="L15" t="s">
+        <v>1406</v>
+      </c>
+      <c r="M15" t="s">
+        <v>1388</v>
+      </c>
+      <c r="N15" s="7" t="s">
+        <v>1407</v>
+      </c>
+      <c r="P15" t="s">
+        <v>1490</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>1491</v>
+      </c>
+      <c r="R15" t="s">
+        <v>1474</v>
+      </c>
+      <c r="S15" s="7" t="s">
+        <v>1495</v>
+      </c>
+      <c r="U15" t="s">
+        <v>1561</v>
+      </c>
+      <c r="V15" t="s">
+        <v>1560</v>
+      </c>
+      <c r="W15" t="s">
+        <v>1448</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>1629</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>1630</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>1486</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>1631</v>
+      </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>1251</v>
       </c>
@@ -16412,8 +19473,50 @@
       <c r="I16" t="s">
         <v>1331</v>
       </c>
+      <c r="K16" t="s">
+        <v>1408</v>
+      </c>
+      <c r="L16" t="s">
+        <v>1409</v>
+      </c>
+      <c r="M16" t="s">
+        <v>1386</v>
+      </c>
+      <c r="P16" t="s">
+        <v>1492</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>1493</v>
+      </c>
+      <c r="R16" t="s">
+        <v>1448</v>
+      </c>
+      <c r="S16" s="7" t="s">
+        <v>1494</v>
+      </c>
+      <c r="U16" t="s">
+        <v>1562</v>
+      </c>
+      <c r="V16" t="s">
+        <v>1560</v>
+      </c>
+      <c r="W16" t="s">
+        <v>1509</v>
+      </c>
+      <c r="X16" t="s">
+        <v>1563</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>1632</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>1633</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>1448</v>
+      </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.4">
       <c r="B17" t="s">
         <v>1253</v>
       </c>
@@ -16435,8 +19538,53 @@
       <c r="I17" t="s">
         <v>1334</v>
       </c>
+      <c r="K17" t="s">
+        <v>1410</v>
+      </c>
+      <c r="L17" t="s">
+        <v>1411</v>
+      </c>
+      <c r="M17" t="s">
+        <v>1386</v>
+      </c>
+      <c r="N17" t="s">
+        <v>1412</v>
+      </c>
+      <c r="P17" t="s">
+        <v>1496</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>1497</v>
+      </c>
+      <c r="R17" t="s">
+        <v>1448</v>
+      </c>
+      <c r="S17" s="7" t="s">
+        <v>1498</v>
+      </c>
+      <c r="U17" t="s">
+        <v>1564</v>
+      </c>
+      <c r="V17" t="s">
+        <v>1565</v>
+      </c>
+      <c r="W17" t="s">
+        <v>1486</v>
+      </c>
+      <c r="X17" t="s">
+        <v>1566</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>1634</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>1635</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>1448</v>
+      </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>1255</v>
       </c>
@@ -16461,8 +19609,53 @@
       <c r="I18" t="s">
         <v>1337</v>
       </c>
+      <c r="L18" t="s">
+        <v>1413</v>
+      </c>
+      <c r="M18" t="s">
+        <v>1386</v>
+      </c>
+      <c r="N18" t="s">
+        <v>1414</v>
+      </c>
+      <c r="P18" t="s">
+        <v>1499</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>1500</v>
+      </c>
+      <c r="R18" t="s">
+        <v>1478</v>
+      </c>
+      <c r="S18" s="7" t="s">
+        <v>1501</v>
+      </c>
+      <c r="U18" t="s">
+        <v>1567</v>
+      </c>
+      <c r="V18" t="s">
+        <v>1568</v>
+      </c>
+      <c r="W18" t="s">
+        <v>1448</v>
+      </c>
+      <c r="X18" t="s">
+        <v>1569</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>1636</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>1637</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>1474</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>1641</v>
+      </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>1258</v>
       </c>
@@ -16487,8 +19680,47 @@
       <c r="I19" t="s">
         <v>1341</v>
       </c>
+      <c r="K19" t="s">
+        <v>1415</v>
+      </c>
+      <c r="L19" t="s">
+        <v>1416</v>
+      </c>
+      <c r="M19" t="s">
+        <v>1391</v>
+      </c>
+      <c r="P19" t="s">
+        <v>1502</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>1503</v>
+      </c>
+      <c r="R19" t="s">
+        <v>1448</v>
+      </c>
+      <c r="U19" t="s">
+        <v>1570</v>
+      </c>
+      <c r="V19" t="s">
+        <v>1571</v>
+      </c>
+      <c r="W19" t="s">
+        <v>1448</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>1638</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>1637</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>1474</v>
+      </c>
+      <c r="AC19" s="7" t="s">
+        <v>1640</v>
+      </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>1260</v>
       </c>
@@ -16510,8 +19742,53 @@
       <c r="H20" t="s">
         <v>1295</v>
       </c>
+      <c r="K20" t="s">
+        <v>1417</v>
+      </c>
+      <c r="L20" t="s">
+        <v>1418</v>
+      </c>
+      <c r="M20" t="s">
+        <v>1386</v>
+      </c>
+      <c r="N20" t="s">
+        <v>1419</v>
+      </c>
+      <c r="P20" t="s">
+        <v>1504</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>1505</v>
+      </c>
+      <c r="R20" t="s">
+        <v>1448</v>
+      </c>
+      <c r="U20" t="s">
+        <v>1572</v>
+      </c>
+      <c r="V20" t="s">
+        <v>1571</v>
+      </c>
+      <c r="W20" t="s">
+        <v>1448</v>
+      </c>
+      <c r="X20" t="s">
+        <v>1573</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>1639</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>1637</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>1474</v>
+      </c>
+      <c r="AC20" s="7" t="s">
+        <v>1642</v>
+      </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>1261</v>
       </c>
@@ -16536,8 +19813,50 @@
       <c r="I21" t="s">
         <v>1350</v>
       </c>
+      <c r="K21" t="s">
+        <v>1420</v>
+      </c>
+      <c r="L21" t="s">
+        <v>1421</v>
+      </c>
+      <c r="M21" t="s">
+        <v>1386</v>
+      </c>
+      <c r="P21" t="s">
+        <v>1506</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>1505</v>
+      </c>
+      <c r="R21" t="s">
+        <v>1448</v>
+      </c>
+      <c r="U21" t="s">
+        <v>1574</v>
+      </c>
+      <c r="V21" t="s">
+        <v>1575</v>
+      </c>
+      <c r="W21" t="s">
+        <v>1486</v>
+      </c>
+      <c r="X21" s="7" t="s">
+        <v>1576</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>1643</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>1644</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>1448</v>
+      </c>
+      <c r="AC21" s="7" t="s">
+        <v>1645</v>
+      </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>1262</v>
       </c>
@@ -16562,8 +19881,47 @@
       <c r="I22" t="s">
         <v>1349</v>
       </c>
+      <c r="K22" t="s">
+        <v>1422</v>
+      </c>
+      <c r="L22" t="s">
+        <v>1423</v>
+      </c>
+      <c r="M22" t="s">
+        <v>1386</v>
+      </c>
+      <c r="P22" t="s">
+        <v>1507</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>1508</v>
+      </c>
+      <c r="R22" t="s">
+        <v>1509</v>
+      </c>
+      <c r="S22" t="s">
+        <v>1510</v>
+      </c>
+      <c r="U22" t="s">
+        <v>1577</v>
+      </c>
+      <c r="V22" t="s">
+        <v>1578</v>
+      </c>
+      <c r="W22" t="s">
+        <v>1448</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>1646</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>1448</v>
+      </c>
+      <c r="AC22" s="7" t="s">
+        <v>1647</v>
+      </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>1267</v>
       </c>
@@ -16582,8 +19940,50 @@
       <c r="H23" t="s">
         <v>1295</v>
       </c>
+      <c r="K23" t="s">
+        <v>1424</v>
+      </c>
+      <c r="L23" t="s">
+        <v>1425</v>
+      </c>
+      <c r="M23" t="s">
+        <v>1386</v>
+      </c>
+      <c r="P23" t="s">
+        <v>1511</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>1512</v>
+      </c>
+      <c r="R23" t="s">
+        <v>1448</v>
+      </c>
+      <c r="S23" t="s">
+        <v>1513</v>
+      </c>
+      <c r="U23" t="s">
+        <v>1579</v>
+      </c>
+      <c r="V23" t="s">
+        <v>1580</v>
+      </c>
+      <c r="W23" t="s">
+        <v>1448</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>1648</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>1649</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>1474</v>
+      </c>
+      <c r="AC23" s="20" t="s">
+        <v>1650</v>
+      </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.4">
       <c r="B24" t="s">
         <v>1269</v>
       </c>
@@ -16605,8 +20005,50 @@
       <c r="I24" t="s">
         <v>1356</v>
       </c>
+      <c r="K24" t="s">
+        <v>1426</v>
+      </c>
+      <c r="L24" t="s">
+        <v>1427</v>
+      </c>
+      <c r="M24" t="s">
+        <v>1386</v>
+      </c>
+      <c r="P24" t="s">
+        <v>1514</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>1515</v>
+      </c>
+      <c r="R24" t="s">
+        <v>1486</v>
+      </c>
+      <c r="S24" t="s">
+        <v>1516</v>
+      </c>
+      <c r="V24" t="s">
+        <v>1581</v>
+      </c>
+      <c r="W24" t="s">
+        <v>1448</v>
+      </c>
+      <c r="X24" t="s">
+        <v>1582</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>1651</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>1652</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>1448</v>
+      </c>
+      <c r="AC24" s="20" t="s">
+        <v>1653</v>
+      </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>1271</v>
       </c>
@@ -16631,8 +20073,47 @@
       <c r="I25" t="s">
         <v>1359</v>
       </c>
+      <c r="K25" t="s">
+        <v>1428</v>
+      </c>
+      <c r="L25" t="s">
+        <v>1429</v>
+      </c>
+      <c r="M25" t="s">
+        <v>1386</v>
+      </c>
+      <c r="N25" t="s">
+        <v>1430</v>
+      </c>
+      <c r="P25" t="s">
+        <v>1517</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>1518</v>
+      </c>
+      <c r="R25" t="s">
+        <v>1448</v>
+      </c>
+      <c r="U25" t="s">
+        <v>1583</v>
+      </c>
+      <c r="V25" t="s">
+        <v>1584</v>
+      </c>
+      <c r="W25" t="s">
+        <v>1448</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>1654</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>1655</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>1448</v>
+      </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -16654,8 +20135,44 @@
       <c r="I26" t="s">
         <v>1362</v>
       </c>
+      <c r="K26" t="s">
+        <v>1431</v>
+      </c>
+      <c r="L26" t="s">
+        <v>1432</v>
+      </c>
+      <c r="M26" t="s">
+        <v>1386</v>
+      </c>
+      <c r="P26" t="s">
+        <v>1519</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>1520</v>
+      </c>
+      <c r="R26" t="s">
+        <v>1448</v>
+      </c>
+      <c r="U26" t="s">
+        <v>1585</v>
+      </c>
+      <c r="V26" t="s">
+        <v>1586</v>
+      </c>
+      <c r="W26" t="s">
+        <v>1448</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>1656</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>1448</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>1657</v>
+      </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>1273</v>
       </c>
@@ -16674,8 +20191,47 @@
       <c r="H27" t="s">
         <v>1295</v>
       </c>
+      <c r="K27" t="s">
+        <v>1433</v>
+      </c>
+      <c r="L27" t="s">
+        <v>1434</v>
+      </c>
+      <c r="M27" t="s">
+        <v>1386</v>
+      </c>
+      <c r="P27" t="s">
+        <v>1521</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>1522</v>
+      </c>
+      <c r="R27" t="s">
+        <v>1448</v>
+      </c>
+      <c r="U27" t="s">
+        <v>1587</v>
+      </c>
+      <c r="V27" t="s">
+        <v>1588</v>
+      </c>
+      <c r="W27" t="s">
+        <v>1448</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>1658</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>1659</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>1448</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>1660</v>
+      </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>1275</v>
       </c>
@@ -16694,8 +20250,50 @@
       <c r="I28" s="7" t="s">
         <v>1366</v>
       </c>
+      <c r="K28" t="s">
+        <v>1435</v>
+      </c>
+      <c r="L28" t="s">
+        <v>1436</v>
+      </c>
+      <c r="M28" t="s">
+        <v>1386</v>
+      </c>
+      <c r="N28" t="s">
+        <v>1437</v>
+      </c>
+      <c r="P28" t="s">
+        <v>1523</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>1522</v>
+      </c>
+      <c r="R28" t="s">
+        <v>1448</v>
+      </c>
+      <c r="U28" t="s">
+        <v>1590</v>
+      </c>
+      <c r="V28" t="s">
+        <v>1589</v>
+      </c>
+      <c r="W28" t="s">
+        <v>1478</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>1661</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>1662</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>1486</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>1663</v>
+      </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>1277</v>
       </c>
@@ -16720,8 +20318,50 @@
       <c r="I29" s="7" t="s">
         <v>1369</v>
       </c>
+      <c r="K29" t="s">
+        <v>1439</v>
+      </c>
+      <c r="L29" t="s">
+        <v>1440</v>
+      </c>
+      <c r="M29" t="s">
+        <v>3</v>
+      </c>
+      <c r="N29" t="s">
+        <v>1441</v>
+      </c>
+      <c r="P29" t="s">
+        <v>1524</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>1525</v>
+      </c>
+      <c r="R29" t="s">
+        <v>1448</v>
+      </c>
+      <c r="U29" t="s">
+        <v>1591</v>
+      </c>
+      <c r="V29" t="s">
+        <v>1592</v>
+      </c>
+      <c r="W29" t="s">
+        <v>1448</v>
+      </c>
+      <c r="X29" t="s">
+        <v>1593</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>1664</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>1665</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>1448</v>
+      </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>1280</v>
       </c>
@@ -16743,8 +20383,47 @@
       <c r="H30" t="s">
         <v>1295</v>
       </c>
+      <c r="K30" t="s">
+        <v>1442</v>
+      </c>
+      <c r="L30" t="s">
+        <v>1443</v>
+      </c>
+      <c r="M30" t="s">
+        <v>1444</v>
+      </c>
+      <c r="N30" t="s">
+        <v>1445</v>
+      </c>
+      <c r="P30" t="s">
+        <v>1526</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>1525</v>
+      </c>
+      <c r="R30" t="s">
+        <v>1448</v>
+      </c>
+      <c r="U30" t="s">
+        <v>1594</v>
+      </c>
+      <c r="V30" t="s">
+        <v>1595</v>
+      </c>
+      <c r="W30" t="s">
+        <v>1448</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>1666</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>1667</v>
+      </c>
+      <c r="AB30" t="s">
+        <v>1448</v>
+      </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>1283</v>
       </c>
@@ -16766,8 +20445,44 @@
       <c r="I31" t="s">
         <v>1373</v>
       </c>
+      <c r="K31" t="s">
+        <v>1446</v>
+      </c>
+      <c r="L31" t="s">
+        <v>1447</v>
+      </c>
+      <c r="M31" t="s">
+        <v>1448</v>
+      </c>
+      <c r="P31" t="s">
+        <v>1527</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>1525</v>
+      </c>
+      <c r="R31" t="s">
+        <v>1448</v>
+      </c>
+      <c r="U31" t="s">
+        <v>1596</v>
+      </c>
+      <c r="V31" t="s">
+        <v>1597</v>
+      </c>
+      <c r="W31" t="s">
+        <v>1474</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>1668</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>1669</v>
+      </c>
+      <c r="AB31" t="s">
+        <v>1448</v>
+      </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>1287</v>
       </c>
@@ -16792,8 +20507,47 @@
       <c r="I32" t="s">
         <v>1376</v>
       </c>
+      <c r="K32" t="s">
+        <v>1449</v>
+      </c>
+      <c r="L32" t="s">
+        <v>1450</v>
+      </c>
+      <c r="M32" t="s">
+        <v>1448</v>
+      </c>
+      <c r="N32" t="s">
+        <v>1451</v>
+      </c>
+      <c r="P32" t="s">
+        <v>1528</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>1529</v>
+      </c>
+      <c r="R32" t="s">
+        <v>1448</v>
+      </c>
+      <c r="U32" t="s">
+        <v>1598</v>
+      </c>
+      <c r="V32" t="s">
+        <v>1599</v>
+      </c>
+      <c r="W32" t="s">
+        <v>1448</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>1670</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>1671</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>1448</v>
+      </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>1290</v>
       </c>
@@ -16815,9 +20569,63 @@
       <c r="H33" t="s">
         <v>1340</v>
       </c>
+      <c r="L33" t="s">
+        <v>1452</v>
+      </c>
+      <c r="M33" t="s">
+        <v>1453</v>
+      </c>
+      <c r="N33" t="s">
+        <v>1454</v>
+      </c>
+      <c r="P33" t="s">
+        <v>1530</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>1531</v>
+      </c>
+      <c r="R33" t="s">
+        <v>1448</v>
+      </c>
+      <c r="U33" t="s">
+        <v>1601</v>
+      </c>
+      <c r="V33" t="s">
+        <v>1600</v>
+      </c>
+      <c r="W33" t="s">
+        <v>1474</v>
+      </c>
+      <c r="X33" t="s">
+        <v>1602</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>1672</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>1448</v>
+      </c>
+      <c r="AC33" s="8" t="s">
+        <v>1673</v>
+      </c>
+    </row>
+    <row r="34" spans="1:29" x14ac:dyDescent="0.4">
+      <c r="Z34" t="s">
+        <v>1674</v>
+      </c>
+      <c r="AA34" t="s">
+        <v>1675</v>
+      </c>
+      <c r="AB34" t="s">
+        <v>1478</v>
+      </c>
+      <c r="AC34" t="s">
+        <v>1676</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="Z1:AC1"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="K1:N1"/>
